--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="22185" windowHeight="10155"/>
   </bookViews>
   <sheets>
     <sheet name="drow_ranger" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
   <si>
     <t>下标</t>
   </si>
@@ -50,7 +50,7 @@
     <t>层数</t>
   </si>
   <si>
-    <t>解锁条件</t>
+    <t>点击解锁技能</t>
   </si>
   <si>
     <t>最多可以投入多少点</t>
@@ -71,7 +71,7 @@
     <t>tier_number</t>
   </si>
   <si>
-    <t>unlock_condition</t>
+    <t>unlock_key</t>
   </si>
   <si>
     <t>max_number</t>
@@ -86,28 +86,31 @@
     <t>drow_1</t>
   </si>
   <si>
+    <t>2|5|8</t>
+  </si>
+  <si>
+    <t>爆炸箭</t>
+  </si>
+  <si>
+    <t>攻击变为300码范围伤害（直径），伤害提高40%/70%/120%，技能赋予火元素效果，伤害变为火元素伤害。</t>
+  </si>
+  <si>
+    <t>drow_1a</t>
+  </si>
+  <si>
+    <t>3|5</t>
+  </si>
+  <si>
+    <t>浓缩</t>
+  </si>
+  <si>
+    <t>爆炸箭有10%概率2.5/5倍伤害</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>爆炸箭</t>
-  </si>
-  <si>
-    <t>攻击变为300码范围伤害（直径），伤害提高40%/70%/120%，技能赋予火元素效果，伤害变为火元素伤害。</t>
-  </si>
-  <si>
-    <t>drow_1a</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>浓缩</t>
-  </si>
-  <si>
-    <t>爆炸箭有10%概率2.5/5倍伤害</t>
-  </si>
-  <si>
-    <t>2_1</t>
+    <t>0|0</t>
   </si>
   <si>
     <t>碎裂</t>
@@ -125,7 +128,7 @@
     <t>drow_1b</t>
   </si>
   <si>
-    <t>4_1</t>
+    <t>6|0</t>
   </si>
   <si>
     <t>连射</t>
@@ -134,46 +137,43 @@
     <t>穿透箭攻击时有50%/100%概率再射出一只箭。</t>
   </si>
   <si>
-    <t>5_1</t>
-  </si>
-  <si>
     <t>分裂箭</t>
   </si>
   <si>
     <t>攻击可以同时命中2/3/5个敌人。</t>
   </si>
   <si>
+    <t>9|10</t>
+  </si>
+  <si>
     <t>冰箭</t>
   </si>
   <si>
     <t>伤害提高150%/300%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
   </si>
   <si>
-    <t>8_1</t>
-  </si>
-  <si>
     <t>积蓄</t>
   </si>
   <si>
     <t>分裂箭命中时会额外回复2/4点蓝量。</t>
   </si>
   <si>
-    <t>9_1</t>
-  </si>
-  <si>
     <t>连续射击</t>
   </si>
   <si>
     <t>快速射出4支箭，每支箭造成攻击力130%/160%/190%/225%/260%的伤害。cd：3秒 蓝量消耗：20 作用范围：750码内敌对单位</t>
   </si>
   <si>
+    <t>12|15</t>
+  </si>
+  <si>
     <t>连发</t>
   </si>
   <si>
     <t>连续射击的弓箭数量增加至6/8/10支</t>
   </si>
   <si>
-    <t>11_1</t>
+    <t>13|0</t>
   </si>
   <si>
     <t>击破</t>
@@ -182,7 +182,7 @@
     <t>连续射击的每支箭都会使目标收到的伤害增加2%/3%/5%，持续3秒，最高10层效果。</t>
   </si>
   <si>
-    <t>12_1</t>
+    <t>14|0</t>
   </si>
   <si>
     <t>风箭</t>
@@ -191,22 +191,22 @@
     <t>技能赋予风元素效果，伤害变为风元素伤害。（风元素伤害增加15%。2级才显示）</t>
   </si>
   <si>
-    <t>13_1</t>
-  </si>
-  <si>
     <t>穿透</t>
   </si>
   <si>
     <t>连续射击可穿透目标，伤害提高20%/40%/60%。</t>
   </si>
   <si>
+    <t>16|0</t>
+  </si>
+  <si>
     <t>刺骨</t>
   </si>
   <si>
     <t>技能赋予冰元素效果，伤害变为冰元素伤害。（该技能冰元素减速效果增加至50%。2级才显示）</t>
   </si>
   <si>
-    <t>15_1</t>
+    <t>17|0</t>
   </si>
   <si>
     <t>冰爆</t>
@@ -215,22 +215,22 @@
     <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力160%/200%/250%冰元素伤害。</t>
   </si>
   <si>
-    <t>16_1</t>
-  </si>
-  <si>
     <t>散射</t>
   </si>
   <si>
     <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。 cd：3秒 蓝量消耗30 作用范围：500码距离，扇形90°</t>
   </si>
   <si>
+    <t>19|22</t>
+  </si>
+  <si>
     <t>火力覆盖</t>
   </si>
   <si>
     <t>散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高60%/90%/120%</t>
   </si>
   <si>
-    <t>18_1</t>
+    <t>20|0</t>
   </si>
   <si>
     <t>节减</t>
@@ -239,7 +239,7 @@
     <t>散射技能蓝耗下降5/10点</t>
   </si>
   <si>
-    <t>19_1</t>
+    <t>21|0</t>
   </si>
   <si>
     <t>压制</t>
@@ -248,31 +248,28 @@
     <t>对生命值高于50%的单位造成伤害提升30%/60%/100%</t>
   </si>
   <si>
-    <t>20_1</t>
-  </si>
-  <si>
     <t>双喷</t>
   </si>
   <si>
     <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有25%/30%/40%概率再次释放一次。（不可套娃）</t>
   </si>
   <si>
+    <t>23|0</t>
+  </si>
+  <si>
     <t>重创</t>
   </si>
   <si>
     <t>散射对距离越近的单位造成伤害越高。最近判定25码。最高提高伤害100%/200%。</t>
   </si>
   <si>
-    <t>22_1</t>
+    <t>24|0</t>
   </si>
   <si>
     <t>痛击</t>
   </si>
   <si>
     <t>散射对被降低移速的敌人造成的伤害提高30%/60%/100%。</t>
-  </si>
-  <si>
-    <t>23_1</t>
   </si>
   <si>
     <t>备战</t>
@@ -681,7 +678,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -768,32 +765,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color theme="0"/>
       </left>
@@ -829,19 +800,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thick">
-        <color rgb="FF595959"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -969,7 +927,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,34 +939,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,7 +1051,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1124,25 +1082,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1509,31 +1455,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7AD213E7-3E1F-4106-A91E-4AD874A569C6}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{E7473CB0-33A6-4FE8-9D40-E1F28D7699DA}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{0D92E1CF-8F51-44E7-89ED-96CCC4FB9BE9}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{FC3DE883-2E66-4598-AF2B-55C0050B4485}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{CD86D5B8-0A6B-422C-9556-F9F0D36A8F1A}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{A458ED50-7EEC-44E5-B333-C58A8CED696F}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{100ABD5E-8B6E-433D-B78B-F5EB68C7BD00}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3C79FF42-5655-4849-A3DB-4334CC64B052}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{C888EBA0-9AAB-400A-906F-690CBBAC46DF}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9A62E85B-6D60-42AC-A4BF-A99639E64124}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1839,12 +1785,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1884,7 +1830,7 @@
       <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1909,7 +1855,7 @@
       <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1938,7 +1884,7 @@
       <c r="H3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1967,7 +1913,7 @@
       <c r="H4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="11">
         <v>3</v>
       </c>
     </row>
@@ -1987,14 +1933,16 @@
       <c r="E5" s="8">
         <v>0</v>
       </c>
-      <c r="F5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="G5" s="8">
         <v>3</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="15">
+        <v>27</v>
+      </c>
+      <c r="I5" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2003,10 +1951,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5">
         <v>1</v>
@@ -2014,14 +1962,16 @@
       <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G6" s="5">
         <v>3</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="14">
+        <v>27</v>
+      </c>
+      <c r="I6" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2030,10 +1980,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8">
         <v>1</v>
@@ -2042,15 +1992,15 @@
         <v>1</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="8">
         <v>2</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="15">
+        <v>33</v>
+      </c>
+      <c r="I7" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2059,10 +2009,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D8" s="5">
         <v>1</v>
@@ -2070,14 +2020,16 @@
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G8" s="5">
         <v>3</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="14">
+        <v>27</v>
+      </c>
+      <c r="I8" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2097,14 +2049,16 @@
       <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="8"/>
+      <c r="F9" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G9" s="8">
         <v>2</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="15">
+        <v>38</v>
+      </c>
+      <c r="I9" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2113,10 +2067,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5">
         <v>1</v>
@@ -2124,14 +2078,16 @@
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G10" s="5">
         <v>3</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="14">
+        <v>27</v>
+      </c>
+      <c r="I10" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2151,14 +2107,16 @@
       <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G11" s="8">
         <v>3</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="15">
+        <v>27</v>
+      </c>
+      <c r="I11" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2167,10 +2125,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="5">
         <v>2</v>
@@ -2178,14 +2136,16 @@
       <c r="E12" s="5">
         <v>0</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G12" s="5">
         <v>1</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="14">
+        <v>45</v>
+      </c>
+      <c r="I12" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2205,14 +2165,16 @@
       <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="F13" s="8"/>
+      <c r="F13" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G13" s="8">
         <v>2</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2232,14 +2194,16 @@
       <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14" s="5"/>
+      <c r="F14" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G14" s="5">
         <v>3</v>
       </c>
       <c r="H14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2259,14 +2223,16 @@
       <c r="E15" s="8">
         <v>0</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G15" s="8">
         <v>4</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="I15" s="15">
+        <v>27</v>
+      </c>
+      <c r="I15" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2275,10 +2241,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>55</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="D16" s="5">
         <v>2</v>
@@ -2286,14 +2252,16 @@
       <c r="E16" s="5">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G16" s="5">
         <v>2</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I16" s="14">
+      <c r="H16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I16" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2313,14 +2281,16 @@
       <c r="E17" s="8">
         <v>0</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G17" s="8">
         <v>3</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2340,14 +2310,16 @@
       <c r="E18" s="5">
         <v>0</v>
       </c>
-      <c r="F18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G18" s="5">
         <v>4</v>
       </c>
-      <c r="H18" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="14">
+      <c r="H18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2356,10 +2328,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="9" t="s">
         <v>63</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="D19" s="8">
         <v>2</v>
@@ -2367,14 +2339,16 @@
       <c r="E19" s="8">
         <v>0</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G19" s="8">
         <v>1</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I19" s="15">
+        <v>64</v>
+      </c>
+      <c r="I19" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2394,14 +2368,16 @@
       <c r="E20" s="5">
         <v>0</v>
       </c>
-      <c r="F20" s="5"/>
+      <c r="F20" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G20" s="5">
         <v>2</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2421,14 +2397,16 @@
       <c r="E21" s="8">
         <v>0</v>
       </c>
-      <c r="F21" s="8"/>
+      <c r="F21" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G21" s="8">
         <v>3</v>
       </c>
       <c r="H21" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I21" s="15">
+      <c r="I21" s="12">
         <v>2</v>
       </c>
     </row>
@@ -2448,14 +2426,16 @@
       <c r="E22" s="5">
         <v>0</v>
       </c>
-      <c r="F22" s="5"/>
+      <c r="F22" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G22" s="5">
         <v>4</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="I22" s="14">
+        <v>27</v>
+      </c>
+      <c r="I22" s="11">
         <v>3</v>
       </c>
     </row>
@@ -2464,10 +2444,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>75</v>
       </c>
       <c r="D23" s="8">
         <v>2</v>
@@ -2475,14 +2455,16 @@
       <c r="E23" s="8">
         <v>0</v>
       </c>
-      <c r="F23" s="8"/>
+      <c r="F23" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G23" s="8">
         <v>2</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="15">
+      <c r="H23" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="I23" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2502,14 +2484,16 @@
       <c r="E24" s="5">
         <v>0</v>
       </c>
-      <c r="F24" s="5"/>
+      <c r="F24" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G24" s="5">
         <v>3</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="11">
         <v>2</v>
       </c>
     </row>
@@ -2529,14 +2513,16 @@
       <c r="E25" s="8">
         <v>0</v>
       </c>
-      <c r="F25" s="8"/>
+      <c r="F25" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G25" s="8">
         <v>4</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="15">
+      <c r="H25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I25" s="12">
         <v>3</v>
       </c>
     </row>
@@ -2545,10 +2531,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="D26" s="5">
         <v>2</v>
@@ -2556,14 +2542,16 @@
       <c r="E26" s="5">
         <v>0</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F26" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G26" s="5">
         <v>99</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I26" s="14">
+        <v>27</v>
+      </c>
+      <c r="I26" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2572,10 +2560,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>84</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>85</v>
       </c>
       <c r="D27" s="8">
         <v>2</v>
@@ -2583,14 +2571,16 @@
       <c r="E27" s="8">
         <v>0</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G27" s="8">
         <v>99</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I27" s="15">
+      <c r="H27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I27" s="12">
         <v>5</v>
       </c>
     </row>
@@ -2599,10 +2589,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>87</v>
       </c>
       <c r="D28" s="5">
         <v>2</v>
@@ -2610,14 +2600,16 @@
       <c r="E28" s="5">
         <v>0</v>
       </c>
-      <c r="F28" s="5"/>
+      <c r="F28" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G28" s="5">
         <v>99</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I28" s="14">
+        <v>27</v>
+      </c>
+      <c r="I28" s="11">
         <v>5</v>
       </c>
     </row>
@@ -2626,10 +2618,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="D29" s="8">
         <v>2</v>
@@ -2637,478 +2629,25 @@
       <c r="E29" s="8">
         <v>0</v>
       </c>
-      <c r="F29" s="8"/>
+      <c r="F29" s="5" t="s">
+        <v>26</v>
+      </c>
       <c r="G29" s="8">
         <v>99</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I29" s="15">
+      <c r="H29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="12">
         <v>5</v>
       </c>
     </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="14"/>
-    </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A31" s="7">
-        <v>30</v>
-      </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="14"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A33" s="7">
-        <v>32</v>
-      </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="14"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="15"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="14"/>
-    </row>
-    <row r="37" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="15"/>
-    </row>
-    <row r="38" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="14"/>
-    </row>
-    <row r="39" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="14"/>
-    </row>
-    <row r="41" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A41" s="7">
-        <v>40</v>
-      </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="15"/>
-    </row>
-    <row r="42" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A42" s="4">
-        <v>41</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="14"/>
-    </row>
-    <row r="43" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="15"/>
-    </row>
-    <row r="44" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A44" s="4">
-        <v>43</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="14"/>
-    </row>
-    <row r="45" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="15"/>
-    </row>
-    <row r="46" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="14"/>
-    </row>
-    <row r="47" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="15"/>
-    </row>
-    <row r="48" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="14"/>
-    </row>
-    <row r="49" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="15"/>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A50" s="4">
-        <v>49</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="14"/>
-    </row>
-    <row r="51" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A51" s="7">
-        <v>50</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A52" s="4">
-        <v>51</v>
-      </c>
-      <c r="B52" s="5"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="14"/>
-    </row>
-    <row r="53" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A53" s="7">
-        <v>52</v>
-      </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="15"/>
-    </row>
-    <row r="54" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A54" s="4">
-        <v>53</v>
-      </c>
-      <c r="B54" s="5"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="14"/>
-    </row>
-    <row r="55" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A55" s="7">
-        <v>54</v>
-      </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A56" s="4">
-        <v>55</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="14"/>
-    </row>
-    <row r="57" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A57" s="7">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A58" s="4">
-        <v>57</v>
-      </c>
-      <c r="B58" s="5"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="14"/>
-    </row>
-    <row r="59" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A59" s="7">
-        <v>58</v>
-      </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="15"/>
-    </row>
-    <row r="60" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A60" s="4">
-        <v>59</v>
-      </c>
-      <c r="B60" s="5"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="14"/>
-    </row>
-    <row r="61" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A61" s="7">
-        <v>60</v>
-      </c>
-      <c r="B61" s="8"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="15"/>
-    </row>
-    <row r="62" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A62" s="4">
-        <v>61</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="14"/>
-    </row>
-    <row r="63" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A63" s="7">
-        <v>62</v>
-      </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="15"/>
-    </row>
-    <row r="64" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A64" s="10">
-        <v>63</v>
-      </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="16"/>
-    </row>
-    <row r="65" ht="47" customHeight="1"/>
-    <row r="66" ht="47" customHeight="1"/>
-    <row r="67" ht="47" customHeight="1"/>
-    <row r="68" ht="47" customHeight="1"/>
-    <row r="69" ht="47" customHeight="1"/>
-    <row r="70" ht="47" customHeight="1"/>
+    <row r="30" ht="47" customHeight="1"/>
+    <row r="31" ht="47" customHeight="1"/>
+    <row r="32" ht="47" customHeight="1"/>
+    <row r="33" ht="47" customHeight="1"/>
+    <row r="34" ht="47" customHeight="1"/>
+    <row r="35" ht="47" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="drow_ranger" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
   <si>
     <t>下标</t>
   </si>
@@ -56,6 +56,12 @@
     <t>最多可以投入多少点</t>
   </si>
   <si>
+    <t>结束</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>key</t>
   </si>
   <si>
@@ -77,6 +83,15 @@
     <t>max_number</t>
   </si>
   <si>
+    <t>AbilityValues[{]</t>
+  </si>
+  <si>
+    <t>[}]</t>
+  </si>
+  <si>
+    <t>ObjectValues[{]</t>
+  </si>
+  <si>
     <t>单体射击</t>
   </si>
   <si>
@@ -89,6 +104,12 @@
     <t>2|5|8</t>
   </si>
   <si>
+    <t>base_value 100</t>
+  </si>
+  <si>
+    <t>give_mana 5</t>
+  </si>
+  <si>
     <t>爆炸箭</t>
   </si>
   <si>
@@ -101,61 +122,87 @@
     <t>3|5</t>
   </si>
   <si>
+    <t>radius 300</t>
+  </si>
+  <si>
+    <t>bonus_mul 40 70 120</t>
+  </si>
+  <si>
     <t>浓缩</t>
   </si>
   <si>
     <t>爆炸箭有10%概率2.5/5倍伤害</t>
   </si>
   <si>
+    <t>0|0</t>
+  </si>
+  <si>
+    <t>mul_chance 10</t>
+  </si>
+  <si>
+    <t>mul_value 2 5</t>
+  </si>
+  <si>
+    <t>碎裂</t>
+  </si>
+  <si>
+    <t>爆炸箭范围变为450码（直径），灼烧伤害提高45%/90%。</t>
+  </si>
+  <si>
+    <t>bonus_radius 150</t>
+  </si>
+  <si>
+    <t>burn_dmg 45 90</t>
+  </si>
+  <si>
+    <t>Burn_DmgPercent {
+"Base" "45 90"
+}</t>
+  </si>
+  <si>
+    <t>穿透箭</t>
+  </si>
+  <si>
+    <t>攻击可以穿透敌人，伤害提高30%/50%/90%。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
+  </si>
+  <si>
+    <t>drow_1b</t>
+  </si>
+  <si>
+    <t>6|0</t>
+  </si>
+  <si>
+    <t>连射</t>
+  </si>
+  <si>
+    <t>穿透箭攻击时有50%/100%概率再射出一只箭。</t>
+  </si>
+  <si>
+    <t>分裂箭</t>
+  </si>
+  <si>
+    <t>攻击可以同时命中2/3/5个敌人。</t>
+  </si>
+  <si>
+    <t>9|10</t>
+  </si>
+  <si>
+    <t>冰箭</t>
+  </si>
+  <si>
+    <t>伤害提高150%/300%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
+  </si>
+  <si>
+    <t>drow_1c</t>
+  </si>
+  <si>
+    <t>积蓄</t>
+  </si>
+  <si>
+    <t>分裂箭命中时会额外回复2/4点蓝量。</t>
+  </si>
+  <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>0|0</t>
-  </si>
-  <si>
-    <t>碎裂</t>
-  </si>
-  <si>
-    <t>爆炸箭范围变为450码（直径），灼烧伤害提高45%/90%。</t>
-  </si>
-  <si>
-    <t>穿透箭</t>
-  </si>
-  <si>
-    <t>攻击可以穿透敌人，伤害提高30%/50%/90%。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
-  </si>
-  <si>
-    <t>drow_1b</t>
-  </si>
-  <si>
-    <t>6|0</t>
-  </si>
-  <si>
-    <t>连射</t>
-  </si>
-  <si>
-    <t>穿透箭攻击时有50%/100%概率再射出一只箭。</t>
-  </si>
-  <si>
-    <t>分裂箭</t>
-  </si>
-  <si>
-    <t>攻击可以同时命中2/3/5个敌人。</t>
-  </si>
-  <si>
-    <t>9|10</t>
-  </si>
-  <si>
-    <t>冰箭</t>
-  </si>
-  <si>
-    <t>伤害提高150%/300%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
-  </si>
-  <si>
-    <t>积蓄</t>
-  </si>
-  <si>
-    <t>分裂箭命中时会额外回复2/4点蓝量。</t>
   </si>
   <si>
     <t>连续射击</t>
@@ -306,20 +353,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -472,18 +512,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5A5A5A"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -678,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -691,35 +725,11 @@
         <color rgb="FF595959"/>
       </left>
       <right style="medium">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thick">
         <color rgb="FF595959"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color theme="0"/>
-      </left>
-      <right style="medium">
-        <color theme="0"/>
-      </right>
-      <top style="thick">
-        <color rgb="FF595959"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -730,7 +740,9 @@
       <right style="medium">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -765,16 +777,51 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
       </left>
-      <right style="thick">
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color rgb="FF595959"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
       </right>
-      <top style="thick">
+      <top/>
+      <bottom style="thick">
         <color rgb="FF595959"/>
-      </top>
-      <bottom/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -784,7 +831,9 @@
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thick">
+        <color rgb="FF595959"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -800,6 +849,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF595959"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
@@ -921,52 +994,55 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -981,114 +1057,144 @@
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1455,31 +1561,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{E7473CB0-33A6-4FE8-9D40-E1F28D7699DA}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{422ABE04-C190-4958-8EE1-C24E4760B70E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{FC3DE883-2E66-4598-AF2B-55C0050B4485}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{7FF38B2C-8FCD-4F63-958B-0E8ACC7C8A86}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{A458ED50-7EEC-44E5-B333-C58A8CED696F}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{F0013DF4-0FE5-456E-BBA5-304809296741}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3C79FF42-5655-4849-A3DB-4334CC64B052}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F3DED670-C428-4DFB-93E7-CFE1A0C2DA57}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9A62E85B-6D60-42AC-A4BF-A99639E64124}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9FF7C90E-14E8-438A-A728-2092DAC86D85}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1785,862 +1891,1319 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:V35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H23" sqref="H23"/>
+      <selection pane="topRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="8.675" customWidth="1"/>
+    <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
     <col min="2" max="2" width="11.675" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
-    <col min="4" max="4" width="16.0083333333333" customWidth="1"/>
-    <col min="5" max="6" width="14.175" customWidth="1"/>
+    <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
+    <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.5083333333333" customWidth="1"/>
     <col min="7" max="7" width="14.675" customWidth="1"/>
-    <col min="8" max="8" width="18.3416666666667" customWidth="1"/>
-    <col min="9" max="9" width="23.5083333333333" customWidth="1"/>
+    <col min="8" max="8" width="15.0083333333333" customWidth="1"/>
+    <col min="9" max="9" width="22.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.175" style="2" customWidth="1"/>
+    <col min="11" max="11" width="21.0083333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="24.0083333333333" style="2" customWidth="1"/>
+    <col min="13" max="16" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.34166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="22.3416666666667" style="2" customWidth="1"/>
+    <col min="20" max="21" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4">
+        <v>3</v>
+      </c>
+      <c r="N1" s="4">
+        <v>4</v>
+      </c>
+      <c r="O1" s="4">
+        <v>5</v>
+      </c>
+      <c r="P1" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="4">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4">
+        <v>1</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2</v>
+      </c>
+      <c r="U1" s="4">
+        <v>3</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A2" s="4" t="s">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="7">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7">
+        <v>2</v>
+      </c>
+      <c r="M2" s="7">
+        <v>3</v>
+      </c>
+      <c r="N2" s="7">
+        <v>4</v>
+      </c>
+      <c r="O2" s="7">
+        <v>5</v>
+      </c>
+      <c r="P2" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="7">
+        <v>2</v>
+      </c>
+      <c r="U2" s="7">
+        <v>3</v>
+      </c>
+      <c r="V2" s="17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" ht="39" customHeight="1" spans="1:22">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="19"/>
+    </row>
+    <row r="4" ht="39" customHeight="1" spans="1:22">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="7">
+        <v>2</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="21"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A5" s="9">
+        <v>3</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="10">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="10">
+        <v>2</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="19"/>
+    </row>
+    <row r="6" ht="55.5" customHeight="1" spans="1:22">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="21"/>
+    </row>
+    <row r="7" ht="39" customHeight="1" spans="1:22">
+      <c r="A7" s="9">
+        <v>5</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="10">
+        <v>2</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="10">
+        <v>3</v>
+      </c>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="19"/>
+    </row>
+    <row r="8" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="7">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="21"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A9" s="9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="10">
+        <v>2</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="10">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="19"/>
+    </row>
+    <row r="10" ht="39" customHeight="1" spans="1:22">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="5" t="s">
+      <c r="B10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="7">
+        <v>3</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="21"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B11" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" s="10">
+        <v>3</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="10">
+        <v>2</v>
+      </c>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="19"/>
+    </row>
+    <row r="12" ht="39" customHeight="1" spans="1:22">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="7">
+        <v>5</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="21"/>
+    </row>
+    <row r="13" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B13" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="10">
+        <v>2</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="10">
+        <v>3</v>
+      </c>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="19"/>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:22">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="B14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="7">
+        <v>3</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="21"/>
+    </row>
+    <row r="15" ht="39" customHeight="1" spans="1:22">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="10">
+        <v>4</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="10">
+        <v>2</v>
+      </c>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="19"/>
+    </row>
+    <row r="16" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
+      <c r="B16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="7">
+        <v>3</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="21"/>
     </row>
-    <row r="3" ht="39" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+    <row r="17" ht="39" customHeight="1" spans="1:22">
+      <c r="A17" s="9">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="19"/>
+    </row>
+    <row r="18" ht="39" customHeight="1" spans="1:22">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="7">
+        <v>4</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="7">
+        <v>3</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="21"/>
+    </row>
+    <row r="19" ht="39" customHeight="1" spans="1:22">
+      <c r="A19" s="9">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1</v>
-      </c>
-      <c r="E3" s="8">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="8">
-        <v>1</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="H19" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="19"/>
+    </row>
+    <row r="20" ht="39" customHeight="1" spans="1:22">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="I3" s="12">
-        <v>1</v>
-      </c>
+      <c r="B20" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="7">
+        <v>2</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="7">
+        <v>3</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="21"/>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:9">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="21" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="B21" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="10">
+        <v>2</v>
+      </c>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="19"/>
+    </row>
+    <row r="22" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="B22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="7">
+        <v>4</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="21"/>
+    </row>
+    <row r="23" ht="39" customHeight="1" spans="1:22">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="B23" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>0</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I23" s="10">
+        <v>3</v>
+      </c>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="19"/>
+    </row>
+    <row r="24" ht="39" customHeight="1" spans="1:22">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="I4" s="11">
+      <c r="B24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" s="7">
         <v>3</v>
       </c>
+      <c r="H24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="7">
+        <v>2</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="21"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
+    <row r="25" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="10">
+        <v>4</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="19"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="D5" s="8">
-        <v>1</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="B26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
         <v>0</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G26" s="7">
+        <v>99</v>
+      </c>
+      <c r="H26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="7">
+        <v>5</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="21"/>
+    </row>
+    <row r="27" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="G5" s="8">
-        <v>3</v>
-      </c>
-      <c r="H5" s="8" t="s">
+      <c r="B27" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="10">
+        <v>99</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="10">
+        <v>5</v>
+      </c>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="19"/>
+    </row>
+    <row r="28" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="I5" s="12">
-        <v>2</v>
-      </c>
+      <c r="B28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="7">
+        <v>99</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I28" s="7">
+        <v>5</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="21"/>
     </row>
-    <row r="6" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
+    <row r="29" ht="22.5" customHeight="1" spans="1:22">
+      <c r="A29" s="12">
         <v>28</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="B29" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13">
         <v>0</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="5">
-        <v>3</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="39" customHeight="1" spans="1:9">
-      <c r="A7" s="7">
+      <c r="F29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="13">
+        <v>99</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="I29" s="13">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1</v>
-      </c>
-      <c r="E7" s="8">
-        <v>1</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="8">
-        <v>2</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" ht="39" customHeight="1" spans="1:9">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I10" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8">
-        <v>1</v>
-      </c>
-      <c r="E11" s="8">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="49.5" spans="1:9">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="8">
-        <v>2</v>
-      </c>
-      <c r="E13" s="8">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" ht="39" customHeight="1" spans="1:9">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="5">
-        <v>3</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="I14" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" ht="39" customHeight="1" spans="1:9">
-      <c r="A15" s="7">
-        <v>14</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="8">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="8">
-        <v>4</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I16" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" ht="39" customHeight="1" spans="1:9">
-      <c r="A17" s="7">
-        <v>16</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="8">
-        <v>2</v>
-      </c>
-      <c r="E17" s="8">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="8">
-        <v>3</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="I17" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" ht="39" customHeight="1" spans="1:9">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="5">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:9">
-      <c r="A19" s="7">
-        <v>18</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="8">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8">
-        <v>0</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="8">
-        <v>1</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" ht="39" customHeight="1" spans="1:9">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="5">
-        <v>2</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A21" s="7">
-        <v>20</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="8">
-        <v>2</v>
-      </c>
-      <c r="E21" s="8">
-        <v>0</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" s="8">
-        <v>3</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="I21" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D22" s="5">
-        <v>2</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="5">
-        <v>4</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I22" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="39" customHeight="1" spans="1:9">
-      <c r="A23" s="7">
-        <v>22</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" s="8">
-        <v>2</v>
-      </c>
-      <c r="E23" s="8">
-        <v>0</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" s="8">
-        <v>2</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I23" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" ht="39" customHeight="1" spans="1:9">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" s="5">
-        <v>2</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G24" s="5">
-        <v>3</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I24" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A25" s="7">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="8">
-        <v>2</v>
-      </c>
-      <c r="E25" s="8">
-        <v>0</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="8">
-        <v>4</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I25" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="5">
-        <v>2</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="5">
-        <v>99</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I26" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A27" s="7">
-        <v>26</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="8">
-        <v>2</v>
-      </c>
-      <c r="E27" s="8">
-        <v>0</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" s="8">
-        <v>99</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I27" s="12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="5">
-        <v>2</v>
-      </c>
-      <c r="E28" s="5">
-        <v>0</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G28" s="5">
-        <v>99</v>
-      </c>
-      <c r="H28" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I28" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A29" s="7">
-        <v>28</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>0</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="8">
-        <v>99</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I29" s="12">
-        <v>5</v>
-      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="23"/>
     </row>
     <row r="30" ht="47" customHeight="1"/>
     <row r="31" ht="47" customHeight="1"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
   <si>
     <t>下标</t>
   </si>
@@ -50,12 +50,18 @@
     <t>层数</t>
   </si>
   <si>
+    <t>父级节点 key</t>
+  </si>
+  <si>
     <t>点击解锁技能</t>
   </si>
   <si>
     <t>最多可以投入多少点</t>
   </si>
   <si>
+    <t>天赋图标</t>
+  </si>
+  <si>
     <t>结束</t>
   </si>
   <si>
@@ -65,6 +71,12 @@
     <t>key</t>
   </si>
   <si>
+    <t>#Loccustom_talent_{}_drow_ranger</t>
+  </si>
+  <si>
+    <t>#Loccustom_talent_{}_drow_ranger_desc</t>
+  </si>
+  <si>
     <t>index</t>
   </si>
   <si>
@@ -77,12 +89,18 @@
     <t>tier_number</t>
   </si>
   <si>
+    <t>parent_node</t>
+  </si>
+  <si>
     <t>unlock_key</t>
   </si>
   <si>
     <t>max_number</t>
   </si>
   <si>
+    <t>img</t>
+  </si>
+  <si>
     <t>AbilityValues[{]</t>
   </si>
   <si>
@@ -102,6 +120,9 @@
   </si>
   <si>
     <t>2|5|8</t>
+  </si>
+  <si>
+    <t>abaddon_borrowed_time</t>
   </si>
   <si>
     <t>base_value 100</t>
@@ -1124,7 +1145,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1170,28 +1191,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1561,31 +1567,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{422ABE04-C190-4958-8EE1-C24E4760B70E}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{666CB744-EC2E-4D2A-A791-EFE81EE05098}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{7FF38B2C-8FCD-4F63-958B-0E8ACC7C8A86}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{3825F9E9-DBB3-494D-80FE-D6E9B9C133CA}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{F0013DF4-0FE5-456E-BBA5-304809296741}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{18F4367F-0AA1-4D18-81CE-CC59C83D1174}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{F3DED670-C428-4DFB-93E7-CFE1A0C2DA57}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C4D7D6A6-4C56-4829-B15F-D9B138F5412D}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{9FF7C90E-14E8-438A-A728-2092DAC86D85}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1716B9E7-94DF-40F8-9CC1-D30B865DF6C5}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1891,37 +1897,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V35"/>
+  <dimension ref="A1:X35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F7" sqref="F7"/>
+      <selection pane="topRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
-    <col min="2" max="2" width="11.675" customWidth="1"/>
+    <col min="2" max="2" width="27.375" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
     <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="13.5083333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.675" customWidth="1"/>
-    <col min="8" max="8" width="15.0083333333333" customWidth="1"/>
-    <col min="9" max="9" width="22.0083333333333" customWidth="1"/>
-    <col min="10" max="10" width="17.175" style="2" customWidth="1"/>
-    <col min="11" max="11" width="21.0083333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="24.0083333333333" style="2" customWidth="1"/>
-    <col min="13" max="16" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="22.3416666666667" style="2" customWidth="1"/>
-    <col min="20" max="21" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="6.55" style="2" customWidth="1"/>
+    <col min="7" max="8" width="14.675" customWidth="1"/>
+    <col min="9" max="9" width="15.0083333333333" customWidth="1"/>
+    <col min="10" max="10" width="22.0083333333333" customWidth="1"/>
+    <col min="11" max="11" width="22.0083333333333" customWidth="1"/>
+    <col min="12" max="12" width="17.175" style="2" customWidth="1"/>
+    <col min="13" max="13" width="21.0083333333333" style="2" customWidth="1"/>
+    <col min="14" max="14" width="24.0083333333333" style="2" customWidth="1"/>
+    <col min="15" max="18" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="8.34166666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="22.3416666666667" style="2" customWidth="1"/>
+    <col min="22" max="23" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="24" max="24" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1949,119 +1956,135 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4">
         <v>0</v>
       </c>
-      <c r="K1" s="4">
+      <c r="M1" s="4">
         <v>1</v>
       </c>
-      <c r="L1" s="4">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4">
+      <c r="N1" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4">
         <v>3</v>
       </c>
-      <c r="N1" s="4">
+      <c r="P1" s="4">
         <v>4</v>
       </c>
-      <c r="O1" s="4">
+      <c r="Q1" s="4">
         <v>5</v>
       </c>
-      <c r="P1" s="4">
+      <c r="R1" s="4">
         <v>6</v>
       </c>
-      <c r="Q1" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="4">
+      <c r="S1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T1" s="4">
         <v>0</v>
       </c>
-      <c r="S1" s="4">
+      <c r="U1" s="4">
         <v>1</v>
       </c>
-      <c r="T1" s="4">
-        <v>2</v>
-      </c>
-      <c r="U1" s="4">
+      <c r="V1" s="4">
+        <v>2</v>
+      </c>
+      <c r="W1" s="4">
         <v>3</v>
       </c>
-      <c r="V1" s="16" t="s">
-        <v>10</v>
+      <c r="X1" s="15" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+    <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
+        <v>13</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="7">
+        <v>22</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="7">
         <v>1</v>
       </c>
-      <c r="L2" s="7">
-        <v>2</v>
-      </c>
-      <c r="M2" s="7">
+      <c r="N2" s="7">
+        <v>2</v>
+      </c>
+      <c r="O2" s="7">
         <v>3</v>
       </c>
-      <c r="N2" s="7">
+      <c r="P2" s="7">
         <v>4</v>
       </c>
-      <c r="O2" s="7">
+      <c r="Q2" s="7">
         <v>5</v>
       </c>
-      <c r="P2" s="7">
+      <c r="R2" s="7">
         <v>6</v>
       </c>
-      <c r="Q2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="7">
+      <c r="S2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="7">
-        <v>2</v>
-      </c>
-      <c r="U2" s="7">
+      <c r="V2" s="7">
+        <v>2</v>
+      </c>
+      <c r="W2" s="7">
         <v>3</v>
       </c>
-      <c r="V2" s="17" t="s">
-        <v>19</v>
+      <c r="X2" s="16" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="3" ht="39" customHeight="1" spans="1:22">
+    <row r="3" ht="39" customHeight="1" spans="1:24">
       <c r="A3" s="9">
         <v>1</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D3" s="10">
         <v>1</v>
@@ -2070,44 +2093,50 @@
         <v>1</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="H3" s="10">
+        <v>0</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="10"/>
       <c r="K3" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="18"/>
+      <c r="Q3" s="10"/>
       <c r="R3" s="10"/>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10"/>
-      <c r="V3" s="19"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="17"/>
     </row>
-    <row r="4" ht="39" customHeight="1" spans="1:22">
+    <row r="4" ht="39" customHeight="1" spans="1:24">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
         <v>1</v>
@@ -2116,44 +2145,50 @@
         <v>1</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7">
         <v>2</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
-      <c r="Q4" s="20"/>
+      <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
       <c r="T4" s="7"/>
       <c r="U4" s="7"/>
-      <c r="V4" s="21"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="16"/>
     </row>
-    <row r="5" ht="22.5" customHeight="1" spans="1:22">
+    <row r="5" ht="22.5" customHeight="1" spans="1:24">
       <c r="A5" s="9">
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -2162,44 +2197,50 @@
         <v>0</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="10">
         <v>3</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="10">
-        <v>2</v>
-      </c>
-      <c r="J5" s="10"/>
+      <c r="H5" s="10">
+        <v>2</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="10">
+        <v>2</v>
+      </c>
       <c r="K5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+        <v>31</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="18"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
-      <c r="V5" s="19"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="17"/>
     </row>
-    <row r="6" ht="55.5" customHeight="1" spans="1:22">
+    <row r="6" ht="55.5" customHeight="1" spans="1:24">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -2208,46 +2249,52 @@
         <v>0</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G6" s="7">
         <v>3</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="7">
-        <v>2</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" s="7">
+        <v>2</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
-      <c r="Q6" s="20"/>
+      <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="21"/>
+      <c r="U6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="16"/>
     </row>
-    <row r="7" ht="39" customHeight="1" spans="1:22">
+    <row r="7" ht="39" customHeight="1" spans="1:24">
       <c r="A7" s="9">
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -2256,40 +2303,46 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
       </c>
-      <c r="H7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="10">
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7" s="10">
         <v>3</v>
       </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
+      <c r="K7" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
-      <c r="Q7" s="18"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
-      <c r="V7" s="19"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="17"/>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:22">
+    <row r="8" ht="22.5" customHeight="1" spans="1:24">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -2298,40 +2351,46 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7">
         <v>3</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
+      <c r="H8" s="7">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
-      <c r="Q8" s="20"/>
+      <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="21"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="16"/>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:22">
+    <row r="9" ht="22.5" customHeight="1" spans="1:24">
       <c r="A9" s="9">
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2340,40 +2399,46 @@
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
       </c>
-      <c r="H9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="10">
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="10">
         <v>3</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="K9" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
-      <c r="Q9" s="18"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
       <c r="U9" s="10"/>
-      <c r="V9" s="19"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="17"/>
     </row>
-    <row r="10" ht="39" customHeight="1" spans="1:22">
+    <row r="10" ht="39" customHeight="1" spans="1:24">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2382,40 +2447,46 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="7">
+        <v>2</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
-      <c r="Q10" s="20"/>
+      <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
       <c r="T10" s="7"/>
       <c r="U10" s="7"/>
-      <c r="V10" s="21"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="16"/>
     </row>
-    <row r="11" ht="22.5" customHeight="1" spans="1:22">
+    <row r="11" ht="22.5" customHeight="1" spans="1:24">
       <c r="A11" s="9">
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2424,40 +2495,46 @@
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G11" s="10">
         <v>3</v>
       </c>
-      <c r="H11" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" s="10">
-        <v>2</v>
-      </c>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="H11" s="10">
+        <v>8</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="10">
+        <v>2</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
-      <c r="Q11" s="18"/>
+      <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10"/>
-      <c r="V11" s="19"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="17"/>
     </row>
-    <row r="12" ht="39" customHeight="1" spans="1:22">
+    <row r="12" ht="39" customHeight="1" spans="1:24">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2466,40 +2543,46 @@
         <v>0</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="7">
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
-      <c r="Q12" s="20"/>
+      <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
       <c r="U12" s="7"/>
-      <c r="V12" s="21"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="16"/>
     </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:22">
+    <row r="13" ht="22.5" customHeight="1" spans="1:24">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -2508,40 +2591,46 @@
         <v>0</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
       </c>
-      <c r="H13" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="H13" s="10">
+        <v>11</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="10">
         <v>3</v>
       </c>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
+      <c r="K13" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
-      <c r="Q13" s="18"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10"/>
-      <c r="V13" s="19"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="17"/>
     </row>
-    <row r="14" ht="39" customHeight="1" spans="1:22">
+    <row r="14" ht="39" customHeight="1" spans="1:24">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -2550,40 +2639,46 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="7">
+      <c r="H14" s="7">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="7">
         <v>3</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
-      <c r="Q14" s="20"/>
+      <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
       <c r="U14" s="7"/>
-      <c r="V14" s="21"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="16"/>
     </row>
-    <row r="15" ht="39" customHeight="1" spans="1:22">
+    <row r="15" ht="39" customHeight="1" spans="1:24">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -2592,40 +2687,46 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
       </c>
-      <c r="H15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" s="10">
-        <v>2</v>
-      </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
+      <c r="H15" s="10">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="10">
+        <v>2</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
       <c r="N15" s="10"/>
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
-      <c r="Q15" s="18"/>
+      <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
       <c r="U15" s="10"/>
-      <c r="V15" s="19"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="17"/>
     </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:22">
+    <row r="16" ht="22.5" customHeight="1" spans="1:24">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2634,40 +2735,46 @@
         <v>0</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="H16" s="7">
+        <v>11</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="7">
         <v>3</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
-      <c r="Q16" s="20"/>
+      <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
       <c r="T16" s="7"/>
       <c r="U16" s="7"/>
-      <c r="V16" s="21"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="16"/>
     </row>
-    <row r="17" ht="39" customHeight="1" spans="1:22">
+    <row r="17" ht="39" customHeight="1" spans="1:24">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -2676,40 +2783,46 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G17" s="10">
         <v>3</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="10">
-        <v>2</v>
-      </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="H17" s="10">
+        <v>15</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="10">
+        <v>2</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
-      <c r="Q17" s="18"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="19"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="17"/>
     </row>
-    <row r="18" ht="39" customHeight="1" spans="1:22">
+    <row r="18" ht="39" customHeight="1" spans="1:24">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -2718,40 +2831,46 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="7">
+      <c r="H18" s="7">
+        <v>16</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="7">
         <v>3</v>
       </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
       <c r="P18" s="7"/>
-      <c r="Q18" s="20"/>
+      <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
       <c r="T18" s="7"/>
       <c r="U18" s="7"/>
-      <c r="V18" s="21"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="16"/>
     </row>
-    <row r="19" ht="39" customHeight="1" spans="1:22">
+    <row r="19" ht="39" customHeight="1" spans="1:24">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -2760,40 +2879,46 @@
         <v>0</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="I19" s="10">
+      <c r="H19" s="10">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J19" s="10">
         <v>5</v>
       </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10"/>
       <c r="N19" s="10"/>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
-      <c r="Q19" s="18"/>
+      <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10"/>
-      <c r="V19" s="19"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="17"/>
     </row>
-    <row r="20" ht="39" customHeight="1" spans="1:22">
+    <row r="20" ht="39" customHeight="1" spans="1:24">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -2802,40 +2927,46 @@
         <v>0</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="7">
+      <c r="H20" s="7">
+        <v>18</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="7">
         <v>3</v>
       </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="20"/>
+      <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
       <c r="T20" s="7"/>
       <c r="U20" s="7"/>
-      <c r="V20" s="21"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="16"/>
     </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:22">
+    <row r="21" ht="22.5" customHeight="1" spans="1:24">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -2844,40 +2975,46 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G21" s="10">
         <v>3</v>
       </c>
-      <c r="H21" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="10">
-        <v>2</v>
-      </c>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="H21" s="10">
+        <v>19</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J21" s="10">
+        <v>2</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10"/>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
-      <c r="Q21" s="18"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
       <c r="U21" s="10"/>
-      <c r="V21" s="19"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="17"/>
     </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:22">
+    <row r="22" ht="22.5" customHeight="1" spans="1:24">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -2886,40 +3023,46 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7">
         <v>4</v>
       </c>
-      <c r="H22" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="H22" s="7">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J22" s="7">
         <v>3</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="20"/>
+      <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="7"/>
       <c r="U22" s="7"/>
-      <c r="V22" s="21"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="16"/>
     </row>
-    <row r="23" ht="39" customHeight="1" spans="1:22">
+    <row r="23" ht="39" customHeight="1" spans="1:24">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
@@ -2928,40 +3071,46 @@
         <v>0</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
       </c>
-      <c r="H23" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="10">
+      <c r="H23" s="10">
+        <v>18</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J23" s="10">
         <v>3</v>
       </c>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
-      <c r="Q23" s="18"/>
+      <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
       <c r="T23" s="10"/>
       <c r="U23" s="10"/>
-      <c r="V23" s="19"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="17"/>
     </row>
-    <row r="24" ht="39" customHeight="1" spans="1:22">
+    <row r="24" ht="39" customHeight="1" spans="1:24">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -2970,40 +3119,46 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
       </c>
-      <c r="H24" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2</v>
-      </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
+      <c r="H24" s="7">
+        <v>22</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="J24" s="7">
+        <v>2</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="20"/>
+      <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
       <c r="T24" s="7"/>
       <c r="U24" s="7"/>
-      <c r="V24" s="21"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="16"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:22">
+    <row r="25" ht="22.5" customHeight="1" spans="1:24">
       <c r="A25" s="9">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D25" s="10">
         <v>2</v>
@@ -3012,40 +3167,46 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
       </c>
-      <c r="H25" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="10">
+      <c r="H25" s="10">
+        <v>23</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="10">
         <v>3</v>
       </c>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
+      <c r="K25" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
-      <c r="Q25" s="18"/>
+      <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
       <c r="T25" s="10"/>
       <c r="U25" s="10"/>
-      <c r="V25" s="19"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="17"/>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:22">
+    <row r="26" ht="22.5" customHeight="1" spans="1:24">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -3054,40 +3215,46 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G26" s="7">
         <v>99</v>
       </c>
-      <c r="H26" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J26" s="7">
         <v>5</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="K26" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="20"/>
+      <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="7"/>
-      <c r="V26" s="21"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="16"/>
     </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:22">
+    <row r="27" ht="22.5" customHeight="1" spans="1:24">
       <c r="A27" s="9">
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -3096,40 +3263,46 @@
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G27" s="10">
         <v>99</v>
       </c>
-      <c r="H27" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" s="10">
+      <c r="H27" s="10">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="10">
         <v>5</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
+      <c r="K27" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
-      <c r="Q27" s="18"/>
+      <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
       <c r="T27" s="10"/>
       <c r="U27" s="10"/>
-      <c r="V27" s="19"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="17"/>
     </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:22">
+    <row r="28" ht="22.5" customHeight="1" spans="1:24">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -3138,40 +3311,46 @@
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G28" s="7">
         <v>99</v>
       </c>
-      <c r="H28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="H28" s="7">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J28" s="7">
         <v>5</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
+      <c r="K28" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
-      <c r="Q28" s="20"/>
+      <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
       <c r="T28" s="7"/>
       <c r="U28" s="7"/>
-      <c r="V28" s="21"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="16"/>
     </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:22">
+    <row r="29" ht="22.5" customHeight="1" spans="1:24">
       <c r="A29" s="12">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D29" s="13">
         <v>2</v>
@@ -3180,30 +3359,36 @@
         <v>0</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G29" s="13">
         <v>99</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" s="13">
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="13">
         <v>5</v>
       </c>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
+      <c r="K29" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="L29" s="13"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
-      <c r="Q29" s="22"/>
+      <c r="Q29" s="13"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
       <c r="U29" s="13"/>
-      <c r="V29" s="23"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="18"/>
     </row>
     <row r="30" ht="47" customHeight="1"/>
     <row r="31" ht="47" customHeight="1"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="188">
   <si>
     <t>下标</t>
   </si>
@@ -71,10 +71,10 @@
     <t>key</t>
   </si>
   <si>
-    <t>#Loccustom_talent_{}_drow_ranger</t>
-  </si>
-  <si>
-    <t>#Loccustom_talent_{}_drow_ranger_desc</t>
+    <t>#Loccustom_talent_drow_ranger_{}</t>
+  </si>
+  <si>
+    <t>#Loccustom_talent_drow_ranger_{}_desc</t>
   </si>
   <si>
     <t>index</t>
@@ -113,7 +113,7 @@
     <t>单体射击</t>
   </si>
   <si>
-    <t>基础技能：单体射击：攻击1名敌人，造成攻击力100%的伤害，并回复5点蓝量。</t>
+    <t>基础技能：单体射击：攻击1名敌人，造成攻击力%base_value%的伤害，并回复%give_mana%点蓝量。</t>
   </si>
   <si>
     <t>drow_1</t>
@@ -134,16 +134,16 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>攻击变为300码范围伤害（直径），伤害提高40%/70%/120%，技能赋予火元素效果，伤害变为火元素伤害。</t>
+    <t>攻击变为%aoe_radius%码范围伤害，伤害提高%bonus_mul%%%，伤害变为火元素伤害。</t>
   </si>
   <si>
     <t>drow_1a</t>
   </si>
   <si>
-    <t>3|5</t>
-  </si>
-  <si>
-    <t>radius 300</t>
+    <t>3|4</t>
+  </si>
+  <si>
+    <t>aoe_radius 300</t>
   </si>
   <si>
     <t>bonus_mul 40 70 120</t>
@@ -152,7 +152,7 @@
     <t>浓缩</t>
   </si>
   <si>
-    <t>爆炸箭有10%概率2.5/5倍伤害</t>
+    <t>爆炸箭有%mul_chance%%%概率%mul_value%倍伤害</t>
   </si>
   <si>
     <t>0|0</t>
@@ -161,30 +161,25 @@
     <t>mul_chance 10</t>
   </si>
   <si>
-    <t>mul_value 2 5</t>
+    <t>mul_value 2.5 5</t>
   </si>
   <si>
     <t>碎裂</t>
   </si>
   <si>
-    <t>爆炸箭范围变为450码（直径），灼烧伤害提高45%/90%。</t>
-  </si>
-  <si>
-    <t>bonus_radius 150</t>
+    <t>爆炸箭范围提高%aoe_radius%码，灼烧伤害提高%burn_dmg%%%。</t>
+  </si>
+  <si>
+    <t>aoe_radius 150</t>
   </si>
   <si>
     <t>burn_dmg 45 90</t>
   </si>
   <si>
-    <t>Burn_DmgPercent {
-"Base" "45 90"
-}</t>
-  </si>
-  <si>
     <t>穿透箭</t>
   </si>
   <si>
-    <t>攻击可以穿透敌人，伤害提高30%/50%/90%。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
+    <t>攻击可以穿透敌人，伤害提高%bonus_value%%%。技能赋予风元素效果，伤害变为风元素伤害。（穿透距离不超过攻击距离）</t>
   </si>
   <si>
     <t>drow_1b</t>
@@ -193,6 +188,9 @@
     <t>6|0</t>
   </si>
   <si>
+    <t>bonus_value 30 50 90</t>
+  </si>
+  <si>
     <t>连射</t>
   </si>
   <si>
@@ -232,6 +230,9 @@
     <t>快速射出4支箭，每支箭造成攻击力130%/160%/190%/225%/260%的伤害。cd：3秒 蓝量消耗：20 作用范围：750码内敌对单位</t>
   </si>
   <si>
+    <t>drow_2a</t>
+  </si>
+  <si>
     <t>12|15</t>
   </si>
   <si>
@@ -241,6 +242,9 @@
     <t>连续射击的弓箭数量增加至6/8/10支</t>
   </si>
   <si>
+    <t>drow_2a_a</t>
+  </si>
+  <si>
     <t>13|0</t>
   </si>
   <si>
@@ -265,6 +269,9 @@
     <t>连续射击可穿透目标，伤害提高20%/40%/60%。</t>
   </si>
   <si>
+    <t>drow_2a_b</t>
+  </si>
+  <si>
     <t>16|0</t>
   </si>
   <si>
@@ -289,6 +296,9 @@
     <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。 cd：3秒 蓝量消耗30 作用范围：500码距离，扇形90°</t>
   </si>
   <si>
+    <t>drow_2b</t>
+  </si>
+  <si>
     <t>19|22</t>
   </si>
   <si>
@@ -298,6 +308,9 @@
     <t>散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高60%/90%/120%</t>
   </si>
   <si>
+    <t>drow_2b_a</t>
+  </si>
+  <si>
     <t>20|0</t>
   </si>
   <si>
@@ -310,6 +323,9 @@
     <t>21|0</t>
   </si>
   <si>
+    <t>mana_cost -5 -10</t>
+  </si>
+  <si>
     <t>压制</t>
   </si>
   <si>
@@ -322,6 +338,9 @@
     <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有25%/30%/40%概率再次释放一次。（不可套娃）</t>
   </si>
   <si>
+    <t>drow_2b_b</t>
+  </si>
+  <si>
     <t>23|0</t>
   </si>
   <si>
@@ -362,6 +381,222 @@
   </si>
   <si>
     <t>生命值提高4%/8%/12%/16%/20%</t>
+  </si>
+  <si>
+    <t>风暴环绕</t>
+  </si>
+  <si>
+    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力200%/250%/300%/350%/400%/450%的伤害，持续8秒。</t>
+  </si>
+  <si>
+    <t>30|32</t>
+  </si>
+  <si>
+    <t>疾风</t>
+  </si>
+  <si>
+    <t>风暴环绕伤害频率提高50%/100%</t>
+  </si>
+  <si>
+    <t>31|0</t>
+  </si>
+  <si>
+    <t>退散</t>
+  </si>
+  <si>
+    <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。（2级触发风元素伤害增加15%）</t>
+  </si>
+  <si>
+    <t>冰雹</t>
+  </si>
+  <si>
+    <t>风暴环绕技能赋予冰元素效果，伤害变为冰元素伤害。
+风暴数量增加1/2个</t>
+  </si>
+  <si>
+    <t>33|0</t>
+  </si>
+  <si>
+    <t>暴雪</t>
+  </si>
+  <si>
+    <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的伤害为记录的实际伤害值的100%。
+记录上限为英雄攻击力3000%/4500%/6000%。
+爆炸范围：自身直径750码。</t>
+  </si>
+  <si>
+    <t>箭雨</t>
+  </si>
+  <si>
+    <t>向空中射出10/12/14/17/20支箭，随机打击范围1000码以内敌人，每支箭制造成攻击力200%的伤害。</t>
+  </si>
+  <si>
+    <t>35|37</t>
+  </si>
+  <si>
+    <t>燃矢</t>
+  </si>
+  <si>
+    <t>箭雨技能赋予火元素效果，伤害变为火元素伤害。
+（2级触发灼烧伤害持续时间延长至5秒，伤害增加至攻击力50%。）</t>
+  </si>
+  <si>
+    <t>36|0</t>
+  </si>
+  <si>
+    <t>焚身</t>
+  </si>
+  <si>
+    <t>箭雨对被灼烧的敌人造成伤害提高50%/100%</t>
+  </si>
+  <si>
+    <t>集火</t>
+  </si>
+  <si>
+    <t>多支箭矢命中相同敌人时，会额外造成10%的伤害。上限5/7/10层。</t>
+  </si>
+  <si>
+    <t>38|0</t>
+  </si>
+  <si>
+    <t>急冻</t>
+  </si>
+  <si>
+    <t>箭雨技能赋予冰元素效果，伤害变为冰元素伤害。额外增加4/8支箭。</t>
+  </si>
+  <si>
+    <t>全能</t>
+  </si>
+  <si>
+    <t>生命值大于50%时，最终伤害提升5%/10%/15%；生命值小于50%时，最终免伤降低5%/10%/15%。</t>
+  </si>
+  <si>
+    <t>灵活</t>
+  </si>
+  <si>
+    <t>闪避提高6%/8%/10%/12%/15%</t>
+  </si>
+  <si>
+    <t>41|0</t>
+  </si>
+  <si>
+    <t>侥幸</t>
+  </si>
+  <si>
+    <t>闪避后立即回复10%/15%/20%已损失生命值。</t>
+  </si>
+  <si>
+    <t>凌弱</t>
+  </si>
+  <si>
+    <t>对被减速的敌人造成伤害时，暴击概率提高5%/10%/15%/20%/25%</t>
+  </si>
+  <si>
+    <t>潜能激发</t>
+  </si>
+  <si>
+    <t>蓝量小于最大蓝量的20%/30%时，每秒恢复5点蓝量。</t>
+  </si>
+  <si>
+    <t>治愈</t>
+  </si>
+  <si>
+    <t>每过5秒，回复4%/8%最大生命值。</t>
+  </si>
+  <si>
+    <t>能量恢复</t>
+  </si>
+  <si>
+    <t>立即回复60点蓝量。cd：50/40/30秒,无蓝量消耗。</t>
+  </si>
+  <si>
+    <t>46|0</t>
+  </si>
+  <si>
+    <t>源源不断</t>
+  </si>
+  <si>
+    <t>使用技能《能量恢复》 时，不再是瞬间恢复，而是在15秒内逐渐回复75/90点蓝量。</t>
+  </si>
+  <si>
+    <t>47|0</t>
+  </si>
+  <si>
+    <t>兼收</t>
+  </si>
+  <si>
+    <t>使用技能《能量恢复》 时，立即回复15%/30%最大生命值。</t>
+  </si>
+  <si>
+    <t>迷踪步</t>
+  </si>
+  <si>
+    <t>获得10%/20%/30%移动速度加成，持续6秒。cd：15秒,蓝耗：30</t>
+  </si>
+  <si>
+    <t>49|0</t>
+  </si>
+  <si>
+    <t>娴熟</t>
+  </si>
+  <si>
+    <t>迷踪步的cd缩减至12秒/9秒。</t>
+  </si>
+  <si>
+    <t>50|0</t>
+  </si>
+  <si>
+    <t>相位</t>
+  </si>
+  <si>
+    <t>迷踪步获得相位效果，可以穿越单位。</t>
+  </si>
+  <si>
+    <t>尖锐</t>
+  </si>
+  <si>
+    <t>造成的伤害提高15%/20%/25%，同时受到的伤害也会提高15%</t>
+  </si>
+  <si>
+    <t>专注</t>
+  </si>
+  <si>
+    <t>暴击概率提高6%/8%/10%/12%/15%</t>
+  </si>
+  <si>
+    <t>追猎</t>
+  </si>
+  <si>
+    <t>暴击后提高10%/20%/30%攻速和20%移速，持续2秒。</t>
+  </si>
+  <si>
+    <t>复仇</t>
+  </si>
+  <si>
+    <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
+  </si>
+  <si>
+    <t>55|56|57</t>
+  </si>
+  <si>
+    <t>寒霜</t>
+  </si>
+  <si>
+    <t>复仇获得冰元素之力，持续期间冰元素伤害提高50%，
+且免疫自身减速效果。</t>
+  </si>
+  <si>
+    <t>追风</t>
+  </si>
+  <si>
+    <t>复仇获得风元素之力，攻击力提高50%，攻击速度及移动速度提高20%。</t>
+  </si>
+  <si>
+    <t>热烈</t>
+  </si>
+  <si>
+    <t>复仇获得火元素之力，持续期间火元素伤害提高50%，
+且所有技能蓝量消耗降低50%。</t>
   </si>
 </sst>
 </file>
@@ -823,23 +1058,27 @@
       <left style="thick">
         <color rgb="FF595959"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFFFFFFF"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -885,13 +1124,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFFFFFFF"/>
       </left>
       <right style="thick">
         <color rgb="FF595959"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
       <bottom style="thick">
         <color rgb="FF595959"/>
       </bottom>
@@ -1182,13 +1423,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1200,7 +1441,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1567,31 +1808,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{666CB744-EC2E-4D2A-A791-EFE81EE05098}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3196676B-A4CC-4364-B097-FEA50F66A288}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{3825F9E9-DBB3-494D-80FE-D6E9B9C133CA}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{8667A5FD-6B11-4F78-8618-19C49C64C2B9}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{18F4367F-0AA1-4D18-81CE-CC59C83D1174}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{6ADDA4B8-9B4E-4083-B888-69BF31136EFF}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{C4D7D6A6-4C56-4829-B15F-D9B138F5412D}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4B0F702F-9A9B-43A1-8081-E928A5D65109}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{1716B9E7-94DF-40F8-9CC1-D30B865DF6C5}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F517C0F-FB2E-4DCA-B5B3-E88745B4C212}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -1897,34 +2138,33 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C3" sqref="C3"/>
+      <selection pane="topRight" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.34166666666667" customWidth="1"/>
-    <col min="2" max="2" width="27.375" customWidth="1"/>
+    <col min="2" max="2" width="32.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="50.625" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
     <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
     <col min="6" max="6" width="13.5083333333333" customWidth="1"/>
-    <col min="7" max="8" width="14.675" customWidth="1"/>
-    <col min="9" max="9" width="15.0083333333333" customWidth="1"/>
+    <col min="7" max="7" width="14.675" customWidth="1"/>
+    <col min="8" max="9" width="15.0083333333333" customWidth="1"/>
     <col min="10" max="10" width="22.0083333333333" customWidth="1"/>
-    <col min="11" max="11" width="22.0083333333333" customWidth="1"/>
+    <col min="11" max="11" width="26.675" customWidth="1"/>
     <col min="12" max="12" width="17.175" style="2" customWidth="1"/>
-    <col min="13" max="13" width="21.0083333333333" style="2" customWidth="1"/>
+    <col min="13" max="13" width="24.3416666666667" style="2" customWidth="1"/>
     <col min="14" max="14" width="24.0083333333333" style="2" customWidth="1"/>
     <col min="15" max="18" width="6.24166666666667" style="2" customWidth="1"/>
     <col min="19" max="19" width="8.34166666666667" style="2" customWidth="1"/>
     <col min="20" max="20" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="22.3416666666667" style="2" customWidth="1"/>
-    <col min="22" max="23" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="21" max="23" width="6.24166666666667" style="2" customWidth="1"/>
     <col min="24" max="24" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2159,7 +2399,7 @@
       <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L4" s="7"/>
@@ -2232,7 +2472,7 @@
       <c r="W5" s="10"/>
       <c r="X5" s="17"/>
     </row>
-    <row r="6" ht="55.5" customHeight="1" spans="1:24">
+    <row r="6" ht="39" customHeight="1" spans="1:24">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -2263,7 +2503,7 @@
       <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L6" s="7"/>
@@ -2279,9 +2519,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
       <c r="T6" s="7"/>
-      <c r="U6" s="7" t="s">
-        <v>49</v>
-      </c>
+      <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
       <c r="X6" s="16"/>
@@ -2291,10 +2529,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>50</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>51</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -2303,7 +2541,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
@@ -2312,16 +2550,18 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="J7" s="10">
-        <v>3</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
@@ -2351,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="7">
         <v>3</v>
@@ -2365,7 +2605,7 @@
       <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="K8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="7"/>
@@ -2399,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -2461,7 +2701,7 @@
       <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L10" s="7"/>
@@ -2540,10 +2780,10 @@
         <v>2</v>
       </c>
       <c r="E12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -2552,12 +2792,12 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L12" s="7"/>
@@ -2579,19 +2819,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
       </c>
       <c r="E13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -2600,7 +2840,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J13" s="10">
         <v>3</v>
@@ -2627,19 +2867,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
@@ -2648,12 +2888,12 @@
         <v>12</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J14" s="7">
         <v>3</v>
       </c>
-      <c r="K14" s="10" t="s">
+      <c r="K14" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L14" s="7"/>
@@ -2675,10 +2915,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -2687,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -2723,19 +2963,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
       </c>
       <c r="E16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -2744,12 +2984,12 @@
         <v>11</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J16" s="7">
         <v>3</v>
       </c>
-      <c r="K16" s="10" t="s">
+      <c r="K16" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L16" s="7"/>
@@ -2771,19 +3011,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="G17" s="10">
         <v>3</v>
@@ -2792,7 +3032,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -2819,10 +3059,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -2831,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -2845,7 +3085,7 @@
       <c r="J18" s="7">
         <v>3</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L18" s="7"/>
@@ -2867,19 +3107,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
       </c>
       <c r="E19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -2888,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J19" s="10">
         <v>5</v>
@@ -2915,19 +3155,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
       </c>
       <c r="E20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -2936,12 +3176,12 @@
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="J20" s="7">
         <v>3</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L20" s="7"/>
@@ -2963,10 +3203,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -2975,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G21" s="10">
         <v>3</v>
@@ -2984,7 +3224,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
@@ -2993,7 +3233,9 @@
         <v>31</v>
       </c>
       <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
+      <c r="M21" s="10" t="s">
+        <v>98</v>
+      </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
@@ -3011,19 +3253,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="G22" s="7">
         <v>4</v>
@@ -3037,7 +3279,7 @@
       <c r="J22" s="7">
         <v>3</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L22" s="7"/>
@@ -3059,19 +3301,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
       </c>
       <c r="E23" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
@@ -3080,7 +3322,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J23" s="10">
         <v>3</v>
@@ -3107,10 +3349,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -3119,7 +3361,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
@@ -3128,12 +3370,12 @@
         <v>22</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L24" s="7"/>
@@ -3155,10 +3397,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="D25" s="10">
         <v>2</v>
@@ -3167,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>64</v>
+        <v>103</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
@@ -3203,10 +3445,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -3229,7 +3471,7 @@
       <c r="J26" s="7">
         <v>5</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L26" s="7"/>
@@ -3251,10 +3493,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -3299,10 +3541,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -3325,7 +3567,7 @@
       <c r="J28" s="7">
         <v>5</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="7" t="s">
         <v>31</v>
       </c>
       <c r="L28" s="7"/>
@@ -3343,59 +3585,1387 @@
       <c r="X28" s="16"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A29" s="12">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D29" s="13">
-        <v>2</v>
-      </c>
-      <c r="E29" s="13">
-        <v>0</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="B29" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="10">
         <v>99</v>
       </c>
-      <c r="H29" s="13">
-        <v>0</v>
-      </c>
-      <c r="I29" s="13" t="s">
+      <c r="H29" s="10">
+        <v>0</v>
+      </c>
+      <c r="I29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="10">
         <v>5</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="18"/>
-    </row>
-    <row r="30" ht="47" customHeight="1"/>
-    <row r="31" ht="47" customHeight="1"/>
-    <row r="32" ht="47" customHeight="1"/>
-    <row r="33" ht="47" customHeight="1"/>
-    <row r="34" ht="47" customHeight="1"/>
-    <row r="35" ht="47" customHeight="1"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="17"/>
+    </row>
+    <row r="30" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="7">
+        <v>3</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="J30" s="7">
+        <v>5</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="16"/>
+    </row>
+    <row r="31" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="10">
+        <v>3</v>
+      </c>
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="10">
+        <v>2</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="17"/>
+    </row>
+    <row r="32" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="7">
+        <v>3</v>
+      </c>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="16"/>
+    </row>
+    <row r="33" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A33" s="9">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="10">
+        <v>3</v>
+      </c>
+      <c r="E33" s="10">
+        <v>0</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="17"/>
+    </row>
+    <row r="34" customFormat="1" ht="72" customHeight="1" spans="1:24">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" s="7">
+        <v>3</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="7">
+        <v>3</v>
+      </c>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="7">
+        <v>3</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="16"/>
+    </row>
+    <row r="35" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A35" s="9">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" s="10">
+        <v>3</v>
+      </c>
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1</v>
+      </c>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="10">
+        <v>5</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="17"/>
+    </row>
+    <row r="36" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" s="7">
+        <v>3</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G36" s="7">
+        <v>2</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J36" s="7">
+        <v>2</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="16"/>
+    </row>
+    <row r="37" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A37" s="9">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D37" s="10">
+        <v>3</v>
+      </c>
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="10">
+        <v>3</v>
+      </c>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="17"/>
+    </row>
+    <row r="38" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G38" s="7">
+        <v>2</v>
+      </c>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="7">
+        <v>3</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="16"/>
+    </row>
+    <row r="39" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A39" s="9">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="10">
+        <v>3</v>
+      </c>
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="10">
+        <v>3</v>
+      </c>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J39" s="10">
+        <v>2</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="17"/>
+    </row>
+    <row r="40" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="7">
+        <v>3</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G40" s="7">
+        <v>99</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="7">
+        <v>3</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="16"/>
+    </row>
+    <row r="41" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A41" s="9">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D41" s="10">
+        <v>3</v>
+      </c>
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="10">
+        <v>99</v>
+      </c>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="J41" s="10">
+        <v>5</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="17"/>
+    </row>
+    <row r="42" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" s="7">
+        <v>3</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="7">
+        <v>99</v>
+      </c>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J42" s="7">
+        <v>3</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="16"/>
+    </row>
+    <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A43" s="9">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="10">
+        <v>3</v>
+      </c>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G43" s="10">
+        <v>99</v>
+      </c>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="10">
+        <v>5</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="17"/>
+    </row>
+    <row r="44" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="7">
+        <v>3</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G44" s="7">
+        <v>99</v>
+      </c>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J44" s="7">
+        <v>2</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="16"/>
+    </row>
+    <row r="45" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A45" s="9">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="10">
+        <v>3</v>
+      </c>
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="10">
+        <v>99</v>
+      </c>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="10">
+        <v>2</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="17"/>
+    </row>
+    <row r="46" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="7">
+        <v>4</v>
+      </c>
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" s="7">
+        <v>1</v>
+      </c>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="7">
+        <v>3</v>
+      </c>
+      <c r="K46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="16"/>
+    </row>
+    <row r="47" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A47" s="9">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="10">
+        <v>4</v>
+      </c>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G47" s="10">
+        <v>2</v>
+      </c>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="17"/>
+    </row>
+    <row r="48" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48" s="7">
+        <v>4</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G48" s="7">
+        <v>3</v>
+      </c>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J48" s="7">
+        <v>2</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="16"/>
+    </row>
+    <row r="49" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A49" s="9">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="10">
+        <v>4</v>
+      </c>
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G49" s="10">
+        <v>1</v>
+      </c>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J49" s="10">
+        <v>3</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+      <c r="R49" s="10"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="17"/>
+    </row>
+    <row r="50" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="7">
+        <v>4</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G50" s="7">
+        <v>2</v>
+      </c>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J50" s="7">
+        <v>2</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="16"/>
+    </row>
+    <row r="51" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A51" s="9">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="10">
+        <v>4</v>
+      </c>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G51" s="10">
+        <v>3</v>
+      </c>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J51" s="10">
+        <v>1</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="10"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="17"/>
+    </row>
+    <row r="52" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52" s="7">
+        <v>4</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" s="7">
+        <v>99</v>
+      </c>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J52" s="7">
+        <v>3</v>
+      </c>
+      <c r="K52" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="16"/>
+    </row>
+    <row r="53" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A53" s="9">
+        <v>52</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G53" s="10">
+        <v>99</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J53" s="10">
+        <v>5</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="10"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="17"/>
+    </row>
+    <row r="54" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="7">
+        <v>4</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G54" s="7">
+        <v>99</v>
+      </c>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="7">
+        <v>3</v>
+      </c>
+      <c r="K54" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="16"/>
+    </row>
+    <row r="55" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A55" s="9">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D55" s="10">
+        <v>5</v>
+      </c>
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G55" s="10">
+        <v>1</v>
+      </c>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="J55" s="10">
+        <v>1</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="17"/>
+    </row>
+    <row r="56" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="7">
+        <v>5</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G56" s="7">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="16"/>
+    </row>
+    <row r="57" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A57" s="9">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="10">
+        <v>5</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J57" s="10">
+        <v>1</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="17"/>
+    </row>
+    <row r="58" customFormat="1" ht="39" customHeight="1" spans="1:24">
+      <c r="A58" s="12">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" s="13">
+        <v>5</v>
+      </c>
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" s="13">
+        <v>2</v>
+      </c>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J58" s="13">
+        <v>1</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="18"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="197">
   <si>
     <t>下标</t>
   </si>
@@ -134,7 +134,7 @@
     <t>爆炸箭</t>
   </si>
   <si>
-    <t>攻击变为%aoe_radius%码范围伤害，伤害提高%bonus_mul%%%，伤害变为火元素伤害。</t>
+    <t>攻击变为%aoe_radius%码范围伤害，伤害提高%bonus_value%%%，伤害变为火元素伤害。</t>
   </si>
   <si>
     <t>drow_1a</t>
@@ -146,7 +146,7 @@
     <t>aoe_radius 300</t>
   </si>
   <si>
-    <t>bonus_mul 40 70 120</t>
+    <t>bonus_value 40 70 120</t>
   </si>
   <si>
     <t>浓缩</t>
@@ -194,40 +194,55 @@
     <t>连射</t>
   </si>
   <si>
-    <t>穿透箭攻击时有50%/100%概率再射出一只箭。</t>
+    <t>穿透箭攻击时有%chance%%%概率再射出一只箭。</t>
+  </si>
+  <si>
+    <t>chance 50 100</t>
   </si>
   <si>
     <t>分裂箭</t>
   </si>
   <si>
-    <t>攻击可以同时命中2/3/5个敌人。</t>
+    <t>攻击可以同时命中%targes%个敌人。</t>
   </si>
   <si>
     <t>9|10</t>
   </si>
   <si>
+    <t>targes 2 3 5</t>
+  </si>
+  <si>
     <t>冰箭</t>
   </si>
   <si>
-    <t>伤害提高150%/300%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
+    <t>伤害提高%bonus_value%%%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
   </si>
   <si>
     <t>drow_1c</t>
   </si>
   <si>
+    <t>bonus_value 150 300</t>
+  </si>
+  <si>
     <t>积蓄</t>
   </si>
   <si>
-    <t>分裂箭命中时会额外回复2/4点蓝量。</t>
+    <t>分裂箭命中时会额外回复%add_mana%点蓝量。</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>add_mana 2 4</t>
+  </si>
+  <si>
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出4支箭，每支箭造成攻击力130%/160%/190%/225%/260%的伤害。cd：3秒 蓝量消耗：20 作用范围：750码内敌对单位</t>
+    <t>快速射出4支箭，每支箭造成攻击力%base_value%%%的伤害。
+cd：3秒
+蓝量消耗：20 
+作用范围：750码内敌对单位</t>
   </si>
   <si>
     <t>drow_2a</t>
@@ -236,10 +251,13 @@
     <t>12|15</t>
   </si>
   <si>
+    <t>base_value 130 160 190 225 260</t>
+  </si>
+  <si>
     <t>连发</t>
   </si>
   <si>
-    <t>连续射击的弓箭数量增加至6/8/10支</t>
+    <t>连续射击的弓箭数量增加%bonus_value%%%支</t>
   </si>
   <si>
     <t>drow_2a_a</t>
@@ -248,13 +266,25 @@
     <t>13|0</t>
   </si>
   <si>
+    <t>bonus_value 2 4 6</t>
+  </si>
+  <si>
     <t>击破</t>
   </si>
   <si>
-    <t>连续射击的每支箭都会使目标收到的伤害增加2%/3%/5%，持续3秒，最高10层效果。</t>
+    <t>连续射击的每支箭都会使目标收到的伤害增加%value%%%，持续%duration%秒，最高%max_stack%层效果。</t>
   </si>
   <si>
     <t>14|0</t>
+  </si>
+  <si>
+    <t>max_stack 10</t>
+  </si>
+  <si>
+    <t>duration 3</t>
+  </si>
+  <si>
+    <t>value 2 3 5</t>
   </si>
   <si>
     <t>风箭</t>
@@ -1808,31 +1838,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3196676B-A4CC-4364-B097-FEA50F66A288}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{4A6142FD-3C1F-4650-BD72-7FA63B3AEFAC}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{8667A5FD-6B11-4F78-8618-19C49C64C2B9}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F7A8099A-B0A4-4FBA-9A9F-E656A2EA0E0A}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{6ADDA4B8-9B4E-4083-B888-69BF31136EFF}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B313BF00-E72D-4517-AB78-ABE7BEBA33CA}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{4B0F702F-9A9B-43A1-8081-E928A5D65109}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{08933ACF-C458-411E-A57F-658D46C8F53A}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{6F517C0F-FB2E-4DCA-B5B3-E88745B4C212}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5BECEA00-DA30-4592-BC40-00530514643E}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2138,12 +2168,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2161,7 +2191,8 @@
     <col min="12" max="12" width="17.175" style="2" customWidth="1"/>
     <col min="13" max="13" width="24.3416666666667" style="2" customWidth="1"/>
     <col min="14" max="14" width="24.0083333333333" style="2" customWidth="1"/>
-    <col min="15" max="18" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
+    <col min="16" max="18" width="6.24166666666667" style="2" customWidth="1"/>
     <col min="19" max="19" width="8.34166666666667" style="2" customWidth="1"/>
     <col min="20" max="20" width="17.3416666666667" style="2" customWidth="1"/>
     <col min="21" max="23" width="6.24166666666667" style="2" customWidth="1"/>
@@ -2609,7 +2640,9 @@
         <v>31</v>
       </c>
       <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="7" t="s">
+        <v>56</v>
+      </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
       <c r="P8" s="7"/>
@@ -2627,10 +2660,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2648,7 +2681,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" s="10">
         <v>3</v>
@@ -2657,7 +2690,9 @@
         <v>31</v>
       </c>
       <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="M9" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
@@ -2675,10 +2710,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2687,7 +2722,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
@@ -2705,7 +2740,9 @@
         <v>31</v>
       </c>
       <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>64</v>
+      </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
       <c r="P10" s="7"/>
@@ -2723,10 +2760,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2735,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G11" s="10">
         <v>3</v>
@@ -2753,7 +2790,9 @@
         <v>31</v>
       </c>
       <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
+      <c r="M11" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
@@ -2766,15 +2805,15 @@
       <c r="W11" s="10"/>
       <c r="X11" s="17"/>
     </row>
-    <row r="12" ht="39" customHeight="1" spans="1:24">
+    <row r="12" ht="82.5" spans="1:24">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2783,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -2792,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
@@ -2801,7 +2840,9 @@
         <v>31</v>
       </c>
       <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -2819,10 +2860,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -2831,7 +2872,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -2840,7 +2881,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="J13" s="10">
         <v>3</v>
@@ -2849,7 +2890,9 @@
         <v>31</v>
       </c>
       <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
+      <c r="M13" s="10" t="s">
+        <v>78</v>
+      </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
@@ -2867,10 +2910,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -2879,7 +2922,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
@@ -2888,7 +2931,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="J14" s="7">
         <v>3</v>
@@ -2897,9 +2940,15 @@
         <v>31</v>
       </c>
       <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
@@ -2915,10 +2964,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -2927,7 +2976,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -2963,10 +3012,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -2975,7 +3024,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -2984,7 +3033,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J16" s="7">
         <v>3</v>
@@ -3011,10 +3060,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -3023,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G17" s="10">
         <v>3</v>
@@ -3032,7 +3081,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -3059,10 +3108,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -3071,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -3107,10 +3156,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -3119,7 +3168,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3128,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="J19" s="10">
         <v>5</v>
@@ -3155,10 +3204,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -3167,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -3176,7 +3225,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="J20" s="7">
         <v>3</v>
@@ -3203,10 +3252,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -3215,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G21" s="10">
         <v>3</v>
@@ -3224,7 +3273,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
@@ -3234,7 +3283,7 @@
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3253,10 +3302,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -3265,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G22" s="7">
         <v>4</v>
@@ -3301,10 +3350,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
@@ -3313,7 +3362,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
@@ -3322,7 +3371,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J23" s="10">
         <v>3</v>
@@ -3349,10 +3398,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -3361,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
@@ -3370,7 +3419,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -3397,10 +3446,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D25" s="10">
         <v>2</v>
@@ -3409,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
@@ -3445,10 +3494,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -3457,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G26" s="7">
         <v>99</v>
@@ -3493,10 +3542,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -3505,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G27" s="10">
         <v>99</v>
@@ -3541,10 +3590,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -3553,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G28" s="7">
         <v>99</v>
@@ -3589,10 +3638,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -3601,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G29" s="10">
         <v>99</v>
@@ -3637,10 +3686,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
@@ -3649,14 +3698,14 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
       </c>
       <c r="H30" s="7"/>
       <c r="I30" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="J30" s="7">
         <v>5</v>
@@ -3683,10 +3732,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
@@ -3695,14 +3744,14 @@
         <v>0</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
       </c>
       <c r="H31" s="10"/>
       <c r="I31" s="10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
@@ -3729,10 +3778,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -3741,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G32" s="7">
         <v>3</v>
@@ -3775,10 +3824,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
@@ -3787,14 +3836,14 @@
         <v>0</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
       </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
@@ -3821,10 +3870,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -3833,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
@@ -3867,10 +3916,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
@@ -3879,14 +3928,14 @@
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
       </c>
       <c r="H35" s="10"/>
       <c r="I35" s="10" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="J35" s="10">
         <v>5</v>
@@ -3913,10 +3962,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
@@ -3925,14 +3974,14 @@
         <v>0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
       </c>
       <c r="H36" s="7"/>
       <c r="I36" s="7" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
@@ -3959,10 +4008,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -3971,7 +4020,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G37" s="10">
         <v>3</v>
@@ -4005,10 +4054,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -4017,14 +4066,14 @@
         <v>0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
       </c>
       <c r="H38" s="7"/>
       <c r="I38" s="7" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
@@ -4051,10 +4100,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -4063,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
@@ -4097,10 +4146,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -4109,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G40" s="7">
         <v>99</v>
@@ -4143,10 +4192,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="D41" s="10">
         <v>3</v>
@@ -4155,14 +4204,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G41" s="10">
         <v>99</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="J41" s="10">
         <v>5</v>
@@ -4189,10 +4238,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4201,7 +4250,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G42" s="7">
         <v>99</v>
@@ -4235,10 +4284,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="D43" s="10">
         <v>3</v>
@@ -4247,7 +4296,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G43" s="10">
         <v>99</v>
@@ -4281,10 +4330,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -4293,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G44" s="7">
         <v>99</v>
@@ -4327,10 +4376,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -4339,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G45" s="10">
         <v>99</v>
@@ -4373,10 +4422,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="D46" s="7">
         <v>4</v>
@@ -4385,14 +4434,14 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
       </c>
       <c r="H46" s="7"/>
       <c r="I46" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4419,10 +4468,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4431,14 +4480,14 @@
         <v>0</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G47" s="10">
         <v>2</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
@@ -4465,10 +4514,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4477,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
@@ -4511,10 +4560,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4523,14 +4572,14 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
@@ -4557,10 +4606,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -4569,14 +4618,14 @@
         <v>0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
       <c r="H50" s="7"/>
       <c r="I50" s="7" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
@@ -4603,10 +4652,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -4615,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
@@ -4649,10 +4698,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -4661,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G52" s="7">
         <v>99</v>
@@ -4695,10 +4744,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -4707,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G53" s="10">
         <v>99</v>
@@ -4741,10 +4790,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -4753,7 +4802,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G54" s="7">
         <v>99</v>
@@ -4787,10 +4836,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -4799,14 +4848,14 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
       </c>
       <c r="H55" s="10"/>
       <c r="I55" s="10" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
@@ -4833,10 +4882,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -4845,7 +4894,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G56" s="7">
         <v>2</v>
@@ -4879,10 +4928,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -4891,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G57" s="10">
         <v>2</v>
@@ -4925,10 +4974,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D58" s="13">
         <v>5</v>
@@ -4937,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G58" s="13">
         <v>2</v>
@@ -4966,6 +5015,7 @@
       <c r="W58" s="13"/>
       <c r="X58" s="18"/>
     </row>
+    <row r="59" ht="14.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="drow_ranger" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">drow_ranger!$D$1:$D$59</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -194,10 +197,10 @@
     <t>连射</t>
   </si>
   <si>
-    <t>穿透箭攻击时有%chance%%%概率再射出一只箭。</t>
-  </si>
-  <si>
-    <t>chance 50 100</t>
+    <t>穿透箭攻击时有%lianshe_chance%%%概率再射出一只箭。</t>
+  </si>
+  <si>
+    <t>lianshe_chance 50 100</t>
   </si>
   <si>
     <t>分裂箭</t>
@@ -228,9 +231,6 @@
   </si>
   <si>
     <t>分裂箭命中时会额外回复%add_mana%点蓝量。</t>
-  </si>
-  <si>
-    <t>null</t>
   </si>
   <si>
     <t>add_mana 2 4</t>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>攻击力提高4%/8%/12%/16%/20%</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>追击</t>
@@ -2171,9 +2174,9 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M15" sqref="M15"/>
+      <selection pane="topRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2189,7 +2192,7 @@
     <col min="10" max="10" width="22.0083333333333" customWidth="1"/>
     <col min="11" max="11" width="26.675" customWidth="1"/>
     <col min="12" max="12" width="17.175" style="2" customWidth="1"/>
-    <col min="13" max="13" width="24.3416666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="42.625" style="2" customWidth="1"/>
     <col min="14" max="14" width="24.0083333333333" style="2" customWidth="1"/>
     <col min="15" max="15" width="18.75" style="2" customWidth="1"/>
     <col min="16" max="18" width="6.24166666666667" style="2" customWidth="1"/>
@@ -2771,8 +2774,8 @@
       <c r="E11" s="10">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="s">
-        <v>67</v>
+      <c r="F11" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="G11" s="10">
         <v>3</v>
@@ -2791,7 +2794,7 @@
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2810,10 +2813,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2822,7 +2825,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -2831,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
@@ -2841,7 +2844,7 @@
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -2860,10 +2863,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -2872,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -2881,7 +2884,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J13" s="10">
         <v>3</v>
@@ -2891,7 +2894,7 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -2910,10 +2913,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -2922,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
@@ -2931,7 +2934,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J14" s="7">
         <v>3</v>
@@ -2941,13 +2944,13 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="O14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2964,10 +2967,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>85</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>86</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -2976,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -3012,10 +3015,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -3024,7 +3027,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -3033,7 +3036,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="7">
         <v>3</v>
@@ -3060,10 +3063,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>91</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>92</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -3072,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G17" s="10">
         <v>3</v>
@@ -3081,7 +3084,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -3108,10 +3111,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>95</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -3120,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -3156,10 +3159,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>96</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>97</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -3168,7 +3171,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3177,7 +3180,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J19" s="10">
         <v>5</v>
@@ -3204,10 +3207,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>100</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>101</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -3216,7 +3219,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -3225,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J20" s="7">
         <v>3</v>
@@ -3252,10 +3255,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>105</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -3264,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G21" s="10">
         <v>3</v>
@@ -3273,7 +3276,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
@@ -3283,7 +3286,7 @@
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3302,10 +3305,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -3314,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G22" s="7">
         <v>4</v>
@@ -3350,10 +3353,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>110</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
@@ -3362,7 +3365,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
@@ -3371,7 +3374,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J23" s="10">
         <v>3</v>
@@ -3398,10 +3401,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>114</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>115</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -3410,7 +3413,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
@@ -3419,7 +3422,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -3446,10 +3449,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="D25" s="10">
         <v>2</v>
@@ -3458,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
@@ -3490,14 +3493,12 @@
       <c r="X25" s="17"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
+      <c r="A26" s="6"/>
       <c r="B26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>120</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -3506,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7">
         <v>99</v>
@@ -3538,9 +3539,7 @@
       <c r="X26" s="16"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
+      <c r="A27" s="9"/>
       <c r="B27" s="10" t="s">
         <v>121</v>
       </c>
@@ -3554,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G27" s="10">
         <v>99</v>
@@ -3586,9 +3585,7 @@
       <c r="X27" s="17"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
+      <c r="A28" s="6"/>
       <c r="B28" s="7" t="s">
         <v>123</v>
       </c>
@@ -3602,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G28" s="7">
         <v>99</v>
@@ -3634,9 +3631,7 @@
       <c r="X28" s="16"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A29" s="9">
-        <v>28</v>
-      </c>
+      <c r="A29" s="9"/>
       <c r="B29" s="10" t="s">
         <v>125</v>
       </c>
@@ -3650,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G29" s="10">
         <v>99</v>
@@ -3698,7 +3693,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -3744,7 +3739,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
@@ -3790,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G32" s="7">
         <v>3</v>
@@ -3836,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
@@ -3882,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
@@ -3928,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
@@ -3974,7 +3969,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
@@ -4020,7 +4015,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G37" s="10">
         <v>3</v>
@@ -4066,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -4112,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
@@ -4158,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G40" s="7">
         <v>99</v>
@@ -4204,7 +4199,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G41" s="10">
         <v>99</v>
@@ -4250,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G42" s="7">
         <v>99</v>
@@ -4296,7 +4291,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G43" s="10">
         <v>99</v>
@@ -4342,7 +4337,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G44" s="7">
         <v>99</v>
@@ -4388,7 +4383,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G45" s="10">
         <v>99</v>
@@ -4434,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -4480,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G47" s="10">
         <v>2</v>
@@ -4526,7 +4521,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
@@ -4572,7 +4567,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
@@ -4618,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
@@ -4664,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
@@ -4710,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G52" s="7">
         <v>99</v>
@@ -4756,7 +4751,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G53" s="10">
         <v>99</v>
@@ -4802,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G54" s="7">
         <v>99</v>
@@ -4848,7 +4843,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -4894,7 +4889,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G56" s="7">
         <v>2</v>
@@ -4940,7 +4935,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G57" s="10">
         <v>2</v>
@@ -4986,7 +4981,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="G58" s="13">
         <v>2</v>
@@ -5017,6 +5012,9 @@
     </row>
     <row r="59" ht="14.25"/>
   </sheetData>
+  <autoFilter ref="D1:D59">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="211">
   <si>
     <t>下标</t>
   </si>
@@ -239,7 +239,7 @@
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出4支箭，每支箭造成攻击力%base_value%%%的伤害。
+    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的伤害。
 cd：3秒
 蓝量消耗：20 
 作用范围：750码内敌对单位</t>
@@ -254,10 +254,13 @@
     <t>base_value 130 160 190 225 260</t>
   </si>
   <si>
+    <t>proj_count 4</t>
+  </si>
+  <si>
     <t>连发</t>
   </si>
   <si>
-    <t>连续射击的弓箭数量增加%bonus_value%%%支</t>
+    <t>连续射击的弓箭数量增加%bonus_value%支</t>
   </si>
   <si>
     <t>drow_2a_a</t>
@@ -305,6 +308,9 @@
     <t>16|0</t>
   </si>
   <si>
+    <t>bonus_value 20 40 60</t>
+  </si>
+  <si>
     <t>刺骨</t>
   </si>
   <si>
@@ -314,16 +320,31 @@
     <t>17|0</t>
   </si>
   <si>
+    <t>cigu_value 1</t>
+  </si>
+  <si>
     <t>冰爆</t>
   </si>
   <si>
     <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力160%/200%/250%冰元素伤害。</t>
   </si>
   <si>
+    <t>base_value 160 200 250</t>
+  </si>
+  <si>
+    <t>chance 12</t>
+  </si>
+  <si>
+    <t>radius 300</t>
+  </si>
+  <si>
     <t>散射</t>
   </si>
   <si>
-    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。 cd：3秒 蓝量消耗30 作用范围：500码距离，扇形90°</t>
+    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。 cd：3秒 
+蓝量消耗30 
+作用范围：500码
+距离，扇形90°</t>
   </si>
   <si>
     <t>drow_2b</t>
@@ -332,6 +353,12 @@
     <t>19|22</t>
   </si>
   <si>
+    <t>base_value 120 140 160 190 240</t>
+  </si>
+  <si>
+    <t>arrow_angle 50</t>
+  </si>
+  <si>
     <t>火力覆盖</t>
   </si>
   <si>
@@ -344,6 +371,9 @@
     <t>20|0</t>
   </si>
   <si>
+    <t>bonus_value 60 90 120</t>
+  </si>
+  <si>
     <t>节减</t>
   </si>
   <si>
@@ -353,19 +383,25 @@
     <t>21|0</t>
   </si>
   <si>
-    <t>mana_cost -5 -10</t>
+    <t>mana_cost 5 10</t>
   </si>
   <si>
     <t>压制</t>
   </si>
   <si>
-    <t>对生命值高于50%的单位造成伤害提升30%/60%/100%</t>
+    <t>对生命值高于%hp_heighest%的单位造成伤害提升30%/60%/100%</t>
+  </si>
+  <si>
+    <t>bonus_value 30 60 100</t>
+  </si>
+  <si>
+    <t>hp_heighest 50</t>
   </si>
   <si>
     <t>双喷</t>
   </si>
   <si>
-    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有25%/30%/40%概率再次释放一次。（不可套娃）</t>
+    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有%chance%概率再次释放一次。</t>
   </si>
   <si>
     <t>drow_2b_b</t>
@@ -374,13 +410,22 @@
     <t>23|0</t>
   </si>
   <si>
+    <t>chance 25 30 40</t>
+  </si>
+  <si>
     <t>重创</t>
   </si>
   <si>
-    <t>散射对距离越近的单位造成伤害越高。最近判定25码。最高提高伤害100%/200%。</t>
+    <t>散射对距离越近的单位造成伤害越高。最近判定%closest_distance%码。最高提高伤害%bonus_value%。</t>
   </si>
   <si>
     <t>24|0</t>
+  </si>
+  <si>
+    <t>bonus_value 100 200</t>
+  </si>
+  <si>
+    <t>closest_distance 25</t>
   </si>
   <si>
     <t>痛击</t>
@@ -1001,7 +1046,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1085,21 +1130,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF595959"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF5A5A5A"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF595959"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1295,7 +1325,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1307,34 +1337,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1419,7 +1449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1459,22 +1489,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1841,31 +1868,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{4A6142FD-3C1F-4650-BD72-7FA63B3AEFAC}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{33B5AD73-0112-489C-AFFD-B3E43B2D7B37}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{F7A8099A-B0A4-4FBA-9A9F-E656A2EA0E0A}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{9175107F-D60E-4D50-80DB-E6C5D763E279}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{B313BF00-E72D-4517-AB78-ABE7BEBA33CA}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{FF6C38DB-1DDD-438D-84B9-C57D3ADF1B67}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{08933ACF-C458-411E-A57F-658D46C8F53A}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BCC88433-D805-4EB3-B7B6-577A713EBEDE}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{5BECEA00-DA30-4592-BC40-00530514643E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4904F6E6-2552-406D-ADB1-12F943021A73}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2174,9 +2201,9 @@
   <dimension ref="A1:X59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C9" sqref="C9"/>
+      <selection pane="topRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2272,7 +2299,7 @@
       <c r="W1" s="4">
         <v>3</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" s="14" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2346,7 +2373,7 @@
       <c r="W2" s="7">
         <v>3</v>
       </c>
-      <c r="X2" s="16" t="s">
+      <c r="X2" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2400,7 +2427,7 @@
       <c r="U3" s="10"/>
       <c r="V3" s="10"/>
       <c r="W3" s="10"/>
-      <c r="X3" s="17"/>
+      <c r="X3" s="16"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:24">
       <c r="A4" s="6">
@@ -2452,7 +2479,7 @@
       <c r="U4" s="7"/>
       <c r="V4" s="7"/>
       <c r="W4" s="7"/>
-      <c r="X4" s="16"/>
+      <c r="X4" s="15"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:24">
       <c r="A5" s="9">
@@ -2504,7 +2531,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10"/>
-      <c r="X5" s="17"/>
+      <c r="X5" s="16"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:24">
       <c r="A6" s="6">
@@ -2556,7 +2583,7 @@
       <c r="U6" s="7"/>
       <c r="V6" s="7"/>
       <c r="W6" s="7"/>
-      <c r="X6" s="16"/>
+      <c r="X6" s="15"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:24">
       <c r="A7" s="9">
@@ -2606,7 +2633,7 @@
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
-      <c r="X7" s="17"/>
+      <c r="X7" s="16"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:24">
       <c r="A8" s="6">
@@ -2656,7 +2683,7 @@
       <c r="U8" s="7"/>
       <c r="V8" s="7"/>
       <c r="W8" s="7"/>
-      <c r="X8" s="16"/>
+      <c r="X8" s="15"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:24">
       <c r="A9" s="9">
@@ -2706,7 +2733,7 @@
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="10"/>
-      <c r="X9" s="17"/>
+      <c r="X9" s="16"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:24">
       <c r="A10" s="6">
@@ -2756,7 +2783,7 @@
       <c r="U10" s="7"/>
       <c r="V10" s="7"/>
       <c r="W10" s="7"/>
-      <c r="X10" s="16"/>
+      <c r="X10" s="15"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:24">
       <c r="A11" s="9">
@@ -2806,9 +2833,9 @@
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="10"/>
-      <c r="X11" s="17"/>
-    </row>
-    <row r="12" ht="82.5" spans="1:24">
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" ht="99" spans="1:24">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2846,7 +2873,9 @@
       <c r="M12" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="N12" s="7"/>
+      <c r="N12" s="7" t="s">
+        <v>73</v>
+      </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
@@ -2856,17 +2885,17 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
       <c r="W12" s="7"/>
-      <c r="X12" s="16"/>
+      <c r="X12" s="15"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:24">
       <c r="A13" s="9">
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -2875,7 +2904,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -2884,7 +2913,7 @@
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J13" s="10">
         <v>3</v>
@@ -2894,7 +2923,7 @@
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -2906,17 +2935,17 @@
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="10"/>
-      <c r="X13" s="17"/>
+      <c r="X13" s="16"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:24">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -2925,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
@@ -2934,7 +2963,7 @@
         <v>12</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J14" s="7">
         <v>3</v>
@@ -2944,13 +2973,13 @@
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -2960,17 +2989,17 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
       <c r="W14" s="7"/>
-      <c r="X14" s="16"/>
+      <c r="X14" s="15"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:24">
       <c r="A15" s="9">
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -2979,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -3008,17 +3037,17 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
-      <c r="X15" s="17"/>
+      <c r="X15" s="16"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:24">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -3027,7 +3056,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -3036,7 +3065,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J16" s="7">
         <v>3</v>
@@ -3045,7 +3074,9 @@
         <v>31</v>
       </c>
       <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
@@ -3056,17 +3087,17 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
       <c r="W16" s="7"/>
-      <c r="X16" s="16"/>
+      <c r="X16" s="15"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:24">
       <c r="A17" s="9">
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -3075,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G17" s="10">
         <v>3</v>
@@ -3084,7 +3115,7 @@
         <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -3093,7 +3124,9 @@
         <v>31</v>
       </c>
       <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
+      <c r="M17" s="10" t="s">
+        <v>95</v>
+      </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
@@ -3104,17 +3137,17 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10"/>
-      <c r="X17" s="17"/>
+      <c r="X17" s="16"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:24">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -3123,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -3141,9 +3174,15 @@
         <v>31</v>
       </c>
       <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
+      <c r="M18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
@@ -3152,17 +3191,17 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
       <c r="W18" s="7"/>
-      <c r="X18" s="16"/>
-    </row>
-    <row r="19" ht="39" customHeight="1" spans="1:24">
+      <c r="X18" s="15"/>
+    </row>
+    <row r="19" ht="82.5" spans="1:24">
       <c r="A19" s="9">
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -3171,7 +3210,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3180,7 +3219,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="J19" s="10">
         <v>5</v>
@@ -3189,8 +3228,12 @@
         <v>31</v>
       </c>
       <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>106</v>
+      </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
@@ -3200,17 +3243,17 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
-      <c r="X19" s="17"/>
+      <c r="X19" s="16"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:24">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -3219,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -3228,7 +3271,7 @@
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="J20" s="7">
         <v>3</v>
@@ -3237,7 +3280,9 @@
         <v>31</v>
       </c>
       <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>111</v>
+      </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
@@ -3248,17 +3293,17 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
       <c r="W20" s="7"/>
-      <c r="X20" s="16"/>
+      <c r="X20" s="15"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:24">
       <c r="A21" s="9">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -3267,7 +3312,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G21" s="10">
         <v>3</v>
@@ -3276,7 +3321,7 @@
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
@@ -3286,7 +3331,7 @@
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3298,17 +3343,17 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
-      <c r="X21" s="17"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" ht="22.5" customHeight="1" spans="1:24">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -3317,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7">
         <v>4</v>
@@ -3335,8 +3380,12 @@
         <v>31</v>
       </c>
       <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="M22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
@@ -3346,17 +3395,17 @@
       <c r="U22" s="7"/>
       <c r="V22" s="7"/>
       <c r="W22" s="7"/>
-      <c r="X22" s="16"/>
+      <c r="X22" s="15"/>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:24">
       <c r="A23" s="9">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
@@ -3365,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
@@ -3374,7 +3423,7 @@
         <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J23" s="10">
         <v>3</v>
@@ -3383,7 +3432,9 @@
         <v>31</v>
       </c>
       <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
+      <c r="M23" s="10" t="s">
+        <v>124</v>
+      </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
       <c r="P23" s="10"/>
@@ -3394,17 +3445,17 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10"/>
-      <c r="X23" s="17"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" ht="39" customHeight="1" spans="1:24">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -3413,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
@@ -3422,7 +3473,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
@@ -3431,8 +3482,12 @@
         <v>31</v>
       </c>
       <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="M24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N24" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -3442,17 +3497,17 @@
       <c r="U24" s="7"/>
       <c r="V24" s="7"/>
       <c r="W24" s="7"/>
-      <c r="X24" s="16"/>
+      <c r="X24" s="15"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A25" s="9">
+      <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D25" s="10">
         <v>2</v>
@@ -3461,7 +3516,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
@@ -3479,7 +3534,9 @@
         <v>31</v>
       </c>
       <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
+      <c r="M25" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
       <c r="P25" s="10"/>
@@ -3490,15 +3547,17 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10"/>
-      <c r="X25" s="17"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A26" s="6"/>
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
       <c r="B26" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -3507,14 +3566,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G26" s="7">
         <v>99</v>
       </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
+      <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
         <v>42</v>
       </c>
@@ -3536,15 +3593,17 @@
       <c r="U26" s="7"/>
       <c r="V26" s="7"/>
       <c r="W26" s="7"/>
-      <c r="X26" s="16"/>
+      <c r="X26" s="15"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A27" s="9"/>
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
       <c r="B27" s="10" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -3553,14 +3612,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G27" s="10">
         <v>99</v>
       </c>
-      <c r="H27" s="10">
-        <v>0</v>
-      </c>
+      <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
         <v>42</v>
       </c>
@@ -3582,15 +3639,17 @@
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
-      <c r="X27" s="17"/>
+      <c r="X27" s="16"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A28" s="6"/>
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
       <c r="B28" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -3599,14 +3658,12 @@
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G28" s="7">
         <v>99</v>
       </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
+      <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
         <v>42</v>
       </c>
@@ -3628,15 +3685,17 @@
       <c r="U28" s="7"/>
       <c r="V28" s="7"/>
       <c r="W28" s="7"/>
-      <c r="X28" s="16"/>
+      <c r="X28" s="15"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A29" s="9"/>
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
       <c r="B29" s="10" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -3645,14 +3704,12 @@
         <v>0</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G29" s="10">
         <v>99</v>
       </c>
-      <c r="H29" s="10">
-        <v>0</v>
-      </c>
+      <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
         <v>42</v>
       </c>
@@ -3674,17 +3731,17 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
-      <c r="X29" s="17"/>
+      <c r="X29" s="16"/>
     </row>
     <row r="30" customFormat="1" ht="39" customHeight="1" spans="1:24">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
@@ -3693,14 +3750,16 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
       <c r="I30" s="7" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J30" s="7">
         <v>5</v>
@@ -3720,17 +3779,17 @@
       <c r="U30" s="7"/>
       <c r="V30" s="7"/>
       <c r="W30" s="7"/>
-      <c r="X30" s="16"/>
+      <c r="X30" s="15"/>
     </row>
     <row r="31" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A31" s="9">
+      <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
@@ -3739,14 +3798,16 @@
         <v>0</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="10">
+        <v>29</v>
+      </c>
       <c r="I31" s="10" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
@@ -3766,17 +3827,17 @@
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
-      <c r="X31" s="17"/>
+      <c r="X31" s="16"/>
     </row>
     <row r="32" customFormat="1" ht="39" customHeight="1" spans="1:24">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -3785,12 +3846,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G32" s="7">
         <v>3</v>
       </c>
-      <c r="H32" s="7"/>
+      <c r="H32" s="7">
+        <v>30</v>
+      </c>
       <c r="I32" s="7" t="s">
         <v>42</v>
       </c>
@@ -3812,17 +3875,17 @@
       <c r="U32" s="7"/>
       <c r="V32" s="7"/>
       <c r="W32" s="7"/>
-      <c r="X32" s="16"/>
+      <c r="X32" s="15"/>
     </row>
     <row r="33" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A33" s="9">
+      <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
@@ -3831,14 +3894,16 @@
         <v>0</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="10">
+        <v>29</v>
+      </c>
       <c r="I33" s="10" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
@@ -3858,17 +3923,17 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
-      <c r="X33" s="17"/>
+      <c r="X33" s="16"/>
     </row>
     <row r="34" customFormat="1" ht="72" customHeight="1" spans="1:24">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -3877,12 +3942,14 @@
         <v>0</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
       </c>
-      <c r="H34" s="7"/>
+      <c r="H34" s="7">
+        <v>32</v>
+      </c>
       <c r="I34" s="7" t="s">
         <v>42</v>
       </c>
@@ -3904,17 +3971,17 @@
       <c r="U34" s="7"/>
       <c r="V34" s="7"/>
       <c r="W34" s="7"/>
-      <c r="X34" s="16"/>
+      <c r="X34" s="15"/>
     </row>
     <row r="35" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A35" s="9">
+      <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
@@ -3923,14 +3990,16 @@
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="H35" s="10">
+        <v>0</v>
+      </c>
       <c r="I35" s="10" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="J35" s="10">
         <v>5</v>
@@ -3950,17 +4019,17 @@
       <c r="U35" s="10"/>
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
-      <c r="X35" s="17"/>
+      <c r="X35" s="16"/>
     </row>
     <row r="36" customFormat="1" ht="55.5" customHeight="1" spans="1:24">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
@@ -3969,14 +4038,16 @@
         <v>0</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
       </c>
-      <c r="H36" s="7"/>
+      <c r="H36" s="7">
+        <v>34</v>
+      </c>
       <c r="I36" s="7" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
@@ -3996,17 +4067,17 @@
       <c r="U36" s="7"/>
       <c r="V36" s="7"/>
       <c r="W36" s="7"/>
-      <c r="X36" s="16"/>
+      <c r="X36" s="15"/>
     </row>
     <row r="37" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A37" s="9">
+      <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -4015,12 +4086,14 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G37" s="10">
         <v>3</v>
       </c>
-      <c r="H37" s="10"/>
+      <c r="H37" s="10">
+        <v>35</v>
+      </c>
       <c r="I37" s="10" t="s">
         <v>42</v>
       </c>
@@ -4042,17 +4115,17 @@
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
-      <c r="X37" s="17"/>
+      <c r="X37" s="16"/>
     </row>
     <row r="38" customFormat="1" ht="39" customHeight="1" spans="1:24">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -4061,14 +4134,16 @@
         <v>0</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
       </c>
-      <c r="H38" s="7"/>
+      <c r="H38" s="7">
+        <v>34</v>
+      </c>
       <c r="I38" s="7" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
@@ -4088,17 +4163,17 @@
       <c r="U38" s="7"/>
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
-      <c r="X38" s="16"/>
+      <c r="X38" s="15"/>
     </row>
     <row r="39" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A39" s="9">
+      <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -4107,12 +4182,14 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
       </c>
-      <c r="H39" s="10"/>
+      <c r="H39" s="10">
+        <v>37</v>
+      </c>
       <c r="I39" s="10" t="s">
         <v>42</v>
       </c>
@@ -4134,17 +4211,17 @@
       <c r="U39" s="10"/>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
-      <c r="X39" s="17"/>
+      <c r="X39" s="16"/>
     </row>
     <row r="40" customFormat="1" ht="39" customHeight="1" spans="1:24">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -4153,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G40" s="7">
         <v>99</v>
@@ -4180,17 +4257,17 @@
       <c r="U40" s="7"/>
       <c r="V40" s="7"/>
       <c r="W40" s="7"/>
-      <c r="X40" s="16"/>
+      <c r="X40" s="15"/>
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A41" s="9">
+      <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="D41" s="10">
         <v>3</v>
@@ -4199,14 +4276,14 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G41" s="10">
         <v>99</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="J41" s="10">
         <v>5</v>
@@ -4226,17 +4303,17 @@
       <c r="U41" s="10"/>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
-      <c r="X41" s="17"/>
+      <c r="X41" s="16"/>
     </row>
     <row r="42" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4245,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G42" s="7">
         <v>99</v>
@@ -4272,17 +4349,17 @@
       <c r="U42" s="7"/>
       <c r="V42" s="7"/>
       <c r="W42" s="7"/>
-      <c r="X42" s="16"/>
+      <c r="X42" s="15"/>
     </row>
     <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A43" s="9">
+      <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="D43" s="10">
         <v>3</v>
@@ -4291,7 +4368,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G43" s="10">
         <v>99</v>
@@ -4318,17 +4395,17 @@
       <c r="U43" s="10"/>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
-      <c r="X43" s="17"/>
+      <c r="X43" s="16"/>
     </row>
     <row r="44" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -4337,7 +4414,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G44" s="7">
         <v>99</v>
@@ -4364,17 +4441,17 @@
       <c r="U44" s="7"/>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
-      <c r="X44" s="16"/>
+      <c r="X44" s="15"/>
     </row>
     <row r="45" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A45" s="9">
+      <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -4383,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G45" s="10">
         <v>99</v>
@@ -4410,17 +4487,17 @@
       <c r="U45" s="10"/>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
-      <c r="X45" s="17"/>
+      <c r="X45" s="16"/>
     </row>
     <row r="46" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="D46" s="7">
         <v>4</v>
@@ -4429,14 +4506,16 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
       </c>
-      <c r="H46" s="7"/>
+      <c r="H46" s="7">
+        <v>0</v>
+      </c>
       <c r="I46" s="7" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4456,17 +4535,17 @@
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
       <c r="W46" s="7"/>
-      <c r="X46" s="16"/>
+      <c r="X46" s="15"/>
     </row>
     <row r="47" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A47" s="9">
+      <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4475,14 +4554,16 @@
         <v>0</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G47" s="10">
         <v>2</v>
       </c>
-      <c r="H47" s="10"/>
+      <c r="H47" s="10">
+        <v>45</v>
+      </c>
       <c r="I47" s="10" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
@@ -4502,17 +4583,17 @@
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
-      <c r="X47" s="17"/>
+      <c r="X47" s="16"/>
     </row>
     <row r="48" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4521,12 +4602,14 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
       </c>
-      <c r="H48" s="7"/>
+      <c r="H48" s="7">
+        <v>46</v>
+      </c>
       <c r="I48" s="7" t="s">
         <v>42</v>
       </c>
@@ -4548,17 +4631,17 @@
       <c r="U48" s="7"/>
       <c r="V48" s="7"/>
       <c r="W48" s="7"/>
-      <c r="X48" s="16"/>
+      <c r="X48" s="15"/>
     </row>
     <row r="49" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A49" s="9">
+      <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4567,14 +4650,16 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
       </c>
-      <c r="H49" s="10"/>
+      <c r="H49" s="10">
+        <v>0</v>
+      </c>
       <c r="I49" s="10" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
@@ -4594,17 +4679,17 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
-      <c r="X49" s="17"/>
+      <c r="X49" s="16"/>
     </row>
     <row r="50" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -4613,14 +4698,16 @@
         <v>0</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
       </c>
-      <c r="H50" s="7"/>
+      <c r="H50" s="7">
+        <v>48</v>
+      </c>
       <c r="I50" s="7" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
@@ -4640,17 +4727,17 @@
       <c r="U50" s="7"/>
       <c r="V50" s="7"/>
       <c r="W50" s="7"/>
-      <c r="X50" s="16"/>
+      <c r="X50" s="15"/>
     </row>
     <row r="51" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A51" s="9">
+      <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -4659,12 +4746,14 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
       </c>
-      <c r="H51" s="10"/>
+      <c r="H51" s="10">
+        <v>49</v>
+      </c>
       <c r="I51" s="10" t="s">
         <v>42</v>
       </c>
@@ -4686,17 +4775,17 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
-      <c r="X51" s="17"/>
+      <c r="X51" s="16"/>
     </row>
     <row r="52" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -4705,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G52" s="7">
         <v>99</v>
@@ -4732,17 +4821,17 @@
       <c r="U52" s="7"/>
       <c r="V52" s="7"/>
       <c r="W52" s="7"/>
-      <c r="X52" s="16"/>
+      <c r="X52" s="15"/>
     </row>
     <row r="53" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A53" s="9">
+      <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -4751,7 +4840,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G53" s="10">
         <v>99</v>
@@ -4778,17 +4867,17 @@
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
-      <c r="X53" s="17"/>
+      <c r="X53" s="16"/>
     </row>
     <row r="54" customFormat="1" ht="22.5" customHeight="1" spans="1:24">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -4797,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G54" s="7">
         <v>99</v>
@@ -4824,17 +4913,17 @@
       <c r="U54" s="7"/>
       <c r="V54" s="7"/>
       <c r="W54" s="7"/>
-      <c r="X54" s="16"/>
+      <c r="X54" s="15"/>
     </row>
     <row r="55" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A55" s="9">
+      <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -4843,14 +4932,16 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
       </c>
-      <c r="H55" s="10"/>
+      <c r="H55" s="10">
+        <v>0</v>
+      </c>
       <c r="I55" s="10" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
@@ -4870,17 +4961,17 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
-      <c r="X55" s="17"/>
+      <c r="X55" s="16"/>
     </row>
     <row r="56" customFormat="1" ht="39" customHeight="1" spans="1:24">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -4889,12 +4980,14 @@
         <v>0</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G56" s="7">
         <v>2</v>
       </c>
-      <c r="H56" s="7"/>
+      <c r="H56" s="7">
+        <v>54</v>
+      </c>
       <c r="I56" s="7" t="s">
         <v>42</v>
       </c>
@@ -4916,17 +5009,17 @@
       <c r="U56" s="7"/>
       <c r="V56" s="7"/>
       <c r="W56" s="7"/>
-      <c r="X56" s="16"/>
+      <c r="X56" s="15"/>
     </row>
     <row r="57" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A57" s="9">
+      <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -4935,12 +5028,14 @@
         <v>0</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="G57" s="10">
         <v>2</v>
       </c>
-      <c r="H57" s="10"/>
+      <c r="H57" s="10">
+        <v>54</v>
+      </c>
       <c r="I57" s="10" t="s">
         <v>42</v>
       </c>
@@ -4962,53 +5057,55 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
-      <c r="X57" s="17"/>
+      <c r="X57" s="16"/>
     </row>
     <row r="58" customFormat="1" ht="39" customHeight="1" spans="1:24">
-      <c r="A58" s="12">
+      <c r="A58" s="6">
         <v>57</v>
       </c>
-      <c r="B58" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="D58" s="13">
+      <c r="B58" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="12">
         <v>5</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E58" s="12">
         <v>0</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G58" s="13">
-        <v>2</v>
-      </c>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13" t="s">
+      <c r="F58" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G58" s="12">
+        <v>2</v>
+      </c>
+      <c r="H58" s="12">
+        <v>54</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="12">
         <v>1</v>
       </c>
-      <c r="K58" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="13"/>
-      <c r="S58" s="13"/>
-      <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
-      <c r="X58" s="18"/>
+      <c r="K58" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="17"/>
     </row>
     <row r="59" ht="14.25"/>
   </sheetData>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -209,6 +209,9 @@
     <t>攻击可以同时命中%targes%个敌人。</t>
   </si>
   <si>
+    <t>drow_1c</t>
+  </si>
+  <si>
     <t>9|10</t>
   </si>
   <si>
@@ -221,9 +224,6 @@
     <t>伤害提高%bonus_value%%%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
   </si>
   <si>
-    <t>drow_1c</t>
-  </si>
-  <si>
     <t>bonus_value 150 300</t>
   </si>
   <si>
@@ -239,10 +239,7 @@
     <t>连续射击</t>
   </si>
   <si>
-    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的伤害。
-cd：3秒
-蓝量消耗：20 
-作用范围：750码内敌对单位</t>
+    <t>快速射出%proj_count%支箭，每支箭造成攻击力%base_value%%%的伤害。</t>
   </si>
   <si>
     <t>drow_2a</t>
@@ -275,7 +272,7 @@
     <t>击破</t>
   </si>
   <si>
-    <t>连续射击的每支箭都会使目标收到的伤害增加%value%%%，持续%duration%秒，最高%max_stack%层效果。</t>
+    <t>连续射击的每支箭都会使目标收到的伤害增加%value%%%，持续%duration%秒，最高%max_stack%层</t>
   </si>
   <si>
     <t>14|0</t>
@@ -341,10 +338,7 @@
     <t>散射</t>
   </si>
   <si>
-    <t>散射数支箭，造成攻击力120%/140%/160%/190%/240%的伤害。 cd：3秒 
-蓝量消耗30 
-作用范围：500码
-距离，扇形90°</t>
+    <t>散射数支箭，造成攻击力%base_value%%%的伤害</t>
   </si>
   <si>
     <t>drow_2b</t>
@@ -362,7 +356,7 @@
     <t>火力覆盖</t>
   </si>
   <si>
-    <t>散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高60%/90%/120%</t>
+    <t>散射技能赋予火元素效果，伤害变为火元素伤害。伤害提高%bonus_value%%%</t>
   </si>
   <si>
     <t>drow_2b_a</t>
@@ -377,7 +371,7 @@
     <t>节减</t>
   </si>
   <si>
-    <t>散射技能蓝耗下降5/10点</t>
+    <t>散射技能蓝耗下降%mana_cost%点</t>
   </si>
   <si>
     <t>21|0</t>
@@ -2203,7 +2197,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C14" sqref="C14"/>
+      <selection pane="topRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2699,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -2711,7 +2705,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="10">
         <v>3</v>
@@ -2721,7 +2715,7 @@
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2740,10 +2734,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2752,7 +2746,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
@@ -2802,7 +2796,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G11" s="10">
         <v>3</v>
@@ -2835,7 +2829,7 @@
       <c r="W11" s="10"/>
       <c r="X11" s="16"/>
     </row>
-    <row r="12" ht="99" spans="1:24">
+    <row r="12" ht="33" spans="1:24">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -3193,7 +3187,7 @@
       <c r="W18" s="7"/>
       <c r="X18" s="15"/>
     </row>
-    <row r="19" ht="82.5" spans="1:24">
+    <row r="19" ht="16.5" spans="1:24">
       <c r="A19" s="9">
         <v>18</v>
       </c>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
   <si>
     <t>下标</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力200%/250%/300%/350%/400%/450%的伤害，持续8秒。</t>
+  </si>
+  <si>
+    <t>drow_3a</t>
   </si>
   <si>
     <t>30|32</t>
@@ -2194,10 +2197,10 @@
   <sheetPr/>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3744,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -3753,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J30" s="7">
         <v>5</v>
@@ -3780,10 +3783,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
@@ -3801,7 +3804,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
@@ -3828,10 +3831,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -3876,10 +3879,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
@@ -3897,7 +3900,7 @@
         <v>29</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
@@ -3924,10 +3927,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -3972,10 +3975,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
@@ -3993,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J35" s="10">
         <v>5</v>
@@ -4020,10 +4023,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
@@ -4041,7 +4044,7 @@
         <v>34</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
@@ -4068,10 +4071,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -4116,10 +4119,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -4137,7 +4140,7 @@
         <v>34</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
@@ -4164,10 +4167,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -4212,10 +4215,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -4258,10 +4261,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D41" s="10">
         <v>3</v>
@@ -4277,7 +4280,7 @@
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J41" s="10">
         <v>5</v>
@@ -4304,10 +4307,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4350,10 +4353,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D43" s="10">
         <v>3</v>
@@ -4396,10 +4399,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -4442,10 +4445,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -4488,10 +4491,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D46" s="7">
         <v>4</v>
@@ -4509,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4536,10 +4539,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4557,7 +4560,7 @@
         <v>45</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
@@ -4584,10 +4587,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4632,10 +4635,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4653,7 +4656,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
@@ -4680,10 +4683,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -4701,7 +4704,7 @@
         <v>48</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
@@ -4728,10 +4731,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -4776,10 +4779,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -4822,10 +4825,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -4868,10 +4871,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -4914,10 +4917,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -4935,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
@@ -4962,10 +4965,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -5010,10 +5013,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -5058,10 +5061,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="237">
   <si>
     <t>下标</t>
   </si>
@@ -383,7 +383,7 @@
     <t>压制</t>
   </si>
   <si>
-    <t>对生命值高于%hp_heighest%的单位造成伤害提升30%/60%/100%</t>
+    <t>对生命值高于%hp_heighest%的单位造成伤害提升%bonus_value%%%</t>
   </si>
   <si>
     <t>bonus_value 30 60 100</t>
@@ -395,7 +395,7 @@
     <t>双喷</t>
   </si>
   <si>
-    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有%chance%概率再次释放一次。</t>
+    <t>散射技能赋予冰元素效果，伤害变为冰元素伤害。有%chance%%%概率再次释放一次。</t>
   </si>
   <si>
     <t>drow_2b_b</t>
@@ -410,7 +410,8 @@
     <t>重创</t>
   </si>
   <si>
-    <t>散射对距离越近的单位造成伤害越高。最近判定%closest_distance%码。最高提高伤害%bonus_value%。</t>
+    <t>散射对距离越近的单位造成伤害越高。最近判定%closest_distance%码。
+最高提高伤害%bonus_value%%%</t>
   </si>
   <si>
     <t>24|0</t>
@@ -425,40 +426,52 @@
     <t>痛击</t>
   </si>
   <si>
-    <t>散射对被降低移速的敌人造成的伤害提高30%/60%/100%。</t>
+    <t>散射对被降低移速的敌人造成的伤害提高%bonus_value%%%。</t>
   </si>
   <si>
     <t>备战</t>
   </si>
   <si>
-    <t>攻击力提高4%/8%/12%/16%/20%</t>
+    <t>攻击力提高%base_value%%%</t>
   </si>
   <si>
     <t>null</t>
   </si>
   <si>
+    <t>base_value 4 8 12 16 20</t>
+  </si>
+  <si>
     <t>追击</t>
   </si>
   <si>
-    <t>生命值高于70%，攻击速度提高10%/15%/20%/25%/30%</t>
+    <t>生命值高于%hp_heighest%%%，攻击速度提高%base_value%%%</t>
+  </si>
+  <si>
+    <t>base_value10 15 20 25 30</t>
+  </si>
+  <si>
+    <t>hp_heighest 70</t>
   </si>
   <si>
     <t>压迫</t>
   </si>
   <si>
-    <t>移动速度提高5%/7.5%/10%/12.5%/15%</t>
+    <t>移动速度提高%base_value%%%</t>
+  </si>
+  <si>
+    <t>base_value 5 7.5 10 12.5 15</t>
   </si>
   <si>
     <t>体能</t>
   </si>
   <si>
-    <t>生命值提高4%/8%/12%/16%/20%</t>
+    <t>生命值提高%base_value%%%</t>
   </si>
   <si>
     <t>风暴环绕</t>
   </si>
   <si>
-    <t>召唤一阵风暴环绕自身，每1秒对触碰到风暴的敌人造成攻击力200%/250%/300%/350%/400%/450%的伤害，持续8秒。</t>
+    <t>召唤一阵风暴环绕自身，每%interval%秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%duration%秒。</t>
   </si>
   <si>
     <t>drow_3a</t>
@@ -467,29 +480,53 @@
     <t>30|32</t>
   </si>
   <si>
+    <t>base_value 200 250 300 350 400</t>
+  </si>
+  <si>
+    <t>interval 1</t>
+  </si>
+  <si>
+    <t>duration 8</t>
+  </si>
+  <si>
     <t>疾风</t>
   </si>
   <si>
-    <t>风暴环绕伤害频率提高50%/100%</t>
+    <t>风暴环绕伤害频率提高%interval_increase%%%</t>
+  </si>
+  <si>
+    <t>drow_3a_a</t>
   </si>
   <si>
     <t>31|0</t>
   </si>
   <si>
+    <t>interval_increase 50 100</t>
+  </si>
+  <si>
     <t>退散</t>
   </si>
   <si>
     <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。（2级触发风元素伤害增加15%）</t>
   </si>
   <si>
+    <t>wind_element 0 15</t>
+  </si>
+  <si>
     <t>冰雹</t>
   </si>
   <si>
     <t>风暴环绕技能赋予冰元素效果，伤害变为冰元素伤害。
-风暴数量增加1/2个</t>
+风暴数量增加%bonus_count%个</t>
+  </si>
+  <si>
+    <t>drow_3a_b</t>
   </si>
   <si>
     <t>33|0</t>
+  </si>
+  <si>
+    <t>bonus_count 1 2</t>
   </si>
   <si>
     <t>暴雪</t>
@@ -500,20 +537,44 @@
 爆炸范围：自身直径750码。</t>
   </si>
   <si>
+    <t>record_pct 100</t>
+  </si>
+  <si>
+    <t>limit_pct 3000 4500 6000</t>
+  </si>
+  <si>
+    <t>radius 750</t>
+  </si>
+  <si>
     <t>箭雨</t>
   </si>
   <si>
-    <t>向空中射出10/12/14/17/20支箭，随机打击范围1000码以内敌人，每支箭制造成攻击力200%的伤害。</t>
+    <t>向空中射出%arrow_count%支箭，随机打击范围%radius%码以内敌人，每支箭制造成攻击力%base_value%%%的伤害。</t>
+  </si>
+  <si>
+    <t>drow_3b</t>
   </si>
   <si>
     <t>35|37</t>
   </si>
   <si>
+    <t>arrow_count 10 12 14 17 20</t>
+  </si>
+  <si>
+    <t>base_value 200</t>
+  </si>
+  <si>
+    <t>radius 1000</t>
+  </si>
+  <si>
     <t>燃矢</t>
   </si>
   <si>
     <t>箭雨技能赋予火元素效果，伤害变为火元素伤害。
-（2级触发灼烧伤害持续时间延长至5秒，伤害增加至攻击力50%。）</t>
+（2级触发灼烧伤害持续时间延长2秒，伤害增加攻击力25%。）</t>
+  </si>
+  <si>
+    <t>drow_3b_a</t>
   </si>
   <si>
     <t>36|0</t>
@@ -522,22 +583,37 @@
     <t>焚身</t>
   </si>
   <si>
-    <t>箭雨对被灼烧的敌人造成伤害提高50%/100%</t>
+    <t>箭雨对被灼烧的敌人造成伤害提高%extra_dmg_pct%%%</t>
+  </si>
+  <si>
+    <t>extra_dmg_pct 50 100</t>
   </si>
   <si>
     <t>集火</t>
   </si>
   <si>
-    <t>多支箭矢命中相同敌人时，会额外造成10%的伤害。上限5/7/10层。</t>
+    <t>多支箭矢命中相同敌人时，会额外造成%bonus_dmg%%%的伤害。上限%limit_stack%层。</t>
+  </si>
+  <si>
+    <t>drow_3b_b</t>
   </si>
   <si>
     <t>38|0</t>
   </si>
   <si>
+    <t>bonus_dmg 10</t>
+  </si>
+  <si>
+    <t>limit_stack 5 7 10</t>
+  </si>
+  <si>
     <t>急冻</t>
   </si>
   <si>
-    <t>箭雨技能赋予冰元素效果，伤害变为冰元素伤害。额外增加4/8支箭。</t>
+    <t>箭雨技能赋予冰元素效果，伤害变为冰元素伤害。额外增加%bonus_arrow%支箭。</t>
+  </si>
+  <si>
+    <t>bonus_arrow 4 8</t>
   </si>
   <si>
     <t>全能</t>
@@ -1865,31 +1941,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{33B5AD73-0112-489C-AFFD-B3E43B2D7B37}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7DAA0AEA-ED12-4CE4-A98A-696B1840D4F7}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{9175107F-D60E-4D50-80DB-E6C5D763E279}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{1709D0A3-AB8B-4EF5-B2EB-E0F0BEF940E8}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{FF6C38DB-1DDD-438D-84B9-C57D3ADF1B67}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C80BAB7D-438D-487B-AF59-65A14721A336}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BCC88433-D805-4EB3-B7B6-577A713EBEDE}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A52027F4-C477-46E2-AF55-CA3E4EC3016C}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4904F6E6-2552-406D-ADB1-12F943021A73}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D6F067A6-AF10-44CD-9A7F-6FF125A48512}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2197,10 +2273,10 @@
   <sheetPr/>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C57" sqref="C57"/>
+      <selection pane="topRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2746,7 +2822,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>59</v>
@@ -3579,7 +3655,9 @@
         <v>31</v>
       </c>
       <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
@@ -3597,10 +3675,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -3625,8 +3703,12 @@
         <v>31</v>
       </c>
       <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
+      <c r="M27" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N27" s="10" t="s">
+        <v>139</v>
+      </c>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
@@ -3643,10 +3725,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -3671,7 +3753,9 @@
         <v>31</v>
       </c>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
@@ -3689,10 +3773,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -3717,7 +3801,9 @@
         <v>31</v>
       </c>
       <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
+      <c r="M29" s="7" t="s">
+        <v>135</v>
+      </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
       <c r="P29" s="10"/>
@@ -3735,10 +3821,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
@@ -3747,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -3756,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="J30" s="7">
         <v>5</v>
@@ -3765,9 +3851,15 @@
         <v>31</v>
       </c>
       <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="M30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>151</v>
+      </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -3783,19 +3875,19 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
       </c>
       <c r="E31" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
@@ -3804,7 +3896,7 @@
         <v>29</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
@@ -3813,7 +3905,9 @@
         <v>31</v>
       </c>
       <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
+      <c r="M31" s="10" t="s">
+        <v>156</v>
+      </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
       <c r="P31" s="10"/>
@@ -3831,10 +3925,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -3842,8 +3936,8 @@
       <c r="E32" s="7">
         <v>0</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>134</v>
+      <c r="F32" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="G32" s="7">
         <v>3</v>
@@ -3861,7 +3955,9 @@
         <v>31</v>
       </c>
       <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
+      <c r="M32" s="7" t="s">
+        <v>159</v>
+      </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
@@ -3879,19 +3975,19 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
       </c>
       <c r="E33" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
@@ -3900,7 +3996,7 @@
         <v>29</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
@@ -3909,7 +4005,9 @@
         <v>31</v>
       </c>
       <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
+      <c r="M33" s="10" t="s">
+        <v>164</v>
+      </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
       <c r="P33" s="10"/>
@@ -3927,10 +4025,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -3938,8 +4036,8 @@
       <c r="E34" s="7">
         <v>0</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>134</v>
+      <c r="F34" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
@@ -3957,9 +4055,15 @@
         <v>31</v>
       </c>
       <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
+      <c r="M34" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>169</v>
+      </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3975,10 +4079,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
@@ -3987,7 +4091,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
@@ -3996,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="J35" s="10">
         <v>5</v>
@@ -4005,9 +4109,15 @@
         <v>31</v>
       </c>
       <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="M35" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>176</v>
+      </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
@@ -4023,19 +4133,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
       </c>
       <c r="E36" s="7">
-        <v>0</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>179</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
@@ -4044,7 +4154,7 @@
         <v>34</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
@@ -4071,10 +4181,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -4083,7 +4193,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G37" s="10">
         <v>3</v>
@@ -4101,7 +4211,9 @@
         <v>31</v>
       </c>
       <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
+      <c r="M37" s="10" t="s">
+        <v>183</v>
+      </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
@@ -4119,19 +4231,19 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>164</v>
+        <v>185</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
       </c>
       <c r="E38" s="7">
-        <v>0</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>134</v>
+        <v>1</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -4140,7 +4252,7 @@
         <v>34</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
@@ -4149,8 +4261,12 @@
         <v>31</v>
       </c>
       <c r="L38" s="7"/>
-      <c r="M38" s="7"/>
-      <c r="N38" s="7"/>
+      <c r="M38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="N38" s="7" t="s">
+        <v>189</v>
+      </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
@@ -4167,10 +4283,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -4179,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>134</v>
+        <v>186</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
@@ -4197,7 +4313,9 @@
         <v>31</v>
       </c>
       <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
+      <c r="M39" s="10" t="s">
+        <v>192</v>
+      </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
       <c r="P39" s="10"/>
@@ -4215,10 +4333,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -4261,10 +4379,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="D41" s="10">
         <v>3</v>
@@ -4280,7 +4398,7 @@
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="J41" s="10">
         <v>5</v>
@@ -4307,10 +4425,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4353,10 +4471,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D43" s="10">
         <v>3</v>
@@ -4399,10 +4517,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -4445,10 +4563,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -4491,10 +4609,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D46" s="7">
         <v>4</v>
@@ -4512,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4539,10 +4657,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4560,7 +4678,7 @@
         <v>45</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
@@ -4587,10 +4705,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4635,10 +4753,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4656,7 +4774,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
@@ -4683,10 +4801,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -4704,7 +4822,7 @@
         <v>48</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
@@ -4731,10 +4849,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -4779,10 +4897,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -4825,10 +4943,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -4871,10 +4989,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -4917,10 +5035,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -4938,7 +5056,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
@@ -4965,10 +5083,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -5013,10 +5131,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -5061,10 +5179,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -5109,6 +5227,18 @@
   <autoFilter ref="D1:D59">
     <extLst/>
   </autoFilter>
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="254">
   <si>
     <t>下标</t>
   </si>
@@ -116,7 +116,7 @@
     <t>单体射击</t>
   </si>
   <si>
-    <t>基础技能：单体射击：攻击1名敌人，造成攻击力%base_value%的伤害，并回复%give_mana%点蓝量。</t>
+    <t>基础技能：单体射击：攻击1名敌人，造成攻击力%base_value%%%的伤害，并回复%give_mana%点蓝量。</t>
   </si>
   <si>
     <t>drow_1</t>
@@ -658,45 +658,78 @@
     <t>能量恢复</t>
   </si>
   <si>
-    <t>立即回复60点蓝量。cd：50/40/30秒,无蓝量消耗。</t>
+    <t>立即回复%recover_mana%点蓝量。冷却:%ability_cd%秒</t>
+  </si>
+  <si>
+    <t>drow_4a</t>
   </si>
   <si>
     <t>46|0</t>
   </si>
   <si>
+    <t>recover_mana 60</t>
+  </si>
+  <si>
+    <t>ability_cd 50 40 30</t>
+  </si>
+  <si>
     <t>源源不断</t>
   </si>
   <si>
-    <t>使用技能《能量恢复》 时，不再是瞬间恢复，而是在15秒内逐渐回复75/90点蓝量。</t>
+    <t>使用技能《能量恢复》 时，不再是瞬间恢复，而是在%duration%秒内逐渐回复%recover_mana%点蓝量。</t>
   </si>
   <si>
     <t>47|0</t>
   </si>
   <si>
+    <t>recover_mana 75 90</t>
+  </si>
+  <si>
+    <t>duration 15</t>
+  </si>
+  <si>
     <t>兼收</t>
   </si>
   <si>
-    <t>使用技能《能量恢复》 时，立即回复15%/30%最大生命值。</t>
+    <t>使用技能《能量恢复》 时，立即回复%recover_hp_pct%%%最大生命值。</t>
+  </si>
+  <si>
+    <t>recover_hp_pct 15 30</t>
   </si>
   <si>
     <t>迷踪步</t>
   </si>
   <si>
-    <t>获得10%/20%/30%移动速度加成，持续6秒。cd：15秒,蓝耗：30</t>
+    <t>获得%move_pct%%%移动速度加成，持续%duration%秒。cd：15秒,蓝耗：30</t>
+  </si>
+  <si>
+    <t>drow_4b</t>
   </si>
   <si>
     <t>49|0</t>
   </si>
   <si>
+    <t>move_pct 10 20 30</t>
+  </si>
+  <si>
+    <t>duration 6</t>
+  </si>
+  <si>
+    <t>ability_cd 15</t>
+  </si>
+  <si>
     <t>娴熟</t>
   </si>
   <si>
-    <t>迷踪步的cd缩减至12秒/9秒。</t>
+    <t>迷踪步的cd缩减%ability_cd_reduce%秒。</t>
   </si>
   <si>
     <t>50|0</t>
   </si>
   <si>
+    <t>ability_cd_reduce 3 6</t>
+  </si>
+  <si>
     <t>相位</t>
   </si>
   <si>
@@ -727,27 +760,45 @@
     <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
   </si>
   <si>
+    <t>drow_5</t>
+  </si>
+  <si>
     <t>55|56|57</t>
   </si>
   <si>
+    <t>dmg_bonus_pct 40</t>
+  </si>
+  <si>
     <t>寒霜</t>
   </si>
   <si>
-    <t>复仇获得冰元素之力，持续期间冰元素伤害提高50%，
+    <t>复仇获得冰元素之力，持续期间冰元素伤害提高%bonus_value%%%，
 且免疫自身减速效果。</t>
   </si>
   <si>
+    <t>bonus_value 50</t>
+  </si>
+  <si>
     <t>追风</t>
   </si>
   <si>
-    <t>复仇获得风元素之力，攻击力提高50%，攻击速度及移动速度提高20%。</t>
+    <t>复仇获得风元素之力，攻击力提高%ad_bonus_pct%%%，攻击速度及移动速度提高%as_bonus_pct%%%。</t>
+  </si>
+  <si>
+    <t>ad_bonus_pct 50</t>
+  </si>
+  <si>
+    <t>as_bonus_pct 20</t>
   </si>
   <si>
     <t>热烈</t>
   </si>
   <si>
-    <t>复仇获得火元素之力，持续期间火元素伤害提高50%，
-且所有技能蓝量消耗降低50%。</t>
+    <t>复仇获得火元素之力，持续期间火元素伤害提高%bonus_value%%%，
+且所有技能蓝量消耗降低%mana_pct%%%。</t>
+  </si>
+  <si>
+    <t>mana_pct 50</t>
   </si>
 </sst>
 </file>
@@ -1941,31 +1992,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{7DAA0AEA-ED12-4CE4-A98A-696B1840D4F7}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{9DD1C487-F274-4DD3-B3A0-95E7A390B0E7}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{1709D0A3-AB8B-4EF5-B2EB-E0F0BEF940E8}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{3A55BBA6-D197-4410-88A0-29B93DD134BE}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{C80BAB7D-438D-487B-AF59-65A14721A336}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{0A338E79-1E76-4311-B870-9F53BA47664C}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A52027F4-C477-46E2-AF55-CA3E4EC3016C}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3908BBD6-9A4A-4233-8F3E-9CC43C22C153}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{D6F067A6-AF10-44CD-9A7F-6FF125A48512}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4439A6E5-AA59-4C34-A8D7-4A2EB2ACFC37}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2273,10 +2324,10 @@
   <sheetPr/>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
       <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C24" sqref="C24"/>
+      <selection pane="topRight" activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4621,7 +4672,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -4630,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
@@ -4639,8 +4690,12 @@
         <v>31</v>
       </c>
       <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
+      <c r="M46" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="N46" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
@@ -4657,10 +4712,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4668,8 +4723,8 @@
       <c r="E47" s="10">
         <v>0</v>
       </c>
-      <c r="F47" s="10" t="s">
-        <v>134</v>
+      <c r="F47" s="7" t="s">
+        <v>208</v>
       </c>
       <c r="G47" s="10">
         <v>2</v>
@@ -4678,7 +4733,7 @@
         <v>45</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
@@ -4687,8 +4742,12 @@
         <v>31</v>
       </c>
       <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
+      <c r="M47" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10"/>
@@ -4705,10 +4764,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4717,7 +4776,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>134</v>
+        <v>208</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
@@ -4735,7 +4794,9 @@
         <v>31</v>
       </c>
       <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
+      <c r="M48" s="7" t="s">
+        <v>219</v>
+      </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
       <c r="P48" s="7"/>
@@ -4753,10 +4814,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4765,7 +4826,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
@@ -4774,7 +4835,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
@@ -4783,9 +4844,15 @@
         <v>31</v>
       </c>
       <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="10"/>
+      <c r="M49" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N49" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>226</v>
+      </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
@@ -4801,10 +4868,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -4812,8 +4879,8 @@
       <c r="E50" s="7">
         <v>0</v>
       </c>
-      <c r="F50" s="7" t="s">
-        <v>134</v>
+      <c r="F50" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
@@ -4822,7 +4889,7 @@
         <v>48</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
@@ -4831,7 +4898,9 @@
         <v>31</v>
       </c>
       <c r="L50" s="7"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="7" t="s">
+        <v>230</v>
+      </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
       <c r="P50" s="7"/>
@@ -4849,10 +4918,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -4861,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>134</v>
+        <v>222</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
@@ -4897,10 +4966,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -4943,10 +5012,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -4989,10 +5058,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -5035,10 +5104,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -5047,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -5056,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
@@ -5065,8 +5134,12 @@
         <v>31</v>
       </c>
       <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
+      <c r="M55" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="N55" s="10" t="s">
+        <v>216</v>
+      </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10"/>
@@ -5083,10 +5156,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -5113,7 +5186,9 @@
         <v>31</v>
       </c>
       <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
+      <c r="M56" s="7" t="s">
+        <v>246</v>
+      </c>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
       <c r="P56" s="7"/>
@@ -5131,10 +5206,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -5161,8 +5236,12 @@
         <v>31</v>
       </c>
       <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
+      <c r="M57" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="N57" s="10" t="s">
+        <v>250</v>
+      </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10"/>
@@ -5174,15 +5253,15 @@
       <c r="W57" s="10"/>
       <c r="X57" s="16"/>
     </row>
-    <row r="58" customFormat="1" ht="39" customHeight="1" spans="1:24">
+    <row r="58" customFormat="1" ht="50.25" spans="1:24">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -5209,8 +5288,12 @@
         <v>31</v>
       </c>
       <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="12"/>
+      <c r="M58" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="N58" s="12" t="s">
+        <v>253</v>
+      </c>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>
       <c r="Q58" s="12"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="295">
   <si>
     <t>下标</t>
   </si>
@@ -125,7 +125,7 @@
     <t>2|5|8</t>
   </si>
   <si>
-    <t>abaddon_borrowed_time</t>
+    <t>hero/drow/单体射击</t>
   </si>
   <si>
     <t>base_value 100</t>
@@ -146,6 +146,9 @@
     <t>3|4</t>
   </si>
   <si>
+    <t>hero/drow/爆炸箭</t>
+  </si>
+  <si>
     <t>aoe_radius 300</t>
   </si>
   <si>
@@ -161,6 +164,9 @@
     <t>0|0</t>
   </si>
   <si>
+    <t>hero/drow/浓缩</t>
+  </si>
+  <si>
     <t>mul_chance 10</t>
   </si>
   <si>
@@ -173,6 +179,9 @@
     <t>爆炸箭范围提高%aoe_radius%码，灼烧伤害提高%burn_dmg%%%。</t>
   </si>
   <si>
+    <t>hero/drow/炸裂</t>
+  </si>
+  <si>
     <t>aoe_radius 150</t>
   </si>
   <si>
@@ -191,6 +200,9 @@
     <t>6|0</t>
   </si>
   <si>
+    <t>hero/drow/穿透箭</t>
+  </si>
+  <si>
     <t>bonus_value 30 50 90</t>
   </si>
   <si>
@@ -200,6 +212,9 @@
     <t>穿透箭攻击时有%lianshe_chance%%%概率再射出一只箭。</t>
   </si>
   <si>
+    <t>hero/drow/连射</t>
+  </si>
+  <si>
     <t>lianshe_chance 50 100</t>
   </si>
   <si>
@@ -215,6 +230,9 @@
     <t>9|10</t>
   </si>
   <si>
+    <t>hero/drow/分裂箭2</t>
+  </si>
+  <si>
     <t>targes 2 3 5</t>
   </si>
   <si>
@@ -224,6 +242,9 @@
     <t>伤害提高%bonus_value%%%，技能赋予冰元素效果，伤害变为冰元素伤害。</t>
   </si>
   <si>
+    <t>drow_ranger/dragons_touch_ability_icons/drow_ranger_frost_arrows</t>
+  </si>
+  <si>
     <t>bonus_value 150 300</t>
   </si>
   <si>
@@ -233,6 +254,9 @@
     <t>分裂箭命中时会额外回复%add_mana%点蓝量。</t>
   </si>
   <si>
+    <t>hero/drow/积蓄</t>
+  </si>
+  <si>
     <t>add_mana 2 4</t>
   </si>
   <si>
@@ -248,6 +272,9 @@
     <t>12|15</t>
   </si>
   <si>
+    <t>hero/drow/连续射击</t>
+  </si>
+  <si>
     <t>base_value 130 160 190 225 260</t>
   </si>
   <si>
@@ -266,6 +293,9 @@
     <t>13|0</t>
   </si>
   <si>
+    <t>hero/drow/连发</t>
+  </si>
+  <si>
     <t>bonus_value 2 4 6</t>
   </si>
   <si>
@@ -278,6 +308,9 @@
     <t>14|0</t>
   </si>
   <si>
+    <t>hero/drow/击破</t>
+  </si>
+  <si>
     <t>max_stack 10</t>
   </si>
   <si>
@@ -293,6 +326,9 @@
     <t>技能赋予风元素效果，伤害变为风元素伤害。（风元素伤害增加15%。2级才显示）</t>
   </si>
   <si>
+    <t>hero/drow/风箭</t>
+  </si>
+  <si>
     <t>穿透</t>
   </si>
   <si>
@@ -305,6 +341,9 @@
     <t>16|0</t>
   </si>
   <si>
+    <t>hero/drow/穿透</t>
+  </si>
+  <si>
     <t>bonus_value 20 40 60</t>
   </si>
   <si>
@@ -317,6 +356,9 @@
     <t>17|0</t>
   </si>
   <si>
+    <t>hero/drow/刺骨</t>
+  </si>
+  <si>
     <t>cigu_value 1</t>
   </si>
   <si>
@@ -326,6 +368,9 @@
     <t>连续射击命中被减速的敌人时，有12%概率发生冰爆，对范围300码敌人造成攻击力160%/200%/250%冰元素伤害。</t>
   </si>
   <si>
+    <t>hero/drow/冰爆</t>
+  </si>
+  <si>
     <t>base_value 160 200 250</t>
   </si>
   <si>
@@ -347,6 +392,9 @@
     <t>19|22</t>
   </si>
   <si>
+    <t>hero/drow/散射</t>
+  </si>
+  <si>
     <t>base_value 120 140 160 190 240</t>
   </si>
   <si>
@@ -365,6 +413,9 @@
     <t>20|0</t>
   </si>
   <si>
+    <t>hero/drow/火力覆盖</t>
+  </si>
+  <si>
     <t>bonus_value 60 90 120</t>
   </si>
   <si>
@@ -377,6 +428,9 @@
     <t>21|0</t>
   </si>
   <si>
+    <t>hero/drow/节俭</t>
+  </si>
+  <si>
     <t>mana_cost 5 10</t>
   </si>
   <si>
@@ -386,6 +440,9 @@
     <t>对生命值高于%hp_heighest%的单位造成伤害提升%bonus_value%%%</t>
   </si>
   <si>
+    <t>hero/drow/压制</t>
+  </si>
+  <si>
     <t>bonus_value 30 60 100</t>
   </si>
   <si>
@@ -402,6 +459,9 @@
   </si>
   <si>
     <t>23|0</t>
+  </si>
+  <si>
+    <t>hero/drow/双喷</t>
   </si>
   <si>
     <t>chance 25 30 40</t>
@@ -417,6 +477,9 @@
     <t>24|0</t>
   </si>
   <si>
+    <t>hero/drow/重创</t>
+  </si>
+  <si>
     <t>bonus_value 100 200</t>
   </si>
   <si>
@@ -429,6 +492,9 @@
     <t>散射对被降低移速的敌人造成的伤害提高%bonus_value%%%。</t>
   </si>
   <si>
+    <t>hero/drow/痛击</t>
+  </si>
+  <si>
     <t>备战</t>
   </si>
   <si>
@@ -438,6 +504,9 @@
     <t>null</t>
   </si>
   <si>
+    <t>abaddon_borrowed_time</t>
+  </si>
+  <si>
     <t>base_value 4 8 12 16 20</t>
   </si>
   <si>
@@ -480,6 +549,9 @@
     <t>30|32</t>
   </si>
   <si>
+    <t>hero/drow/风暴环绕</t>
+  </si>
+  <si>
     <t>base_value 200 250 300 350 400</t>
   </si>
   <si>
@@ -501,6 +573,9 @@
     <t>31|0</t>
   </si>
   <si>
+    <t>hero/drow/疾风</t>
+  </si>
+  <si>
     <t>interval_increase 50 100</t>
   </si>
   <si>
@@ -508,6 +583,9 @@
   </si>
   <si>
     <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。（2级触发风元素伤害增加15%）</t>
+  </si>
+  <si>
+    <t>hero/drow/退散</t>
   </si>
   <si>
     <t>wind_element 0 15</t>
@@ -524,6 +602,9 @@
   </si>
   <si>
     <t>33|0</t>
+  </si>
+  <si>
+    <t>hero/drow/冰雹</t>
   </si>
   <si>
     <t>bonus_count 1 2</t>
@@ -558,6 +639,9 @@
     <t>35|37</t>
   </si>
   <si>
+    <t>hero/drow/箭雨</t>
+  </si>
+  <si>
     <t>arrow_count 10 12 14 17 20</t>
   </si>
   <si>
@@ -580,6 +664,9 @@
     <t>36|0</t>
   </si>
   <si>
+    <t>hero/drow/燃矢</t>
+  </si>
+  <si>
     <t>焚身</t>
   </si>
   <si>
@@ -601,6 +688,9 @@
     <t>38|0</t>
   </si>
   <si>
+    <t>hero/drow/集火</t>
+  </si>
+  <si>
     <t>bonus_dmg 10</t>
   </si>
   <si>
@@ -613,6 +703,9 @@
     <t>箭雨技能赋予冰元素效果，伤害变为冰元素伤害。额外增加%bonus_arrow%支箭。</t>
   </si>
   <si>
+    <t>hero/drow/急冻</t>
+  </si>
+  <si>
     <t>bonus_arrow 4 8</t>
   </si>
   <si>
@@ -667,6 +760,9 @@
     <t>46|0</t>
   </si>
   <si>
+    <t>hero/drow/能量回复</t>
+  </si>
+  <si>
     <t>recover_mana 60</t>
   </si>
   <si>
@@ -682,6 +778,9 @@
     <t>47|0</t>
   </si>
   <si>
+    <t>hero/drow/源源不断</t>
+  </si>
+  <si>
     <t>recover_mana 75 90</t>
   </si>
   <si>
@@ -694,6 +793,9 @@
     <t>使用技能《能量恢复》 时，立即回复%recover_hp_pct%%%最大生命值。</t>
   </si>
   <si>
+    <t>hero/drow/兼收</t>
+  </si>
+  <si>
     <t>recover_hp_pct 15 30</t>
   </si>
   <si>
@@ -709,6 +811,9 @@
     <t>49|0</t>
   </si>
   <si>
+    <t>hero/drow/迷踪步</t>
+  </si>
+  <si>
     <t>move_pct 10 20 30</t>
   </si>
   <si>
@@ -727,6 +832,9 @@
     <t>50|0</t>
   </si>
   <si>
+    <t>hero/drow/娴熟</t>
+  </si>
+  <si>
     <t>ability_cd_reduce 3 6</t>
   </si>
   <si>
@@ -736,6 +844,9 @@
     <t>迷踪步获得相位效果，可以穿越单位。</t>
   </si>
   <si>
+    <t>hero/drow/相位</t>
+  </si>
+  <si>
     <t>尖锐</t>
   </si>
   <si>
@@ -764,6 +875,9 @@
   </si>
   <si>
     <t>55|56|57</t>
+  </si>
+  <si>
+    <t>hero/drow/复仇</t>
   </si>
   <si>
     <t>dmg_bonus_pct 40</t>
@@ -776,6 +890,9 @@
 且免疫自身减速效果。</t>
   </si>
   <si>
+    <t>hero/drow/寒霜</t>
+  </si>
+  <si>
     <t>bonus_value 50</t>
   </si>
   <si>
@@ -783,6 +900,9 @@
   </si>
   <si>
     <t>复仇获得风元素之力，攻击力提高%ad_bonus_pct%%%，攻击速度及移动速度提高%as_bonus_pct%%%。</t>
+  </si>
+  <si>
+    <t>hero/drow/追风</t>
   </si>
   <si>
     <t>ad_bonus_pct 50</t>
@@ -796,6 +916,9 @@
   <si>
     <t>复仇获得火元素之力，持续期间火元素伤害提高%bonus_value%%%，
 且所有技能蓝量消耗降低%mana_pct%%%。</t>
+  </si>
+  <si>
+    <t>hero/drow/热烈</t>
   </si>
   <si>
     <t>mana_pct 50</t>
@@ -1992,31 +2115,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{9DD1C487-F274-4DD3-B3A0-95E7A390B0E7}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{32C61C67-5DE5-4BD9-B60C-8E3630B08256}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{3A55BBA6-D197-4410-88A0-29B93DD134BE}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DA178D91-8DEF-420D-91FD-AE68F6B7372B}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{0A338E79-1E76-4311-B870-9F53BA47664C}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{514F6020-CE6E-4B1A-B57D-137C2A5A1536}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{3908BBD6-9A4A-4233-8F3E-9CC43C22C153}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7299E56F-90F4-412F-B265-CB3BB067F1A4}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{4439A6E5-AA59-4C34-A8D7-4A2EB2ACFC37}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EE7A43A0-07B4-4ED6-B9E5-F6DB007E2370}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2324,10 +2447,10 @@
   <sheetPr/>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C57" sqref="C57"/>
+      <selection pane="topRight" activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2584,15 +2707,15 @@
       <c r="J4" s="7">
         <v>3</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>31</v>
+      <c r="K4" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="L4" s="7"/>
       <c r="M4" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O4" s="7"/>
       <c r="P4" s="7"/>
@@ -2610,10 +2733,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10">
         <v>1</v>
@@ -2631,20 +2754,20 @@
         <v>2</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J5" s="10">
         <v>2</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L5" s="10"/>
       <c r="M5" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -2662,10 +2785,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7">
         <v>1</v>
@@ -2683,20 +2806,20 @@
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J6" s="7">
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="O6" s="7"/>
       <c r="P6" s="7"/>
@@ -2714,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D7" s="10">
         <v>1</v>
@@ -2726,7 +2849,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G7" s="10">
         <v>2</v>
@@ -2735,17 +2858,17 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="J7" s="10">
         <v>3</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="L7" s="10"/>
       <c r="M7" s="10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N7" s="10"/>
       <c r="O7" s="10"/>
@@ -2764,10 +2887,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
@@ -2776,7 +2899,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G8" s="7">
         <v>3</v>
@@ -2785,17 +2908,17 @@
         <v>5</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J8" s="7">
         <v>2</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="L8" s="7"/>
       <c r="M8" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -2814,10 +2937,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D9" s="10">
         <v>1</v>
@@ -2826,7 +2949,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G9" s="10">
         <v>2</v>
@@ -2835,17 +2958,17 @@
         <v>1</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="J9" s="10">
         <v>3</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="L9" s="10"/>
       <c r="M9" s="10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="N9" s="10"/>
       <c r="O9" s="10"/>
@@ -2864,10 +2987,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D10" s="7">
         <v>1</v>
@@ -2876,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G10" s="7">
         <v>3</v>
@@ -2885,17 +3008,17 @@
         <v>8</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J10" s="7">
         <v>2</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -2914,10 +3037,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D11" s="10">
         <v>1</v>
@@ -2926,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G11" s="10">
         <v>3</v>
@@ -2935,17 +3058,17 @@
         <v>8</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J11" s="10">
         <v>2</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="L11" s="10"/>
       <c r="M11" s="10" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="N11" s="10"/>
       <c r="O11" s="10"/>
@@ -2964,10 +3087,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D12" s="7">
         <v>2</v>
@@ -2976,7 +3099,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7">
         <v>1</v>
@@ -2985,20 +3108,20 @@
         <v>0</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>31</v>
+      <c r="K12" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="N12" s="7" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
@@ -3016,10 +3139,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="D13" s="10">
         <v>2</v>
@@ -3028,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G13" s="10">
         <v>2</v>
@@ -3037,17 +3160,17 @@
         <v>11</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="J13" s="10">
         <v>3</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10"/>
@@ -3066,10 +3189,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -3078,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7">
         <v>3</v>
@@ -3087,23 +3210,23 @@
         <v>12</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J14" s="7">
         <v>3</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="N14" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -3120,10 +3243,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="D15" s="10">
         <v>2</v>
@@ -3132,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G15" s="10">
         <v>4</v>
@@ -3141,13 +3264,13 @@
         <v>13</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J15" s="10">
         <v>2</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -3168,10 +3291,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D16" s="7">
         <v>2</v>
@@ -3180,7 +3303,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G16" s="7">
         <v>2</v>
@@ -3189,17 +3312,17 @@
         <v>11</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="J16" s="7">
         <v>3</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7"/>
       <c r="M16" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -3218,10 +3341,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="D17" s="10">
         <v>2</v>
@@ -3230,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G17" s="10">
         <v>3</v>
@@ -3239,17 +3362,17 @@
         <v>15</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>31</v>
+        <v>108</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10"/>
@@ -3268,10 +3391,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="D18" s="7">
         <v>2</v>
@@ -3280,7 +3403,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="G18" s="7">
         <v>4</v>
@@ -3289,23 +3412,23 @@
         <v>16</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J18" s="7">
         <v>3</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>31</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7"/>
       <c r="M18" s="2" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
@@ -3322,10 +3445,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="D19" s="10">
         <v>2</v>
@@ -3334,7 +3457,7 @@
         <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="G19" s="10">
         <v>1</v>
@@ -3343,20 +3466,20 @@
         <v>0</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="J19" s="10">
         <v>5</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>31</v>
+        <v>120</v>
       </c>
       <c r="L19" s="10"/>
       <c r="M19" s="10" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
@@ -3374,10 +3497,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="D20" s="7">
         <v>2</v>
@@ -3386,7 +3509,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G20" s="7">
         <v>2</v>
@@ -3395,17 +3518,17 @@
         <v>18</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="J20" s="7">
         <v>3</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>31</v>
+      <c r="K20" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="L20" s="7"/>
       <c r="M20" s="7" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -3424,10 +3547,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="D21" s="10">
         <v>2</v>
@@ -3436,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G21" s="10">
         <v>3</v>
@@ -3445,17 +3568,17 @@
         <v>19</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="L21" s="10"/>
       <c r="M21" s="10" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="N21" s="10"/>
       <c r="O21" s="10"/>
@@ -3474,10 +3597,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="D22" s="7">
         <v>2</v>
@@ -3486,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="G22" s="7">
         <v>4</v>
@@ -3495,20 +3618,20 @@
         <v>20</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J22" s="7">
         <v>3</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
@@ -3526,10 +3649,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="D23" s="10">
         <v>2</v>
@@ -3538,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G23" s="10">
         <v>2</v>
@@ -3547,17 +3670,17 @@
         <v>18</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="J23" s="10">
         <v>3</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="L23" s="10"/>
       <c r="M23" s="10" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
@@ -3576,10 +3699,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="D24" s="7">
         <v>2</v>
@@ -3588,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G24" s="7">
         <v>3</v>
@@ -3597,20 +3720,20 @@
         <v>22</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="J24" s="7">
         <v>2</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7"/>
       <c r="M24" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
@@ -3628,10 +3751,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="D25" s="10">
         <v>2</v>
@@ -3640,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="G25" s="10">
         <v>4</v>
@@ -3649,17 +3772,17 @@
         <v>23</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J25" s="10">
         <v>3</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>31</v>
+        <v>153</v>
       </c>
       <c r="L25" s="10"/>
       <c r="M25" s="10" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10"/>
@@ -3678,10 +3801,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="D26" s="7">
         <v>2</v>
@@ -3690,24 +3813,24 @@
         <v>0</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7">
         <v>99</v>
       </c>
       <c r="H26" s="7"/>
       <c r="I26" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J26" s="7">
         <v>5</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7"/>
       <c r="M26" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
@@ -3726,10 +3849,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D27" s="10">
         <v>2</v>
@@ -3738,27 +3861,27 @@
         <v>0</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G27" s="10">
         <v>99</v>
       </c>
       <c r="H27" s="10"/>
       <c r="I27" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J27" s="10">
         <v>5</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L27" s="10"/>
       <c r="M27" s="7" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
@@ -3776,10 +3899,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="D28" s="7">
         <v>2</v>
@@ -3788,24 +3911,24 @@
         <v>0</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G28" s="7">
         <v>99</v>
       </c>
       <c r="H28" s="7"/>
       <c r="I28" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J28" s="7">
         <v>5</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7"/>
       <c r="M28" s="7" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
@@ -3824,10 +3947,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="D29" s="10">
         <v>2</v>
@@ -3836,24 +3959,24 @@
         <v>0</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G29" s="10">
         <v>99</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J29" s="10">
         <v>5</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L29" s="10"/>
       <c r="M29" s="7" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="N29" s="10"/>
       <c r="O29" s="10"/>
@@ -3872,10 +3995,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="D30" s="7">
         <v>3</v>
@@ -3884,7 +4007,7 @@
         <v>1</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="G30" s="7">
         <v>1</v>
@@ -3893,23 +4016,23 @@
         <v>0</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="J30" s="7">
         <v>5</v>
       </c>
-      <c r="K30" s="7" t="s">
-        <v>31</v>
+      <c r="K30" s="10" t="s">
+        <v>172</v>
       </c>
       <c r="L30" s="7"/>
       <c r="M30" s="7" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="N30" s="7" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
@@ -3926,10 +4049,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="D31" s="10">
         <v>3</v>
@@ -3938,7 +4061,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G31" s="10">
         <v>2</v>
@@ -3947,17 +4070,17 @@
         <v>29</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>31</v>
+        <v>180</v>
       </c>
       <c r="L31" s="10"/>
       <c r="M31" s="10" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="N31" s="10"/>
       <c r="O31" s="10"/>
@@ -3976,10 +4099,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D32" s="7">
         <v>3</v>
@@ -3988,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G32" s="7">
         <v>3</v>
@@ -3997,17 +4120,17 @@
         <v>30</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J32" s="7">
         <v>2</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="L32" s="7"/>
       <c r="M32" s="7" t="s">
-        <v>159</v>
+        <v>185</v>
       </c>
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
@@ -4026,10 +4149,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>161</v>
+        <v>187</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
@@ -4038,7 +4161,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
@@ -4047,17 +4170,17 @@
         <v>29</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>163</v>
+        <v>189</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -4076,10 +4199,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -4088,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
@@ -4097,23 +4220,23 @@
         <v>32</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J34" s="7">
         <v>3</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -4130,10 +4253,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
@@ -4142,7 +4265,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>172</v>
+        <v>199</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
@@ -4151,23 +4274,23 @@
         <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="J35" s="10">
         <v>5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
@@ -4184,10 +4307,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>177</v>
+        <v>205</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
@@ -4196,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
@@ -4205,13 +4328,13 @@
         <v>34</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
       </c>
-      <c r="K36" s="7" t="s">
-        <v>31</v>
+      <c r="K36" s="10" t="s">
+        <v>209</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -4232,10 +4355,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>181</v>
+        <v>210</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>182</v>
+        <v>211</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -4244,7 +4367,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="G37" s="10">
         <v>3</v>
@@ -4253,17 +4376,17 @@
         <v>35</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J37" s="10">
         <v>2</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -4282,10 +4405,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>184</v>
+        <v>213</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>185</v>
+        <v>214</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -4294,7 +4417,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -4303,20 +4426,20 @@
         <v>34</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>187</v>
+        <v>216</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
       </c>
-      <c r="K38" s="7" t="s">
-        <v>31</v>
+      <c r="K38" s="10" t="s">
+        <v>217</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4334,10 +4457,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -4346,7 +4469,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
@@ -4355,17 +4478,17 @@
         <v>37</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J39" s="10">
         <v>2</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10" t="s">
-        <v>192</v>
+        <v>223</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -4384,10 +4507,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -4396,20 +4519,20 @@
         <v>0</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G40" s="7">
         <v>99</v>
       </c>
       <c r="H40" s="7"/>
       <c r="I40" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J40" s="7">
         <v>3</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L40" s="7"/>
       <c r="M40" s="7"/>
@@ -4430,10 +4553,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>196</v>
+        <v>227</v>
       </c>
       <c r="D41" s="10">
         <v>3</v>
@@ -4442,20 +4565,20 @@
         <v>0</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G41" s="10">
         <v>99</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="J41" s="10">
         <v>5</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L41" s="10"/>
       <c r="M41" s="10"/>
@@ -4476,10 +4599,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>198</v>
+        <v>229</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>199</v>
+        <v>230</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4488,20 +4611,20 @@
         <v>0</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G42" s="7">
         <v>99</v>
       </c>
       <c r="H42" s="7"/>
       <c r="I42" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J42" s="7">
         <v>3</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
@@ -4522,10 +4645,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>200</v>
+        <v>231</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="D43" s="10">
         <v>3</v>
@@ -4534,20 +4657,20 @@
         <v>0</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G43" s="10">
         <v>99</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J43" s="10">
         <v>5</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L43" s="10"/>
       <c r="M43" s="10"/>
@@ -4568,10 +4691,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>202</v>
+        <v>233</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -4580,20 +4703,20 @@
         <v>0</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G44" s="7">
         <v>99</v>
       </c>
       <c r="H44" s="7"/>
       <c r="I44" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J44" s="7">
         <v>2</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L44" s="7"/>
       <c r="M44" s="7"/>
@@ -4614,10 +4737,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>204</v>
+        <v>235</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>205</v>
+        <v>236</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -4626,20 +4749,20 @@
         <v>0</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G45" s="10">
         <v>99</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J45" s="10">
         <v>2</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L45" s="10"/>
       <c r="M45" s="10"/>
@@ -4660,10 +4783,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>206</v>
+        <v>237</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>207</v>
+        <v>238</v>
       </c>
       <c r="D46" s="7">
         <v>4</v>
@@ -4672,7 +4795,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -4681,20 +4804,20 @@
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>31</v>
+      <c r="K46" s="10" t="s">
+        <v>241</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -4712,10 +4835,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4724,7 +4847,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G47" s="10">
         <v>2</v>
@@ -4733,20 +4856,20 @@
         <v>45</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>31</v>
+        <v>247</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -4764,10 +4887,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4776,7 +4899,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
@@ -4785,17 +4908,17 @@
         <v>46</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J48" s="7">
         <v>2</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -4814,10 +4937,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>220</v>
+        <v>254</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4826,7 +4949,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
@@ -4835,23 +4958,23 @@
         <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>31</v>
+        <v>258</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10" t="s">
-        <v>224</v>
+        <v>259</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
@@ -4868,10 +4991,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -4880,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
@@ -4889,17 +5012,17 @@
         <v>48</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>31</v>
+        <v>265</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -4918,10 +5041,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -4930,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
@@ -4939,13 +5062,13 @@
         <v>49</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J51" s="10">
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>31</v>
+        <v>269</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -4966,10 +5089,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>233</v>
+        <v>270</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -4978,20 +5101,20 @@
         <v>0</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G52" s="7">
         <v>99</v>
       </c>
       <c r="H52" s="7"/>
       <c r="I52" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J52" s="7">
         <v>3</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L52" s="7"/>
       <c r="M52" s="7"/>
@@ -5012,10 +5135,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -5024,20 +5147,20 @@
         <v>0</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G53" s="10">
         <v>99</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J53" s="10">
         <v>5</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L53" s="10"/>
       <c r="M53" s="10"/>
@@ -5058,10 +5181,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -5070,20 +5193,20 @@
         <v>0</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G54" s="7">
         <v>99</v>
       </c>
       <c r="H54" s="7"/>
       <c r="I54" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J54" s="7">
         <v>3</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>31</v>
+        <v>157</v>
       </c>
       <c r="L54" s="7"/>
       <c r="M54" s="7"/>
@@ -5104,10 +5227,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -5116,7 +5239,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -5125,20 +5248,20 @@
         <v>0</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>31</v>
+        <v>280</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10" t="s">
-        <v>243</v>
+        <v>281</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -5156,10 +5279,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>245</v>
+        <v>283</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -5168,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G56" s="7">
         <v>2</v>
@@ -5177,17 +5300,17 @@
         <v>54</v>
       </c>
       <c r="I56" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J56" s="7">
         <v>1</v>
       </c>
-      <c r="K56" s="7" t="s">
-        <v>31</v>
+      <c r="K56" s="10" t="s">
+        <v>284</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -5206,10 +5329,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>247</v>
+        <v>286</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>248</v>
+        <v>287</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -5218,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G57" s="10">
         <v>2</v>
@@ -5227,20 +5350,20 @@
         <v>54</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J57" s="10">
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>31</v>
+        <v>288</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -5258,10 +5381,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -5270,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="G58" s="12">
         <v>2</v>
@@ -5279,20 +5402,20 @@
         <v>54</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J58" s="12">
         <v>1</v>
       </c>
-      <c r="K58" s="12" t="s">
-        <v>31</v>
+      <c r="K58" s="10" t="s">
+        <v>293</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="7" t="s">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="296">
   <si>
     <t>下标</t>
   </si>
@@ -589,6 +589,9 @@
   </si>
   <si>
     <t>wind_element 0 15</t>
+  </si>
+  <si>
+    <t>cover_to_wind 1</t>
   </si>
   <si>
     <t>冰雹</t>
@@ -2115,31 +2118,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{32C61C67-5DE5-4BD9-B60C-8E3630B08256}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{B6D8FF53-DCFE-4A47-A5B4-1ADEAD382C2D}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DA178D91-8DEF-420D-91FD-AE68F6B7372B}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{521F9F0E-F836-4978-85C6-DFA750776845}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{514F6020-CE6E-4B1A-B57D-137C2A5A1536}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{EA1BF7F6-31EB-44F7-A16C-8F3F6A070C13}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{7299E56F-90F4-412F-B265-CB3BB067F1A4}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{BB4E22CD-2D52-4CAB-8DBD-FA1DDCC281DC}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{EE7A43A0-07B4-4ED6-B9E5-F6DB007E2370}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FDBB11A0-0EE6-4BF3-8D19-5E644D84580D}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2447,10 +2450,10 @@
   <sheetPr/>
   <dimension ref="A1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K54" sqref="K54"/>
+      <selection pane="topRight" activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4132,7 +4135,9 @@
       <c r="M32" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="N32" s="7"/>
+      <c r="N32" s="7" t="s">
+        <v>186</v>
+      </c>
       <c r="O32" s="7"/>
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
@@ -4149,10 +4154,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D33" s="10">
         <v>3</v>
@@ -4161,7 +4166,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G33" s="10">
         <v>2</v>
@@ -4170,17 +4175,17 @@
         <v>29</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L33" s="10"/>
       <c r="M33" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10"/>
@@ -4199,10 +4204,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D34" s="7">
         <v>3</v>
@@ -4211,7 +4216,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7">
         <v>3</v>
@@ -4230,13 +4235,13 @@
       </c>
       <c r="L34" s="7"/>
       <c r="M34" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N34" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
@@ -4253,10 +4258,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D35" s="10">
         <v>3</v>
@@ -4265,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G35" s="10">
         <v>1</v>
@@ -4274,23 +4279,23 @@
         <v>0</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J35" s="10">
         <v>5</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L35" s="10"/>
       <c r="M35" s="10" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O35" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
@@ -4307,10 +4312,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" s="7">
         <v>3</v>
@@ -4319,7 +4324,7 @@
         <v>1</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G36" s="7">
         <v>2</v>
@@ -4328,13 +4333,13 @@
         <v>34</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="J36" s="7">
         <v>2</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L36" s="7"/>
       <c r="M36" s="7"/>
@@ -4355,10 +4360,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D37" s="10">
         <v>3</v>
@@ -4367,7 +4372,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G37" s="10">
         <v>3</v>
@@ -4386,7 +4391,7 @@
       </c>
       <c r="L37" s="10"/>
       <c r="M37" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N37" s="10"/>
       <c r="O37" s="10"/>
@@ -4405,10 +4410,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D38" s="7">
         <v>3</v>
@@ -4417,7 +4422,7 @@
         <v>1</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G38" s="7">
         <v>2</v>
@@ -4426,20 +4431,20 @@
         <v>34</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J38" s="7">
         <v>3</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L38" s="7"/>
       <c r="M38" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O38" s="7"/>
       <c r="P38" s="7"/>
@@ -4457,10 +4462,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D39" s="10">
         <v>3</v>
@@ -4469,7 +4474,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G39" s="10">
         <v>3</v>
@@ -4484,11 +4489,11 @@
         <v>2</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L39" s="10"/>
       <c r="M39" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
@@ -4507,10 +4512,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D40" s="7">
         <v>3</v>
@@ -4553,10 +4558,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D41" s="10">
         <v>3</v>
@@ -4572,7 +4577,7 @@
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="10" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="J41" s="10">
         <v>5</v>
@@ -4599,10 +4604,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D42" s="7">
         <v>3</v>
@@ -4645,10 +4650,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D43" s="10">
         <v>3</v>
@@ -4691,10 +4696,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D44" s="7">
         <v>3</v>
@@ -4737,10 +4742,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D45" s="10">
         <v>3</v>
@@ -4783,10 +4788,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D46" s="7">
         <v>4</v>
@@ -4795,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G46" s="7">
         <v>1</v>
@@ -4804,20 +4809,20 @@
         <v>0</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J46" s="7">
         <v>3</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L46" s="7"/>
       <c r="M46" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O46" s="7"/>
       <c r="P46" s="7"/>
@@ -4835,10 +4840,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D47" s="10">
         <v>4</v>
@@ -4847,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G47" s="10">
         <v>2</v>
@@ -4856,20 +4861,20 @@
         <v>45</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J47" s="10">
         <v>2</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L47" s="10"/>
       <c r="M47" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
@@ -4887,10 +4892,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D48" s="7">
         <v>4</v>
@@ -4899,7 +4904,7 @@
         <v>0</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G48" s="7">
         <v>3</v>
@@ -4914,11 +4919,11 @@
         <v>2</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L48" s="7"/>
       <c r="M48" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N48" s="7"/>
       <c r="O48" s="7"/>
@@ -4937,10 +4942,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D49" s="10">
         <v>4</v>
@@ -4949,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G49" s="10">
         <v>1</v>
@@ -4958,23 +4963,23 @@
         <v>0</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J49" s="10">
         <v>3</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L49" s="10"/>
       <c r="M49" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O49" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10"/>
@@ -4991,10 +4996,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D50" s="7">
         <v>4</v>
@@ -5003,7 +5008,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G50" s="7">
         <v>2</v>
@@ -5012,17 +5017,17 @@
         <v>48</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J50" s="7">
         <v>2</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N50" s="7"/>
       <c r="O50" s="7"/>
@@ -5041,10 +5046,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" s="10">
         <v>4</v>
@@ -5053,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G51" s="10">
         <v>3</v>
@@ -5068,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L51" s="10"/>
       <c r="M51" s="10"/>
@@ -5089,10 +5094,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D52" s="7">
         <v>4</v>
@@ -5135,10 +5140,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D53" s="10">
         <v>4</v>
@@ -5181,10 +5186,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D54" s="7">
         <v>4</v>
@@ -5227,10 +5232,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D55" s="10">
         <v>5</v>
@@ -5239,7 +5244,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G55" s="10">
         <v>1</v>
@@ -5248,20 +5253,20 @@
         <v>0</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J55" s="10">
         <v>1</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L55" s="10"/>
       <c r="M55" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
@@ -5279,10 +5284,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" s="7">
         <v>5</v>
@@ -5306,11 +5311,11 @@
         <v>1</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L56" s="7"/>
       <c r="M56" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N56" s="7"/>
       <c r="O56" s="7"/>
@@ -5329,10 +5334,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D57" s="10">
         <v>5</v>
@@ -5356,14 +5361,14 @@
         <v>1</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L57" s="10"/>
       <c r="M57" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
@@ -5381,10 +5386,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -5408,14 +5413,14 @@
         <v>1</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L58" s="12"/>
       <c r="M58" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O58" s="12"/>
       <c r="P58" s="12"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="drow_ranger" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">drow_ranger!$D$1:$D$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">drow_ranger!$H$1:$H$58</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="311">
   <si>
     <t>下标</t>
   </si>
@@ -573,7 +573,10 @@
     <t>风暴环绕</t>
   </si>
   <si>
-    <t>召唤一阵风暴环绕自身，每%interval%秒对触碰到风暴的敌人造成攻击力%base_value%的伤害，持续%duration%秒。</t>
+    <t>召唤一阵风暴环绕自身，每%interval%秒对触碰到风暴的敌人造成攻击力%base_value%%%的伤害，持续%duration%秒。</t>
+  </si>
+  <si>
+    <t>Surround</t>
   </si>
   <si>
     <t>drow_3a</t>
@@ -600,6 +603,9 @@
     <t>风暴环绕伤害频率提高%interval_increase%%%</t>
   </si>
   <si>
+    <t>Buff</t>
+  </si>
+  <si>
     <t>drow_3a_a</t>
   </si>
   <si>
@@ -615,7 +621,8 @@
     <t>退散</t>
   </si>
   <si>
-    <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。（2级触发风元素伤害增加15%）</t>
+    <t>风暴环绕技能赋予风元素效果，伤害变为风元素伤害。
+（2级触发风元素伤害增加15%）</t>
   </si>
   <si>
     <t>hero/drow/退散</t>
@@ -649,9 +656,9 @@
     <t>暴雪</t>
   </si>
   <si>
-    <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的伤害为记录的实际伤害值的100%。
-记录上限为英雄攻击力3000%/4500%/6000%。
-爆炸范围：自身直径750码。</t>
+    <t>使用风暴环绕技能之后，会记录造成的实际伤害值，并在风暴持续结束时释放一阵暴雪，暴雪的伤害为记录的实际伤害值的%record_pct%%%。
+记录上限为英雄攻击力%limit_pct%%%。
+爆炸范围：自身直径%radius%码。</t>
   </si>
   <si>
     <t>record_pct 100</t>
@@ -690,8 +697,37 @@
     <t>燃矢</t>
   </si>
   <si>
-    <t>箭雨技能赋予火元素效果，伤害变为火元素伤害。
-（2级触发灼烧伤害持续时间延长2秒，伤害增加攻击力25%。）</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1级解锁:箭雨技能赋予火元素效果，伤害变为火元素伤害。
+2级解锁:该技能造成</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强化灼烧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>效果,强化灼烧伤害持续时间为5秒，基础伤害为攻击力50%。</t>
+    </r>
+  </si>
+  <si>
+    <t>Dot</t>
   </si>
   <si>
     <t>drow_3b_a</t>
@@ -703,6 +739,9 @@
     <t>hero/drow/燃矢</t>
   </si>
   <si>
+    <t>level 1 2</t>
+  </si>
+  <si>
     <t>焚身</t>
   </si>
   <si>
@@ -904,7 +943,7 @@
     <t>复仇</t>
   </si>
   <si>
-    <t>引燃复仇之魂，获得40%伤害加成，持续15秒。cd：40秒,没有蓝耗。</t>
+    <t>引燃复仇之魂，获得%dmg_bonus_pct%%%伤害加成，持续%duration%秒。</t>
   </si>
   <si>
     <t>drow_5</t>
@@ -970,7 +1009,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1127,6 +1166,12 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1329,7 +1374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1413,6 +1458,21 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF595959"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF595959"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1608,7 +1668,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1620,34 +1680,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1732,7 +1792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1742,6 +1802,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1751,6 +1814,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1769,22 +1835,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2151,31 +2226,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{AAF70215-5E91-44CC-BA3F-2710BDF8BF04}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A5F9CFE1-64CB-48F4-9DD5-CA37F254D571}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{6A6038A2-27FA-4646-B7DD-7B71BAFC41C0}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{58D8E25B-F252-4557-9917-B67398777855}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{03860845-B56F-43C7-A87B-F0A6731DBDB0}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{DC47EB59-E241-4F2C-9A52-3931DEF9A40F}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{B1C5EE9A-3B04-4D50-AFCA-4C80DD8A6304}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{ECF61FBA-9D31-4C8B-BEFD-502CFC99F22B}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{21DECBF3-C812-4301-A82C-B7E3DCCDF0D7}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F33326C-E921-4E89-90CB-F91B6333446E}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2184,6 +2259,7 @@
   <colors>
     <mruColors>
       <color rgb="00FFFF00"/>
+      <color rgb="00FF0000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2481,12 +2557,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2495,3506 +2571,3523 @@
     <col min="2" max="2" width="32.3416666666667" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.0083333333333" customWidth="1"/>
-    <col min="5" max="8" width="13.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="13.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="13.3416666666667" style="2" customWidth="1"/>
+    <col min="7" max="8" width="13.3416666666667" customWidth="1"/>
     <col min="9" max="9" width="13.5083333333333" customWidth="1"/>
     <col min="10" max="10" width="14.675" customWidth="1"/>
     <col min="11" max="12" width="15.0083333333333" customWidth="1"/>
     <col min="13" max="13" width="22.0083333333333" customWidth="1"/>
     <col min="14" max="14" width="26.675" customWidth="1"/>
-    <col min="15" max="15" width="17.175" style="2" customWidth="1"/>
-    <col min="16" max="16" width="42.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.0083333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
-    <col min="19" max="21" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="22" max="22" width="8.34166666666667" style="2" customWidth="1"/>
-    <col min="23" max="23" width="17.3416666666667" style="2" customWidth="1"/>
-    <col min="24" max="26" width="6.24166666666667" style="2" customWidth="1"/>
-    <col min="27" max="27" width="6.55" style="2" customWidth="1"/>
+    <col min="15" max="15" width="17.175" style="3" customWidth="1"/>
+    <col min="16" max="16" width="42.625" style="3" customWidth="1"/>
+    <col min="17" max="17" width="24.0083333333333" style="3" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="3" customWidth="1"/>
+    <col min="19" max="21" width="6.24166666666667" style="3" customWidth="1"/>
+    <col min="22" max="22" width="8.34166666666667" style="3" customWidth="1"/>
+    <col min="23" max="23" width="17.3416666666667" style="3" customWidth="1"/>
+    <col min="24" max="26" width="6.24166666666667" style="3" customWidth="1"/>
+    <col min="27" max="27" width="6.55" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4">
-        <v>0</v>
-      </c>
-      <c r="P1" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="4">
-        <v>2</v>
-      </c>
-      <c r="R1" s="4">
+      <c r="O1" s="5">
+        <v>0</v>
+      </c>
+      <c r="P1" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>2</v>
+      </c>
+      <c r="R1" s="5">
         <v>3</v>
       </c>
-      <c r="S1" s="4">
+      <c r="S1" s="5">
         <v>4</v>
       </c>
-      <c r="T1" s="4">
+      <c r="T1" s="5">
         <v>5</v>
       </c>
-      <c r="U1" s="4">
+      <c r="U1" s="5">
         <v>6</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="4">
-        <v>0</v>
-      </c>
-      <c r="X1" s="4">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="4">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="4">
+      <c r="W1" s="5">
+        <v>0</v>
+      </c>
+      <c r="X1" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="5">
         <v>3</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="19" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="7" t="s">
+      <c r="L2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="M2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="N2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="O2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>2</v>
-      </c>
-      <c r="R2" s="7">
+      <c r="P2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2</v>
+      </c>
+      <c r="R2" s="9">
         <v>3</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="9">
         <v>4</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="9">
         <v>5</v>
       </c>
-      <c r="U2" s="7">
+      <c r="U2" s="9">
         <v>6</v>
       </c>
-      <c r="V2" s="7" t="s">
+      <c r="V2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="7" t="s">
+      <c r="W2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="7">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="7">
+      <c r="X2" s="9">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="9">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="9">
         <v>3</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:27">
-      <c r="A3" s="9">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>1</v>
-      </c>
-      <c r="F3" s="10">
-        <v>1</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="s">
+      <c r="D3" s="12">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="10">
-        <v>1</v>
-      </c>
-      <c r="K3" s="10">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10" t="s">
+      <c r="J3" s="12">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="10">
-        <v>1</v>
-      </c>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="12">
+        <v>1</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="O3" s="12"/>
+      <c r="P3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10"/>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
-      <c r="W3" s="10"/>
-      <c r="X3" s="10"/>
-      <c r="Y3" s="10"/>
-      <c r="Z3" s="10"/>
-      <c r="AA3" s="16"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="21"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:27">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
+      <c r="A4" s="8">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7">
-        <v>1</v>
-      </c>
-      <c r="F4" s="10">
-        <v>1</v>
-      </c>
-      <c r="G4" s="10">
-        <v>1</v>
-      </c>
-      <c r="H4" s="10" t="s">
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="7">
-        <v>2</v>
-      </c>
-      <c r="K4" s="7">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="9">
+        <v>2</v>
+      </c>
+      <c r="K4" s="9">
+        <v>1</v>
+      </c>
+      <c r="L4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="9">
         <v>3</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="N4" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7" t="s">
+      <c r="O4" s="9"/>
+      <c r="P4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="7" t="s">
+      <c r="Q4" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="15"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="20"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A5" s="9">
+      <c r="A5" s="11">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>1</v>
-      </c>
-      <c r="G5" s="10">
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="s">
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+      <c r="G5" s="12">
+        <v>0</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="12">
         <v>3</v>
       </c>
-      <c r="K5" s="10">
-        <v>2</v>
-      </c>
-      <c r="L5" s="10" t="s">
+      <c r="K5" s="12">
+        <v>2</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="10">
-        <v>2</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="M5" s="12">
+        <v>2</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10" t="s">
+      <c r="O5" s="12"/>
+      <c r="P5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="16"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="21"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:27">
-      <c r="A6" s="6">
+      <c r="A6" s="8">
         <v>4</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
-      <c r="E6" s="7">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>1</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="s">
+      <c r="D6" s="9">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="9">
         <v>3</v>
       </c>
-      <c r="K6" s="7">
-        <v>2</v>
-      </c>
-      <c r="L6" s="7" t="s">
+      <c r="K6" s="9">
+        <v>2</v>
+      </c>
+      <c r="L6" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="7">
-        <v>2</v>
-      </c>
-      <c r="N6" s="7" t="s">
+      <c r="M6" s="9">
+        <v>2</v>
+      </c>
+      <c r="N6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="15"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="20"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:27">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <v>5</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="10">
-        <v>1</v>
-      </c>
-      <c r="E7" s="10">
-        <v>1</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="12">
         <v>4</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="10">
-        <v>2</v>
-      </c>
-      <c r="K7" s="10">
-        <v>1</v>
-      </c>
-      <c r="L7" s="10" t="s">
+      <c r="J7" s="12">
+        <v>2</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="12">
         <v>3</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10" t="s">
+      <c r="O7" s="12"/>
+      <c r="P7" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="16"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="21"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A8" s="6">
+      <c r="A8" s="8">
         <v>6</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7">
-        <v>0</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1</v>
-      </c>
-      <c r="G8" s="10">
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="s">
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="9">
         <v>3</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="9">
         <v>5</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="L8" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="7">
-        <v>2</v>
-      </c>
-      <c r="N8" s="7" t="s">
+      <c r="M8" s="9">
+        <v>2</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7" t="s">
+      <c r="O8" s="9"/>
+      <c r="P8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="15"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="20"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1</v>
-      </c>
-      <c r="F9" s="10">
-        <v>1</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="s">
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12">
+        <v>0</v>
+      </c>
+      <c r="H9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="10">
-        <v>2</v>
-      </c>
-      <c r="K9" s="10">
-        <v>1</v>
-      </c>
-      <c r="L9" s="10" t="s">
+      <c r="J9" s="12">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="10">
+      <c r="M9" s="12">
         <v>3</v>
       </c>
-      <c r="N9" s="10" t="s">
+      <c r="N9" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10" t="s">
+      <c r="O9" s="12"/>
+      <c r="P9" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="16"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="21"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:27">
-      <c r="A10" s="6">
+      <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
-        <v>1</v>
-      </c>
-      <c r="G10" s="10">
-        <v>2</v>
-      </c>
-      <c r="H10" s="10" t="s">
+      <c r="D10" s="9">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9">
+        <v>2</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="9">
         <v>3</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="9">
         <v>8</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="L10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7" t="s">
+      <c r="M10" s="9">
+        <v>2</v>
+      </c>
+      <c r="N10" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7" t="s">
+      <c r="O10" s="9"/>
+      <c r="P10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="15"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="20"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
-        <v>0</v>
-      </c>
-      <c r="F11" s="10">
-        <v>1</v>
-      </c>
-      <c r="G11" s="10">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="D11" s="12">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="12">
         <v>3</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="12">
         <v>8</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="10">
-        <v>2</v>
-      </c>
-      <c r="N11" s="10" t="s">
+      <c r="M11" s="12">
+        <v>2</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10" t="s">
+      <c r="O11" s="12"/>
+      <c r="P11" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="16"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="21"/>
     </row>
     <row r="12" ht="33" spans="1:27">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="7">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="10">
-        <v>1</v>
-      </c>
-      <c r="G12" s="10">
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" s="7" t="s">
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="7">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7">
-        <v>0</v>
-      </c>
-      <c r="L12" s="7" t="s">
+      <c r="J12" s="9">
+        <v>1</v>
+      </c>
+      <c r="K12" s="9">
+        <v>0</v>
+      </c>
+      <c r="L12" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="9">
         <v>5</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7" t="s">
+      <c r="O12" s="9"/>
+      <c r="P12" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="7" t="s">
+      <c r="Q12" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="15"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="20"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="10">
-        <v>2</v>
-      </c>
-      <c r="E13" s="10">
-        <v>1</v>
-      </c>
-      <c r="F13" s="10">
-        <v>1</v>
-      </c>
-      <c r="G13" s="10">
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="s">
+      <c r="D13" s="12">
+        <v>2</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>0</v>
+      </c>
+      <c r="H13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="10" t="s">
+      <c r="I13" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="10">
-        <v>2</v>
-      </c>
-      <c r="K13" s="10">
+      <c r="J13" s="12">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
         <v>11</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="10">
+      <c r="M13" s="12">
         <v>3</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10" t="s">
+      <c r="O13" s="12"/>
+      <c r="P13" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="16"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="21"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:27">
-      <c r="A14" s="6">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="7">
-        <v>2</v>
-      </c>
-      <c r="E14" s="7">
-        <v>0</v>
-      </c>
-      <c r="F14" s="10">
-        <v>1</v>
-      </c>
-      <c r="G14" s="10">
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="s">
+      <c r="D14" s="9">
+        <v>2</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="9">
         <v>3</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="9">
         <v>12</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="L14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="9">
         <v>3</v>
       </c>
-      <c r="N14" s="7" t="s">
+      <c r="N14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7" t="s">
+      <c r="O14" s="9"/>
+      <c r="P14" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="Q14" s="7" t="s">
+      <c r="Q14" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="7" t="s">
+      <c r="R14" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="15"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="20"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:27">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="10">
-        <v>2</v>
-      </c>
-      <c r="E15" s="10">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>1</v>
-      </c>
-      <c r="G15" s="10">
+      <c r="D15" s="12">
+        <v>2</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="12">
         <v>4</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I15" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="12">
         <v>4</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="12">
         <v>13</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="10">
-        <v>2</v>
-      </c>
-      <c r="N15" s="10" t="s">
+      <c r="M15" s="12">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10" t="s">
+      <c r="O15" s="12"/>
+      <c r="P15" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="16"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="21"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A16" s="6">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1</v>
-      </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-      <c r="G16" s="10">
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="s">
+      <c r="D16" s="9">
+        <v>2</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
+      <c r="J16" s="9">
+        <v>2</v>
+      </c>
+      <c r="K16" s="9">
         <v>11</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="L16" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="9">
         <v>3</v>
       </c>
-      <c r="N16" s="7" t="s">
+      <c r="N16" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7" t="s">
+      <c r="O16" s="9"/>
+      <c r="P16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
-      <c r="AA16" s="15"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:27">
-      <c r="A17" s="9">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="10">
-        <v>2</v>
-      </c>
-      <c r="E17" s="10">
-        <v>0</v>
-      </c>
-      <c r="F17" s="10">
-        <v>1</v>
-      </c>
-      <c r="G17" s="10">
-        <v>2</v>
-      </c>
-      <c r="H17" s="10" t="s">
+      <c r="D17" s="12">
+        <v>2</v>
+      </c>
+      <c r="E17" s="12">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+      <c r="G17" s="12">
+        <v>2</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="12">
         <v>3</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="12">
         <v>15</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="M17" s="10">
-        <v>2</v>
-      </c>
-      <c r="N17" s="10" t="s">
+      <c r="M17" s="12">
+        <v>2</v>
+      </c>
+      <c r="N17" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10" t="s">
+      <c r="O17" s="12"/>
+      <c r="P17" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="10"/>
-      <c r="T17" s="10"/>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
-      <c r="X17" s="10"/>
-      <c r="Y17" s="10"/>
-      <c r="Z17" s="10"/>
-      <c r="AA17" s="16"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="21"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:27">
-      <c r="A18" s="6">
+      <c r="A18" s="8">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0</v>
-      </c>
-      <c r="F18" s="10">
-        <v>1</v>
-      </c>
-      <c r="G18" s="10">
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="s">
+      <c r="D18" s="9">
+        <v>2</v>
+      </c>
+      <c r="E18" s="9">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <v>1</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="7">
+      <c r="J18" s="9">
         <v>4</v>
       </c>
-      <c r="K18" s="7">
+      <c r="K18" s="9">
         <v>16</v>
       </c>
-      <c r="L18" s="7" t="s">
+      <c r="L18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="7">
+      <c r="M18" s="9">
         <v>3</v>
       </c>
-      <c r="N18" s="7" t="s">
+      <c r="N18" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="7"/>
-      <c r="P18" s="2" t="s">
+      <c r="O18" s="9"/>
+      <c r="P18" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="7" t="s">
+      <c r="Q18" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="R18" s="7" t="s">
+      <c r="R18" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="15"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="20"/>
     </row>
     <row r="19" ht="16.5" spans="1:27">
-      <c r="A19" s="9">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="10">
-        <v>2</v>
-      </c>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="10">
-        <v>1</v>
-      </c>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="s">
+      <c r="D19" s="12">
+        <v>2</v>
+      </c>
+      <c r="E19" s="12">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+      <c r="G19" s="12">
+        <v>0</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="10" t="s">
+      <c r="I19" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="10">
-        <v>1</v>
-      </c>
-      <c r="K19" s="10">
-        <v>0</v>
-      </c>
-      <c r="L19" s="10" t="s">
+      <c r="J19" s="12">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="10">
+      <c r="M19" s="12">
         <v>5</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10" t="s">
+      <c r="O19" s="12"/>
+      <c r="P19" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="R19" s="10"/>
-      <c r="S19" s="10"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="10"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="16"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="21"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:27">
-      <c r="A20" s="6">
+      <c r="A20" s="8">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="7">
-        <v>2</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="10">
-        <v>1</v>
-      </c>
-      <c r="G20" s="10">
-        <v>1</v>
-      </c>
-      <c r="H20" s="10" t="s">
+      <c r="D20" s="9">
+        <v>2</v>
+      </c>
+      <c r="E20" s="9">
+        <v>1</v>
+      </c>
+      <c r="F20" s="14">
+        <v>1</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
+      <c r="H20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="7">
-        <v>2</v>
-      </c>
-      <c r="K20" s="7">
+      <c r="J20" s="9">
+        <v>2</v>
+      </c>
+      <c r="K20" s="9">
         <v>18</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="L20" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="7">
+      <c r="M20" s="9">
         <v>3</v>
       </c>
-      <c r="N20" s="10" t="s">
+      <c r="N20" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7" t="s">
+      <c r="O20" s="9"/>
+      <c r="P20" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="15"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="9"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="20"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A21" s="9">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="10">
-        <v>2</v>
-      </c>
-      <c r="E21" s="10">
-        <v>0</v>
-      </c>
-      <c r="F21" s="10">
-        <v>1</v>
-      </c>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="s">
+      <c r="D21" s="12">
+        <v>2</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+      <c r="G21" s="12">
+        <v>0</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="I21" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="10">
+      <c r="J21" s="12">
         <v>3</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="12">
         <v>19</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="M21" s="10">
-        <v>2</v>
-      </c>
-      <c r="N21" s="10" t="s">
+      <c r="M21" s="12">
+        <v>2</v>
+      </c>
+      <c r="N21" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10" t="s">
+      <c r="O21" s="12"/>
+      <c r="P21" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="16"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="21"/>
     </row>
     <row r="22" ht="33" spans="1:27">
-      <c r="A22" s="6">
+      <c r="A22" s="8">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="7">
-        <v>2</v>
-      </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="10">
-        <v>1</v>
-      </c>
-      <c r="G22" s="10">
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="s">
+      <c r="D22" s="9">
+        <v>2</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
+        <v>1</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="I22" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="7">
+      <c r="J22" s="9">
         <v>4</v>
       </c>
-      <c r="K22" s="7">
+      <c r="K22" s="9">
         <v>20</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="L22" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="9">
         <v>3</v>
       </c>
-      <c r="N22" s="7" t="s">
+      <c r="N22" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7" t="s">
+      <c r="O22" s="9"/>
+      <c r="P22" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="Q22" s="7" t="s">
+      <c r="Q22" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="15"/>
+      <c r="R22" s="9"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="20"/>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:27">
-      <c r="A23" s="9">
+      <c r="A23" s="11">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="10">
-        <v>2</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="10">
-        <v>1</v>
-      </c>
-      <c r="G23" s="10">
-        <v>2</v>
-      </c>
-      <c r="H23" s="10" t="s">
+      <c r="D23" s="12">
+        <v>2</v>
+      </c>
+      <c r="E23" s="12">
+        <v>1</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+      <c r="G23" s="12">
+        <v>2</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="10" t="s">
+      <c r="I23" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="10">
-        <v>2</v>
-      </c>
-      <c r="K23" s="10">
+      <c r="J23" s="12">
+        <v>2</v>
+      </c>
+      <c r="K23" s="12">
         <v>18</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="M23" s="10">
+      <c r="M23" s="12">
         <v>3</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10" t="s">
+      <c r="O23" s="12"/>
+      <c r="P23" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="10"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="10"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="16"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="21"/>
     </row>
     <row r="24" ht="49.5" spans="1:27">
-      <c r="A24" s="6">
+      <c r="A24" s="8">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="7">
-        <v>2</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
-        <v>1</v>
-      </c>
-      <c r="G24" s="10">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="s">
+      <c r="D24" s="9">
+        <v>2</v>
+      </c>
+      <c r="E24" s="9">
+        <v>0</v>
+      </c>
+      <c r="F24" s="14">
+        <v>1</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="7">
+      <c r="J24" s="9">
         <v>3</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="9">
         <v>22</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="L24" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="M24" s="7">
-        <v>2</v>
-      </c>
-      <c r="N24" s="7" t="s">
+      <c r="M24" s="9">
+        <v>2</v>
+      </c>
+      <c r="N24" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7" t="s">
+      <c r="O24" s="9"/>
+      <c r="P24" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="Q24" s="7" t="s">
+      <c r="Q24" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="15"/>
+      <c r="R24" s="9"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="20"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A25" s="6">
+      <c r="A25" s="11">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="10">
-        <v>2</v>
-      </c>
-      <c r="E25" s="10">
-        <v>0</v>
-      </c>
-      <c r="F25" s="10">
-        <v>1</v>
-      </c>
-      <c r="G25" s="10">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="s">
+      <c r="D25" s="12">
+        <v>2</v>
+      </c>
+      <c r="E25" s="12">
+        <v>0</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+      <c r="G25" s="12">
+        <v>0</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="10" t="s">
+      <c r="I25" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="12">
         <v>4</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="12">
         <v>23</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="10">
+      <c r="M25" s="12">
         <v>3</v>
       </c>
-      <c r="N25" s="10" t="s">
+      <c r="N25" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10" t="s">
+      <c r="O25" s="12"/>
+      <c r="P25" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
-      <c r="X25" s="10"/>
-      <c r="Y25" s="10"/>
-      <c r="Z25" s="10"/>
-      <c r="AA25" s="16"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="21"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A26" s="6">
+      <c r="A26" s="8">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="7">
-        <v>2</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="10">
-        <v>1</v>
-      </c>
-      <c r="G26" s="10">
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="s">
+      <c r="D26" s="9">
+        <v>2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>0</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="7">
+      <c r="J26" s="9">
         <v>99</v>
       </c>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7" t="s">
+      <c r="K26" s="9"/>
+      <c r="L26" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="7">
+      <c r="M26" s="9">
         <v>5</v>
       </c>
-      <c r="N26" s="7" t="s">
+      <c r="N26" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7" t="s">
+      <c r="O26" s="9"/>
+      <c r="P26" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="Q26" s="7"/>
-      <c r="R26" s="7"/>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="15"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="20"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A27" s="6">
+      <c r="A27" s="11">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="10">
-        <v>2</v>
-      </c>
-      <c r="E27" s="10">
-        <v>0</v>
-      </c>
-      <c r="F27" s="10">
-        <v>1</v>
-      </c>
-      <c r="G27" s="10">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="D27" s="12">
+        <v>2</v>
+      </c>
+      <c r="E27" s="12">
+        <v>0</v>
+      </c>
+      <c r="F27" s="14">
+        <v>1</v>
+      </c>
+      <c r="G27" s="12">
+        <v>0</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="12">
         <v>99</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10" t="s">
+      <c r="K27" s="12"/>
+      <c r="L27" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="12">
         <v>5</v>
       </c>
-      <c r="N27" s="10" t="s">
+      <c r="N27" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O27" s="10"/>
-      <c r="P27" s="7" t="s">
+      <c r="O27" s="12"/>
+      <c r="P27" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="Q27" s="10" t="s">
+      <c r="Q27" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="R27" s="10"/>
-      <c r="S27" s="10"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="10"/>
-      <c r="AA27" s="16"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="21"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A28" s="6">
+      <c r="A28" s="8">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="7">
-        <v>2</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0</v>
-      </c>
-      <c r="F28" s="10">
-        <v>1</v>
-      </c>
-      <c r="G28" s="10">
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="s">
+      <c r="D28" s="9">
+        <v>2</v>
+      </c>
+      <c r="E28" s="9">
+        <v>0</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="I28" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="7">
+      <c r="J28" s="9">
         <v>99</v>
       </c>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7" t="s">
+      <c r="K28" s="9"/>
+      <c r="L28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="9">
         <v>5</v>
       </c>
-      <c r="N28" s="7" t="s">
+      <c r="N28" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
+      <c r="O28" s="9"/>
+      <c r="P28" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="15"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="9"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="20"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A29" s="6">
+      <c r="A29" s="11">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="10">
-        <v>2</v>
-      </c>
-      <c r="E29" s="10">
-        <v>0</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1</v>
-      </c>
-      <c r="G29" s="10">
-        <v>0</v>
-      </c>
-      <c r="H29" s="10" t="s">
+      <c r="D29" s="12">
+        <v>2</v>
+      </c>
+      <c r="E29" s="12">
+        <v>0</v>
+      </c>
+      <c r="F29" s="14">
+        <v>1</v>
+      </c>
+      <c r="G29" s="12">
+        <v>0</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="10" t="s">
+      <c r="I29" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="12">
         <v>99</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10" t="s">
+      <c r="K29" s="12"/>
+      <c r="L29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="10">
+      <c r="M29" s="12">
         <v>5</v>
       </c>
-      <c r="N29" s="10" t="s">
+      <c r="N29" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O29" s="10"/>
-      <c r="P29" s="7" t="s">
+      <c r="O29" s="12"/>
+      <c r="P29" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
-      <c r="X29" s="10"/>
-      <c r="Y29" s="10"/>
-      <c r="Z29" s="10"/>
-      <c r="AA29" s="16"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="12"/>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
+      <c r="X29" s="12"/>
+      <c r="Y29" s="12"/>
+      <c r="Z29" s="12"/>
+      <c r="AA29" s="21"/>
     </row>
     <row r="30" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A30" s="6">
+      <c r="A30" s="8">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="9">
         <v>3</v>
       </c>
-      <c r="E30" s="7">
-        <v>1</v>
-      </c>
-      <c r="F30" s="10">
-        <v>1</v>
-      </c>
-      <c r="G30" s="10">
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="7" t="s">
+      <c r="E30" s="9">
+        <v>1</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="J30" s="7">
-        <v>1</v>
-      </c>
-      <c r="K30" s="7">
-        <v>0</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="I30" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="M30" s="7">
+      <c r="J30" s="9">
+        <v>1</v>
+      </c>
+      <c r="K30" s="9">
+        <v>0</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M30" s="9">
         <v>5</v>
       </c>
-      <c r="N30" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7" t="s">
+      <c r="N30" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="Q30" s="7" t="s">
+      <c r="O30" s="9"/>
+      <c r="P30" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="R30" s="7" t="s">
+      <c r="Q30" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="15"/>
+      <c r="R30" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="20"/>
     </row>
     <row r="31" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A31" s="6">
+      <c r="A31" s="11">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="D31" s="10">
+      <c r="C31" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="12">
         <v>3</v>
       </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="10">
-        <v>1</v>
-      </c>
-      <c r="G31" s="10">
-        <v>0</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J31" s="10">
-        <v>2</v>
-      </c>
-      <c r="K31" s="10">
+      <c r="E31" s="12">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14">
+        <v>1</v>
+      </c>
+      <c r="G31" s="12">
+        <v>0</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="J31" s="12">
+        <v>2</v>
+      </c>
+      <c r="K31" s="12">
         <v>29</v>
       </c>
-      <c r="L31" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M31" s="10">
-        <v>2</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10" t="s">
+      <c r="L31" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
-      <c r="X31" s="10"/>
-      <c r="Y31" s="10"/>
-      <c r="Z31" s="10"/>
-      <c r="AA31" s="16"/>
+      <c r="M31" s="12">
+        <v>2</v>
+      </c>
+      <c r="N31" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="12"/>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
+      <c r="X31" s="12"/>
+      <c r="Y31" s="12"/>
+      <c r="Z31" s="12"/>
+      <c r="AA31" s="21"/>
     </row>
     <row r="32" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A32" s="6">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D32" s="7">
+      <c r="B32" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D32" s="9">
         <v>3</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="10">
-        <v>1</v>
-      </c>
-      <c r="G32" s="10">
+      <c r="E32" s="9">
+        <v>0</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9">
         <v>4</v>
       </c>
-      <c r="H32" s="10" t="s">
+      <c r="H32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="J32" s="7">
+      <c r="I32" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="J32" s="9">
         <v>3</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="9">
         <v>30</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="L32" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="7">
-        <v>2</v>
-      </c>
-      <c r="N32" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q32" s="7" t="s">
+      <c r="M32" s="9">
+        <v>2</v>
+      </c>
+      <c r="N32" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="15"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="20"/>
     </row>
     <row r="33" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A33" s="6">
+      <c r="A33" s="11">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="D33" s="10">
+      <c r="B33" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="12">
         <v>3</v>
       </c>
-      <c r="E33" s="10">
-        <v>1</v>
-      </c>
-      <c r="F33" s="10">
-        <v>1</v>
-      </c>
-      <c r="G33" s="10">
-        <v>2</v>
-      </c>
-      <c r="H33" s="10" t="s">
+      <c r="E33" s="12">
+        <v>1</v>
+      </c>
+      <c r="F33" s="14">
+        <v>1</v>
+      </c>
+      <c r="G33" s="12">
+        <v>2</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="J33" s="10">
-        <v>2</v>
-      </c>
-      <c r="K33" s="10">
+      <c r="I33" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="J33" s="12">
+        <v>2</v>
+      </c>
+      <c r="K33" s="12">
         <v>29</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="10">
-        <v>2</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10" t="s">
+      <c r="L33" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="10"/>
-      <c r="T33" s="10"/>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
-      <c r="X33" s="10"/>
-      <c r="Y33" s="10"/>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="16"/>
+      <c r="M33" s="12">
+        <v>2</v>
+      </c>
+      <c r="N33" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="12"/>
+      <c r="AA33" s="21"/>
     </row>
     <row r="34" customFormat="1" ht="72" customHeight="1" spans="1:27">
-      <c r="A34" s="6">
+      <c r="A34" s="8">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="D34" s="7">
+      <c r="B34" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D34" s="9">
         <v>3</v>
       </c>
-      <c r="E34" s="7">
-        <v>0</v>
-      </c>
-      <c r="F34" s="10">
-        <v>1</v>
-      </c>
-      <c r="G34" s="10">
-        <v>0</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="J34" s="7">
+      <c r="E34" s="9">
+        <v>0</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="J34" s="9">
         <v>3</v>
       </c>
-      <c r="K34" s="7">
+      <c r="K34" s="9">
         <v>32</v>
       </c>
-      <c r="L34" s="7" t="s">
+      <c r="L34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="7">
+      <c r="M34" s="9">
         <v>3</v>
       </c>
-      <c r="N34" s="7" t="s">
+      <c r="N34" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="R34" s="7" t="s">
+      <c r="O34" s="9"/>
+      <c r="P34" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
-      <c r="AA34" s="15"/>
+      <c r="Q34" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="R34" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="20"/>
     </row>
     <row r="35" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A35" s="6">
+      <c r="A35" s="11">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="D35" s="10">
+      <c r="B35" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="12">
         <v>3</v>
       </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="10">
-        <v>1</v>
-      </c>
-      <c r="G35" s="10">
-        <v>0</v>
-      </c>
-      <c r="H35" s="10" t="s">
+      <c r="E35" s="12">
+        <v>1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>1</v>
+      </c>
+      <c r="G35" s="12">
+        <v>0</v>
+      </c>
+      <c r="H35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="J35" s="10">
-        <v>1</v>
-      </c>
-      <c r="K35" s="10">
-        <v>0</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>212</v>
-      </c>
-      <c r="M35" s="10">
+      <c r="I35" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+      <c r="K35" s="12">
+        <v>0</v>
+      </c>
+      <c r="L35" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="M35" s="12">
         <v>5</v>
       </c>
-      <c r="N35" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q35" s="10" t="s">
+      <c r="N35" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="R35" s="10" t="s">
+      <c r="O35" s="12"/>
+      <c r="P35" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="S35" s="10"/>
-      <c r="T35" s="10"/>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
-      <c r="X35" s="10"/>
-      <c r="Y35" s="10"/>
-      <c r="Z35" s="10"/>
-      <c r="AA35" s="16"/>
+      <c r="Q35" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="R35" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
+      <c r="X35" s="12"/>
+      <c r="Y35" s="12"/>
+      <c r="Z35" s="12"/>
+      <c r="AA35" s="21"/>
     </row>
     <row r="36" customFormat="1" ht="55.5" customHeight="1" spans="1:27">
-      <c r="A36" s="6">
+      <c r="A36" s="8">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="D36" s="7">
+      <c r="B36" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" s="9">
         <v>3</v>
       </c>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="10">
-        <v>1</v>
-      </c>
-      <c r="G36" s="10">
-        <v>1</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J36" s="7">
-        <v>2</v>
-      </c>
-      <c r="K36" s="7">
+      <c r="E36" s="9">
+        <v>1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
+      </c>
+      <c r="G36" s="9">
+        <v>1</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2</v>
+      </c>
+      <c r="K36" s="9">
         <v>34</v>
       </c>
-      <c r="L36" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="M36" s="7">
-        <v>2</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
-      <c r="S36" s="7"/>
-      <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
-      <c r="X36" s="7"/>
-      <c r="Y36" s="7"/>
-      <c r="Z36" s="7"/>
-      <c r="AA36" s="15"/>
+      <c r="L36" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="M36" s="9">
+        <v>2</v>
+      </c>
+      <c r="N36" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="20"/>
     </row>
     <row r="37" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A37" s="6">
+      <c r="A37" s="11">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D37" s="12">
+        <v>3</v>
+      </c>
+      <c r="E37" s="12">
+        <v>0</v>
+      </c>
+      <c r="F37" s="14">
+        <v>1</v>
+      </c>
+      <c r="G37" s="12">
+        <v>0</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="D37" s="10">
+      <c r="J37" s="12">
         <v>3</v>
       </c>
-      <c r="E37" s="10">
-        <v>0</v>
-      </c>
-      <c r="F37" s="10">
-        <v>1</v>
-      </c>
-      <c r="G37" s="10">
-        <v>0</v>
-      </c>
-      <c r="H37" s="10" t="s">
+      <c r="K37" s="12">
         <v>35</v>
       </c>
-      <c r="I37" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="J37" s="10">
-        <v>3</v>
-      </c>
-      <c r="K37" s="10">
-        <v>35</v>
-      </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="10">
-        <v>2</v>
-      </c>
-      <c r="N37" s="10" t="s">
+      <c r="M37" s="12">
+        <v>2</v>
+      </c>
+      <c r="N37" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10"/>
-      <c r="AA37" s="16"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="12"/>
+      <c r="AA37" s="21"/>
     </row>
     <row r="38" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A38" s="6">
+      <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D38" s="7">
+      <c r="B38" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D38" s="9">
         <v>3</v>
       </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="10">
-        <v>1</v>
-      </c>
-      <c r="G38" s="10">
-        <v>0</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J38" s="7">
-        <v>2</v>
-      </c>
-      <c r="K38" s="7">
+      <c r="E38" s="9">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="J38" s="9">
+        <v>2</v>
+      </c>
+      <c r="K38" s="9">
         <v>34</v>
       </c>
-      <c r="L38" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="M38" s="7">
+      <c r="L38" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="M38" s="9">
         <v>3</v>
       </c>
-      <c r="N38" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="O38" s="7"/>
-      <c r="P38" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="R38" s="7"/>
-      <c r="S38" s="7"/>
-      <c r="T38" s="7"/>
-      <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
-      <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="15"/>
+      <c r="N38" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q38" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="20"/>
     </row>
     <row r="39" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A39" s="6">
+      <c r="A39" s="11">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="D39" s="10">
+      <c r="B39" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="12">
         <v>3</v>
       </c>
-      <c r="E39" s="10">
-        <v>0</v>
-      </c>
-      <c r="F39" s="10">
-        <v>1</v>
-      </c>
-      <c r="G39" s="10">
-        <v>2</v>
-      </c>
-      <c r="H39" s="10" t="s">
+      <c r="E39" s="12">
+        <v>0</v>
+      </c>
+      <c r="F39" s="14">
+        <v>1</v>
+      </c>
+      <c r="G39" s="12">
+        <v>2</v>
+      </c>
+      <c r="H39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="J39" s="10">
+      <c r="I39" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" s="12">
         <v>3</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="12">
         <v>37</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="10">
-        <v>2</v>
-      </c>
-      <c r="N39" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="10"/>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10"/>
-      <c r="AA39" s="16"/>
+      <c r="M39" s="12">
+        <v>2</v>
+      </c>
+      <c r="N39" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="O39" s="12"/>
+      <c r="P39" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="12"/>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
+      <c r="X39" s="12"/>
+      <c r="Y39" s="12"/>
+      <c r="Z39" s="12"/>
+      <c r="AA39" s="21"/>
     </row>
     <row r="40" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A40" s="6">
+      <c r="A40" s="8">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D40" s="7">
+      <c r="B40" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="9">
         <v>3</v>
       </c>
-      <c r="E40" s="7">
-        <v>0</v>
-      </c>
-      <c r="F40" s="10">
-        <v>1</v>
-      </c>
-      <c r="G40" s="10">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10" t="s">
+      <c r="E40" s="9">
+        <v>0</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="I40" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J40" s="7">
+      <c r="J40" s="9">
         <v>99</v>
       </c>
-      <c r="K40" s="7"/>
-      <c r="L40" s="7" t="s">
+      <c r="K40" s="9"/>
+      <c r="L40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="9">
         <v>3</v>
       </c>
-      <c r="N40" s="7" t="s">
+      <c r="N40" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O40" s="7"/>
-      <c r="P40" s="7"/>
-      <c r="Q40" s="7"/>
-      <c r="R40" s="7"/>
-      <c r="S40" s="7"/>
-      <c r="T40" s="7"/>
-      <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
-      <c r="X40" s="7"/>
-      <c r="Y40" s="7"/>
-      <c r="Z40" s="7"/>
-      <c r="AA40" s="15"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="20"/>
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A41" s="6">
+      <c r="A41" s="11">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="D41" s="10">
+      <c r="B41" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="D41" s="12">
         <v>3</v>
       </c>
-      <c r="E41" s="10">
-        <v>0</v>
-      </c>
-      <c r="F41" s="10">
-        <v>1</v>
-      </c>
-      <c r="G41" s="10">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10" t="s">
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1</v>
+      </c>
+      <c r="G41" s="12">
+        <v>0</v>
+      </c>
+      <c r="H41" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="12">
         <v>99</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="M41" s="10">
+      <c r="K41" s="12"/>
+      <c r="L41" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="M41" s="12">
         <v>5</v>
       </c>
-      <c r="N41" s="10" t="s">
+      <c r="N41" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
-      <c r="S41" s="10"/>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
-      <c r="X41" s="10"/>
-      <c r="Y41" s="10"/>
-      <c r="Z41" s="10"/>
-      <c r="AA41" s="16"/>
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="12"/>
+      <c r="Y41" s="12"/>
+      <c r="Z41" s="12"/>
+      <c r="AA41" s="21"/>
     </row>
     <row r="42" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A42" s="6">
+      <c r="A42" s="8">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" s="7">
+      <c r="B42" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="D42" s="9">
         <v>3</v>
       </c>
-      <c r="E42" s="7">
-        <v>0</v>
-      </c>
-      <c r="F42" s="10">
-        <v>1</v>
-      </c>
-      <c r="G42" s="10">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10" t="s">
+      <c r="E42" s="9">
+        <v>0</v>
+      </c>
+      <c r="F42" s="14">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="7" t="s">
+      <c r="I42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="7">
+      <c r="J42" s="9">
         <v>99</v>
       </c>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7" t="s">
+      <c r="K42" s="9"/>
+      <c r="L42" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="7">
+      <c r="M42" s="9">
         <v>3</v>
       </c>
-      <c r="N42" s="7" t="s">
+      <c r="N42" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
-      <c r="S42" s="7"/>
-      <c r="T42" s="7"/>
-      <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
-      <c r="X42" s="7"/>
-      <c r="Y42" s="7"/>
-      <c r="Z42" s="7"/>
-      <c r="AA42" s="15"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="9"/>
+      <c r="AA42" s="20"/>
     </row>
     <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A43" s="6">
+      <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>244</v>
-      </c>
-      <c r="D43" s="10">
+      <c r="B43" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D43" s="12">
         <v>3</v>
       </c>
-      <c r="E43" s="10">
-        <v>0</v>
-      </c>
-      <c r="F43" s="10">
-        <v>1</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="s">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="14">
+        <v>1</v>
+      </c>
+      <c r="G43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="10" t="s">
+      <c r="I43" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="12">
         <v>99</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10" t="s">
+      <c r="K43" s="12"/>
+      <c r="L43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="10">
+      <c r="M43" s="12">
         <v>5</v>
       </c>
-      <c r="N43" s="10" t="s">
+      <c r="N43" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
-      <c r="S43" s="10"/>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
-      <c r="V43" s="10"/>
-      <c r="W43" s="10"/>
-      <c r="X43" s="10"/>
-      <c r="Y43" s="10"/>
-      <c r="Z43" s="10"/>
-      <c r="AA43" s="16"/>
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="21"/>
     </row>
     <row r="44" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A44" s="6">
+      <c r="A44" s="8">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D44" s="7">
+      <c r="B44" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="D44" s="9">
         <v>3</v>
       </c>
-      <c r="E44" s="7">
-        <v>0</v>
-      </c>
-      <c r="F44" s="10">
-        <v>1</v>
-      </c>
-      <c r="G44" s="10">
-        <v>0</v>
-      </c>
-      <c r="H44" s="10" t="s">
+      <c r="E44" s="9">
+        <v>0</v>
+      </c>
+      <c r="F44" s="14">
+        <v>1</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="7" t="s">
+      <c r="I44" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J44" s="7">
+      <c r="J44" s="9">
         <v>99</v>
       </c>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7" t="s">
+      <c r="K44" s="9"/>
+      <c r="L44" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="7">
-        <v>2</v>
-      </c>
-      <c r="N44" s="7" t="s">
+      <c r="M44" s="9">
+        <v>2</v>
+      </c>
+      <c r="N44" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O44" s="7"/>
-      <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="15"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="20"/>
     </row>
     <row r="45" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A45" s="6">
+      <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="D45" s="10">
+      <c r="B45" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="D45" s="12">
         <v>3</v>
       </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>1</v>
-      </c>
-      <c r="G45" s="10">
-        <v>0</v>
-      </c>
-      <c r="H45" s="10" t="s">
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="14">
+        <v>1</v>
+      </c>
+      <c r="G45" s="12">
+        <v>0</v>
+      </c>
+      <c r="H45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="12">
         <v>99</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10" t="s">
+      <c r="K45" s="12"/>
+      <c r="L45" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M45" s="10">
-        <v>2</v>
-      </c>
-      <c r="N45" s="10" t="s">
+      <c r="M45" s="12">
+        <v>2</v>
+      </c>
+      <c r="N45" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
-      <c r="S45" s="10"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
-      <c r="X45" s="10"/>
-      <c r="Y45" s="10"/>
-      <c r="Z45" s="10"/>
-      <c r="AA45" s="16"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="12"/>
+      <c r="AA45" s="21"/>
     </row>
     <row r="46" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A46" s="6">
+      <c r="A46" s="8">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="D46" s="7">
+      <c r="B46" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D46" s="9">
         <v>4</v>
       </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="10">
-        <v>1</v>
-      </c>
-      <c r="G46" s="10">
-        <v>0</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J46" s="7">
-        <v>1</v>
-      </c>
-      <c r="K46" s="7">
-        <v>0</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="M46" s="7">
+      <c r="E46" s="9">
+        <v>1</v>
+      </c>
+      <c r="F46" s="14">
+        <v>1</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J46" s="9">
+        <v>1</v>
+      </c>
+      <c r="K46" s="9">
+        <v>0</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="M46" s="9">
         <v>3</v>
       </c>
-      <c r="N46" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="O46" s="7"/>
-      <c r="P46" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="R46" s="7"/>
-      <c r="S46" s="7"/>
-      <c r="T46" s="7"/>
-      <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
-      <c r="X46" s="7"/>
-      <c r="Y46" s="7"/>
-      <c r="Z46" s="7"/>
-      <c r="AA46" s="15"/>
+      <c r="N46" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q46" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+      <c r="V46" s="9"/>
+      <c r="W46" s="9"/>
+      <c r="X46" s="9"/>
+      <c r="Y46" s="9"/>
+      <c r="Z46" s="9"/>
+      <c r="AA46" s="20"/>
     </row>
     <row r="47" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A47" s="6">
+      <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="D47" s="10">
+      <c r="B47" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D47" s="12">
         <v>4</v>
       </c>
-      <c r="E47" s="10">
-        <v>0</v>
-      </c>
-      <c r="F47" s="10">
-        <v>1</v>
-      </c>
-      <c r="G47" s="10">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10" t="s">
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="14">
+        <v>1</v>
+      </c>
+      <c r="G47" s="12">
+        <v>6</v>
+      </c>
+      <c r="H47" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J47" s="10">
-        <v>2</v>
-      </c>
-      <c r="K47" s="10">
+      <c r="I47" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="J47" s="12">
+        <v>2</v>
+      </c>
+      <c r="K47" s="12">
         <v>45</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="M47" s="10">
-        <v>2</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q47" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="R47" s="10"/>
-      <c r="S47" s="10"/>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="X47" s="10"/>
-      <c r="Y47" s="10"/>
-      <c r="Z47" s="10"/>
-      <c r="AA47" s="16"/>
+      <c r="L47" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="M47" s="12">
+        <v>2</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q47" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="12"/>
+      <c r="AA47" s="21"/>
     </row>
-    <row r="48" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A48" s="6">
+    <row r="48" customFormat="1" ht="33" spans="1:27">
+      <c r="A48" s="8">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D48" s="7">
+      <c r="B48" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="D48" s="9">
         <v>4</v>
       </c>
-      <c r="E48" s="7">
-        <v>0</v>
-      </c>
-      <c r="F48" s="10">
-        <v>1</v>
-      </c>
-      <c r="G48" s="10">
-        <v>0</v>
-      </c>
-      <c r="H48" s="10" t="s">
+      <c r="E48" s="9">
+        <v>0</v>
+      </c>
+      <c r="F48" s="14">
+        <v>1</v>
+      </c>
+      <c r="G48" s="9">
+        <v>6</v>
+      </c>
+      <c r="H48" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="J48" s="7">
+      <c r="I48" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="J48" s="9">
         <v>3</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="9">
         <v>46</v>
       </c>
-      <c r="L48" s="7" t="s">
+      <c r="L48" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M48" s="7">
-        <v>2</v>
-      </c>
-      <c r="N48" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
-      <c r="Y48" s="7"/>
-      <c r="Z48" s="7"/>
-      <c r="AA48" s="15"/>
+      <c r="M48" s="9">
+        <v>2</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
+      <c r="Y48" s="9"/>
+      <c r="Z48" s="9"/>
+      <c r="AA48" s="20"/>
     </row>
     <row r="49" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A49" s="6">
+      <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="D49" s="10">
+      <c r="B49" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D49" s="12">
         <v>4</v>
       </c>
-      <c r="E49" s="10">
-        <v>1</v>
-      </c>
-      <c r="F49" s="10">
-        <v>1</v>
-      </c>
-      <c r="G49" s="10">
-        <v>0</v>
-      </c>
-      <c r="H49" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I49" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J49" s="10">
-        <v>1</v>
-      </c>
-      <c r="K49" s="10">
-        <v>0</v>
-      </c>
-      <c r="L49" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="M49" s="10">
+      <c r="E49" s="12">
+        <v>1</v>
+      </c>
+      <c r="F49" s="14">
+        <v>1</v>
+      </c>
+      <c r="G49" s="12">
+        <v>0</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+      <c r="K49" s="12">
+        <v>0</v>
+      </c>
+      <c r="L49" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="M49" s="12">
         <v>3</v>
       </c>
-      <c r="N49" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="Q49" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="S49" s="10"/>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
-      <c r="X49" s="10"/>
-      <c r="Y49" s="10"/>
-      <c r="Z49" s="10"/>
-      <c r="AA49" s="16"/>
+      <c r="N49" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="O49" s="12"/>
+      <c r="P49" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q49" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="12"/>
+      <c r="Y49" s="12"/>
+      <c r="Z49" s="12"/>
+      <c r="AA49" s="21"/>
     </row>
     <row r="50" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A50" s="6">
+      <c r="A50" s="8">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D50" s="7">
+      <c r="B50" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="D50" s="9">
         <v>4</v>
       </c>
-      <c r="E50" s="7">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10">
-        <v>1</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0</v>
-      </c>
-      <c r="H50" s="10" t="s">
+      <c r="E50" s="9">
+        <v>0</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+      <c r="G50" s="9">
+        <v>0</v>
+      </c>
+      <c r="H50" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J50" s="7">
-        <v>2</v>
-      </c>
-      <c r="K50" s="7">
+      <c r="I50" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="J50" s="9">
+        <v>2</v>
+      </c>
+      <c r="K50" s="9">
         <v>48</v>
       </c>
-      <c r="L50" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="M50" s="7">
-        <v>2</v>
-      </c>
-      <c r="N50" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="O50" s="7"/>
-      <c r="P50" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q50" s="7"/>
-      <c r="R50" s="7"/>
-      <c r="S50" s="7"/>
-      <c r="T50" s="7"/>
-      <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
-      <c r="X50" s="7"/>
-      <c r="Y50" s="7"/>
-      <c r="Z50" s="7"/>
-      <c r="AA50" s="15"/>
+      <c r="L50" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="M50" s="9">
+        <v>2</v>
+      </c>
+      <c r="N50" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
+      <c r="V50" s="9"/>
+      <c r="W50" s="9"/>
+      <c r="X50" s="9"/>
+      <c r="Y50" s="9"/>
+      <c r="Z50" s="9"/>
+      <c r="AA50" s="20"/>
     </row>
     <row r="51" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A51" s="6">
+      <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D51" s="10">
+      <c r="B51" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="D51" s="12">
         <v>4</v>
       </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10">
-        <v>1</v>
-      </c>
-      <c r="G51" s="10">
-        <v>0</v>
-      </c>
-      <c r="H51" s="10" t="s">
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="14">
+        <v>1</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="J51" s="10">
+      <c r="I51" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="J51" s="12">
         <v>3</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="12">
         <v>49</v>
       </c>
-      <c r="L51" s="10" t="s">
+      <c r="L51" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="10">
-        <v>1</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
-      <c r="S51" s="10"/>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
-      <c r="X51" s="10"/>
-      <c r="Y51" s="10"/>
-      <c r="Z51" s="10"/>
-      <c r="AA51" s="16"/>
+      <c r="M51" s="12">
+        <v>1</v>
+      </c>
+      <c r="N51" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="O51" s="12"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="12"/>
+      <c r="Y51" s="12"/>
+      <c r="Z51" s="12"/>
+      <c r="AA51" s="21"/>
     </row>
     <row r="52" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A52" s="6">
+      <c r="A52" s="8">
         <v>51</v>
       </c>
-      <c r="B52" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D52" s="7">
+      <c r="B52" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="D52" s="9">
         <v>4</v>
       </c>
-      <c r="E52" s="7">
-        <v>0</v>
-      </c>
-      <c r="F52" s="10">
-        <v>1</v>
-      </c>
-      <c r="G52" s="10">
-        <v>0</v>
-      </c>
-      <c r="H52" s="10" t="s">
+      <c r="E52" s="9">
+        <v>0</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+      <c r="G52" s="9">
+        <v>0</v>
+      </c>
+      <c r="H52" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="7" t="s">
+      <c r="I52" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J52" s="7">
+      <c r="J52" s="9">
         <v>99</v>
       </c>
-      <c r="K52" s="7"/>
-      <c r="L52" s="7" t="s">
+      <c r="K52" s="9"/>
+      <c r="L52" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="9">
         <v>3</v>
       </c>
-      <c r="N52" s="7" t="s">
+      <c r="N52" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O52" s="7"/>
-      <c r="P52" s="7"/>
-      <c r="Q52" s="7"/>
-      <c r="R52" s="7"/>
-      <c r="S52" s="7"/>
-      <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
-      <c r="AA52" s="15"/>
+      <c r="O52" s="9"/>
+      <c r="P52" s="9"/>
+      <c r="Q52" s="9"/>
+      <c r="R52" s="9"/>
+      <c r="S52" s="9"/>
+      <c r="T52" s="9"/>
+      <c r="U52" s="9"/>
+      <c r="V52" s="9"/>
+      <c r="W52" s="9"/>
+      <c r="X52" s="9"/>
+      <c r="Y52" s="9"/>
+      <c r="Z52" s="9"/>
+      <c r="AA52" s="20"/>
     </row>
     <row r="53" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A53" s="6">
+      <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="D53" s="10">
+      <c r="B53" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="D53" s="12">
         <v>4</v>
       </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
-      <c r="F53" s="10">
-        <v>1</v>
-      </c>
-      <c r="G53" s="10">
-        <v>0</v>
-      </c>
-      <c r="H53" s="10" t="s">
+      <c r="E53" s="12">
+        <v>0</v>
+      </c>
+      <c r="F53" s="14">
+        <v>1</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0</v>
+      </c>
+      <c r="H53" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="10" t="s">
+      <c r="I53" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="12">
         <v>99</v>
       </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10" t="s">
+      <c r="K53" s="12"/>
+      <c r="L53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="10">
+      <c r="M53" s="12">
         <v>5</v>
       </c>
-      <c r="N53" s="10" t="s">
+      <c r="N53" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
-      <c r="X53" s="10"/>
-      <c r="Y53" s="10"/>
-      <c r="Z53" s="10"/>
-      <c r="AA53" s="16"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="12"/>
+      <c r="AA53" s="21"/>
     </row>
     <row r="54" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A54" s="6">
+      <c r="A54" s="8">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="D54" s="7">
+      <c r="B54" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="D54" s="9">
         <v>4</v>
       </c>
-      <c r="E54" s="7">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10">
-        <v>1</v>
-      </c>
-      <c r="G54" s="10">
-        <v>0</v>
-      </c>
-      <c r="H54" s="10" t="s">
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+      <c r="G54" s="9">
+        <v>0</v>
+      </c>
+      <c r="H54" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="7" t="s">
+      <c r="I54" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="9">
         <v>99</v>
       </c>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7" t="s">
+      <c r="K54" s="9"/>
+      <c r="L54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M54" s="7">
+      <c r="M54" s="9">
         <v>3</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="N54" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="15"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
+      <c r="W54" s="9"/>
+      <c r="X54" s="9"/>
+      <c r="Y54" s="9"/>
+      <c r="Z54" s="9"/>
+      <c r="AA54" s="20"/>
     </row>
     <row r="55" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A55" s="6">
+      <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="D55" s="10">
+      <c r="B55" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="12">
         <v>5</v>
       </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="10">
-        <v>1</v>
-      </c>
-      <c r="G55" s="10">
-        <v>0</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="J55" s="10">
-        <v>1</v>
-      </c>
-      <c r="K55" s="10">
-        <v>0</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="M55" s="10">
-        <v>1</v>
-      </c>
-      <c r="N55" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="Q55" s="10" t="s">
-        <v>261</v>
-      </c>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10"/>
-      <c r="AA55" s="16"/>
+      <c r="E55" s="12">
+        <v>1</v>
+      </c>
+      <c r="F55" s="14">
+        <v>1</v>
+      </c>
+      <c r="G55" s="12">
+        <v>0</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1</v>
+      </c>
+      <c r="K55" s="12">
+        <v>0</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="M55" s="12">
+        <v>1</v>
+      </c>
+      <c r="N55" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q55" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="21"/>
     </row>
     <row r="56" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A56" s="6">
+      <c r="A56" s="8">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="D56" s="9">
+        <v>5</v>
+      </c>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
+      <c r="F56" s="14">
+        <v>1</v>
+      </c>
+      <c r="G56" s="9">
+        <v>2</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I56" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="C56" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D56" s="7">
-        <v>5</v>
-      </c>
-      <c r="E56" s="7">
-        <v>0</v>
-      </c>
-      <c r="F56" s="10">
-        <v>1</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="J56" s="7">
-        <v>2</v>
-      </c>
-      <c r="K56" s="7">
+      <c r="J56" s="9">
+        <v>2</v>
+      </c>
+      <c r="K56" s="9">
         <v>54</v>
       </c>
-      <c r="L56" s="7" t="s">
+      <c r="L56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="7">
-        <v>1</v>
-      </c>
-      <c r="N56" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q56" s="7"/>
-      <c r="R56" s="7"/>
-      <c r="S56" s="7"/>
-      <c r="T56" s="7"/>
-      <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
-      <c r="X56" s="7"/>
-      <c r="Y56" s="7"/>
-      <c r="Z56" s="7"/>
-      <c r="AA56" s="15"/>
+      <c r="M56" s="9">
+        <v>1</v>
+      </c>
+      <c r="N56" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9"/>
+      <c r="AA56" s="20"/>
     </row>
     <row r="57" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A57" s="6">
+      <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" s="10">
+      <c r="B57" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D57" s="12">
         <v>5</v>
       </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="10">
-        <v>1</v>
-      </c>
-      <c r="G57" s="10">
-        <v>0</v>
-      </c>
-      <c r="H57" s="10" t="s">
+      <c r="E57" s="12">
+        <v>0</v>
+      </c>
+      <c r="F57" s="14">
+        <v>1</v>
+      </c>
+      <c r="G57" s="12">
+        <v>4</v>
+      </c>
+      <c r="H57" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="J57" s="10">
-        <v>2</v>
-      </c>
-      <c r="K57" s="10">
+      <c r="I57" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="J57" s="12">
+        <v>2</v>
+      </c>
+      <c r="K57" s="12">
         <v>54</v>
       </c>
-      <c r="L57" s="10" t="s">
+      <c r="L57" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="10">
-        <v>1</v>
-      </c>
-      <c r="N57" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="O57" s="10"/>
-      <c r="P57" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="Q57" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10"/>
-      <c r="AA57" s="16"/>
+      <c r="M57" s="12">
+        <v>1</v>
+      </c>
+      <c r="N57" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q57" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="21"/>
     </row>
     <row r="58" customFormat="1" ht="50.25" spans="1:27">
-      <c r="A58" s="6">
+      <c r="A58" s="15">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="D58" s="12">
+      <c r="B58" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>308</v>
+      </c>
+      <c r="D58" s="16">
         <v>5</v>
       </c>
-      <c r="E58" s="12">
-        <v>0</v>
-      </c>
-      <c r="F58" s="10">
-        <v>1</v>
-      </c>
-      <c r="G58" s="10">
-        <v>0</v>
-      </c>
-      <c r="H58" s="10" t="s">
+      <c r="E58" s="16">
+        <v>0</v>
+      </c>
+      <c r="F58" s="14">
+        <v>1</v>
+      </c>
+      <c r="G58" s="16">
+        <v>1</v>
+      </c>
+      <c r="H58" s="16" t="s">
         <v>35</v>
       </c>
       <c r="I58" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="J58" s="12">
-        <v>2</v>
-      </c>
-      <c r="K58" s="12">
+        <v>294</v>
+      </c>
+      <c r="J58" s="16">
+        <v>2</v>
+      </c>
+      <c r="K58" s="16">
         <v>54</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="L58" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="12">
-        <v>1</v>
-      </c>
-      <c r="N58" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="O58" s="12"/>
-      <c r="P58" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q58" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="12"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="17"/>
+      <c r="M58" s="16">
+        <v>1</v>
+      </c>
+      <c r="N58" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q58" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="R58" s="16"/>
+      <c r="S58" s="16"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
+      <c r="W58" s="16"/>
+      <c r="X58" s="16"/>
+      <c r="Y58" s="16"/>
+      <c r="Z58" s="16"/>
+      <c r="AA58" s="22"/>
     </row>
+    <row r="59" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="D1:D59">
+  <autoFilter ref="H1:H58">
     <extLst/>
   </autoFilter>
-  <conditionalFormatting sqref="E$1:F$1048576">
+  <conditionalFormatting sqref="E$1:E$1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F$1:F$1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -1792,7 +1792,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1802,9 +1802,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,9 +1811,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1834,9 +1828,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2226,31 +2217,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{A5F9CFE1-64CB-48F4-9DD5-CA37F254D571}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{BA4AB9B8-E30D-4DED-B968-D4E89D755E2E}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{58D8E25B-F252-4557-9917-B67398777855}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{933A0061-B76B-4830-8AF6-7ACFBA4709E8}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{DC47EB59-E241-4F2C-9A52-3931DEF9A40F}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{F4E43F21-C53C-4656-91E8-C5905F8F0E7D}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{ECF61FBA-9D31-4C8B-BEFD-502CFC99F22B}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{95CC4ACF-87E5-4839-91F2-092DA9058CEF}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{3F33326C-E921-4E89-90CB-F91B6333446E}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{A3C9FD21-786C-479A-B641-CA408A5C03ED}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2562,7 +2553,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F5" sqref="F5"/>
+      <selection pane="topRight" activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2579,3496 +2570,3496 @@
     <col min="11" max="12" width="15.0083333333333" customWidth="1"/>
     <col min="13" max="13" width="22.0083333333333" customWidth="1"/>
     <col min="14" max="14" width="26.675" customWidth="1"/>
-    <col min="15" max="15" width="17.175" style="3" customWidth="1"/>
-    <col min="16" max="16" width="42.625" style="3" customWidth="1"/>
-    <col min="17" max="17" width="24.0083333333333" style="3" customWidth="1"/>
-    <col min="18" max="18" width="18.75" style="3" customWidth="1"/>
-    <col min="19" max="21" width="6.24166666666667" style="3" customWidth="1"/>
-    <col min="22" max="22" width="8.34166666666667" style="3" customWidth="1"/>
-    <col min="23" max="23" width="17.3416666666667" style="3" customWidth="1"/>
-    <col min="24" max="26" width="6.24166666666667" style="3" customWidth="1"/>
-    <col min="27" max="27" width="6.55" style="3" customWidth="1"/>
+    <col min="15" max="15" width="17.175" style="2" customWidth="1"/>
+    <col min="16" max="16" width="42.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.0083333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="18.75" style="2" customWidth="1"/>
+    <col min="19" max="21" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="22" max="22" width="8.34166666666667" style="2" customWidth="1"/>
+    <col min="23" max="23" width="17.3416666666667" style="2" customWidth="1"/>
+    <col min="24" max="26" width="6.24166666666667" style="2" customWidth="1"/>
+    <col min="27" max="27" width="6.55" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5">
-        <v>0</v>
-      </c>
-      <c r="P1" s="5">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>2</v>
-      </c>
-      <c r="R1" s="5">
+      <c r="O1" s="4">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2</v>
+      </c>
+      <c r="R1" s="4">
         <v>3</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="4">
         <v>4</v>
       </c>
-      <c r="T1" s="5">
+      <c r="T1" s="4">
         <v>5</v>
       </c>
-      <c r="U1" s="5">
+      <c r="U1" s="4">
         <v>6</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="W1" s="5">
-        <v>0</v>
-      </c>
-      <c r="X1" s="5">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>2</v>
-      </c>
-      <c r="Z1" s="5">
+      <c r="W1" s="4">
+        <v>0</v>
+      </c>
+      <c r="X1" s="4">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="4">
         <v>3</v>
       </c>
-      <c r="AA1" s="19" t="s">
+      <c r="AA1" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>2</v>
-      </c>
-      <c r="R2" s="9">
+      <c r="P2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>2</v>
+      </c>
+      <c r="R2" s="7">
         <v>3</v>
       </c>
-      <c r="S2" s="9">
+      <c r="S2" s="7">
         <v>4</v>
       </c>
-      <c r="T2" s="9">
+      <c r="T2" s="7">
         <v>5</v>
       </c>
-      <c r="U2" s="9">
+      <c r="U2" s="7">
         <v>6</v>
       </c>
-      <c r="V2" s="9" t="s">
+      <c r="V2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="9" t="s">
+      <c r="W2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="9">
-        <v>1</v>
-      </c>
-      <c r="Y2" s="9">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="9">
+      <c r="X2" s="7">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7">
+        <v>2</v>
+      </c>
+      <c r="Z2" s="7">
         <v>3</v>
       </c>
-      <c r="AA2" s="20" t="s">
+      <c r="AA2" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" ht="39" customHeight="1" spans="1:27">
-      <c r="A3" s="11">
-        <v>1</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="12">
-        <v>1</v>
-      </c>
-      <c r="E3" s="12">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="12">
-        <v>0</v>
-      </c>
-      <c r="H3" s="12" t="s">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="12">
-        <v>1</v>
-      </c>
-      <c r="K3" s="12">
-        <v>0</v>
-      </c>
-      <c r="L3" s="12" t="s">
+      <c r="J3" s="10">
+        <v>1</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="12">
-        <v>1</v>
-      </c>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="10">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="12" t="s">
+      <c r="Q3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="21"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="18"/>
     </row>
     <row r="4" ht="39" customHeight="1" spans="1:27">
-      <c r="A4" s="8">
-        <v>2</v>
-      </c>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>1</v>
-      </c>
-      <c r="G4" s="9">
-        <v>1</v>
-      </c>
-      <c r="H4" s="9" t="s">
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I4" s="9" t="s">
+      <c r="I4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="9">
-        <v>2</v>
-      </c>
-      <c r="K4" s="9">
-        <v>1</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="J4" s="7">
+        <v>2</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="7">
         <v>3</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="7"/>
+      <c r="P4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="20"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="17"/>
     </row>
     <row r="5" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A5" s="11">
+      <c r="A5" s="9">
         <v>3</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="12">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
-        <v>1</v>
-      </c>
-      <c r="G5" s="12">
-        <v>0</v>
-      </c>
-      <c r="H5" s="12" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="10">
         <v>3</v>
       </c>
-      <c r="K5" s="12">
-        <v>2</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="10">
+        <v>2</v>
+      </c>
+      <c r="L5" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="12">
-        <v>2</v>
-      </c>
-      <c r="N5" s="12" t="s">
+      <c r="M5" s="10">
+        <v>2</v>
+      </c>
+      <c r="N5" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12" t="s">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="Q5" s="12" t="s">
+      <c r="Q5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="21"/>
+      <c r="R5" s="10"/>
+      <c r="S5" s="10"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="10"/>
+      <c r="Y5" s="10"/>
+      <c r="Z5" s="10"/>
+      <c r="AA5" s="18"/>
     </row>
     <row r="6" ht="39" customHeight="1" spans="1:27">
-      <c r="A6" s="8">
+      <c r="A6" s="6">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="9">
-        <v>1</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>3</v>
       </c>
-      <c r="K6" s="9">
-        <v>2</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="K6" s="7">
+        <v>2</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="9">
-        <v>2</v>
-      </c>
-      <c r="N6" s="9" t="s">
+      <c r="M6" s="7">
+        <v>2</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9" t="s">
+      <c r="O6" s="7"/>
+      <c r="P6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
-      <c r="W6" s="9"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="9"/>
-      <c r="AA6" s="20"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="17"/>
     </row>
     <row r="7" ht="39" customHeight="1" spans="1:27">
-      <c r="A7" s="11">
+      <c r="A7" s="9">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="12">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14">
-        <v>1</v>
-      </c>
-      <c r="G7" s="12">
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
         <v>4</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="12">
-        <v>2</v>
-      </c>
-      <c r="K7" s="12">
-        <v>1</v>
-      </c>
-      <c r="L7" s="12" t="s">
+      <c r="J7" s="10">
+        <v>2</v>
+      </c>
+      <c r="K7" s="10">
+        <v>1</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="12">
+      <c r="M7" s="10">
         <v>3</v>
       </c>
-      <c r="N7" s="12" t="s">
+      <c r="N7" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12" t="s">
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
-      <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
-      <c r="X7" s="12"/>
-      <c r="Y7" s="12"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="21"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A8" s="8">
+      <c r="A8" s="6">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="9">
-        <v>1</v>
-      </c>
-      <c r="E8" s="9">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>3</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M8" s="9">
-        <v>2</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="7">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9" t="s">
+      <c r="O8" s="7"/>
+      <c r="P8" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="20"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="17"/>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A9" s="11">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="12">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14">
-        <v>1</v>
-      </c>
-      <c r="G9" s="12">
-        <v>0</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I9" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="12">
-        <v>2</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1</v>
-      </c>
-      <c r="L9" s="12" t="s">
+      <c r="J9" s="10">
+        <v>2</v>
+      </c>
+      <c r="K9" s="10">
+        <v>1</v>
+      </c>
+      <c r="L9" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="M9" s="12">
+      <c r="M9" s="10">
         <v>3</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N9" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12" t="s">
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
-      <c r="AA9" s="21"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="18"/>
     </row>
     <row r="10" ht="39" customHeight="1" spans="1:27">
-      <c r="A10" s="8">
+      <c r="A10" s="6">
         <v>9</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="9">
-        <v>1</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="14">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>2</v>
-      </c>
-      <c r="H10" s="9" t="s">
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="7">
         <v>3</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="7">
         <v>8</v>
       </c>
-      <c r="L10" s="9" t="s">
+      <c r="L10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M10" s="9">
-        <v>2</v>
-      </c>
-      <c r="N10" s="9" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9" t="s">
+      <c r="O10" s="7"/>
+      <c r="P10" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="20"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="17"/>
     </row>
     <row r="11" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A11" s="11">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14">
-        <v>1</v>
-      </c>
-      <c r="G11" s="12">
-        <v>0</v>
-      </c>
-      <c r="H11" s="12" t="s">
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="12" t="s">
+      <c r="I11" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="10">
         <v>3</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="10">
         <v>8</v>
       </c>
-      <c r="L11" s="12" t="s">
+      <c r="L11" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="12">
-        <v>2</v>
-      </c>
-      <c r="N11" s="12" t="s">
+      <c r="M11" s="10">
+        <v>2</v>
+      </c>
+      <c r="N11" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12" t="s">
+      <c r="O11" s="10"/>
+      <c r="P11" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="Q11" s="12"/>
-      <c r="R11" s="12"/>
-      <c r="S11" s="12"/>
-      <c r="T11" s="12"/>
-      <c r="U11" s="12"/>
-      <c r="V11" s="12"/>
-      <c r="W11" s="12"/>
-      <c r="X11" s="12"/>
-      <c r="Y11" s="12"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="21"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="18"/>
     </row>
     <row r="12" ht="33" spans="1:27">
-      <c r="A12" s="8">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-      <c r="H12" s="9" t="s">
+      <c r="D12" s="7">
+        <v>2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="J12" s="9">
-        <v>1</v>
-      </c>
-      <c r="K12" s="9">
-        <v>0</v>
-      </c>
-      <c r="L12" s="9" t="s">
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="7">
         <v>5</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9" t="s">
+      <c r="O12" s="7"/>
+      <c r="P12" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="R12" s="9"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="20"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A13" s="11">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D13" s="12">
-        <v>2</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <v>1</v>
-      </c>
-      <c r="G13" s="12">
-        <v>0</v>
-      </c>
-      <c r="H13" s="12" t="s">
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J13" s="12">
-        <v>2</v>
-      </c>
-      <c r="K13" s="12">
+      <c r="J13" s="10">
+        <v>2</v>
+      </c>
+      <c r="K13" s="10">
         <v>11</v>
       </c>
-      <c r="L13" s="12" t="s">
+      <c r="L13" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="10">
         <v>3</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N13" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12" t="s">
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
-      <c r="T13" s="12"/>
-      <c r="U13" s="12"/>
-      <c r="V13" s="12"/>
-      <c r="W13" s="12"/>
-      <c r="X13" s="12"/>
-      <c r="Y13" s="12"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="21"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="18"/>
     </row>
     <row r="14" ht="39" customHeight="1" spans="1:27">
-      <c r="A14" s="8">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="9">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <v>1</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9" t="s">
+      <c r="D14" s="7">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="7">
         <v>3</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="7">
         <v>12</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="7">
         <v>3</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9" t="s">
+      <c r="O14" s="7"/>
+      <c r="P14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="20"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="17"/>
     </row>
     <row r="15" ht="39" customHeight="1" spans="1:27">
-      <c r="A15" s="11">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="12">
-        <v>2</v>
-      </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <v>1</v>
-      </c>
-      <c r="G15" s="12">
+      <c r="D15" s="10">
+        <v>2</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
         <v>4</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I15" s="12" t="s">
+      <c r="I15" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="10">
         <v>4</v>
       </c>
-      <c r="K15" s="12">
+      <c r="K15" s="10">
         <v>13</v>
       </c>
-      <c r="L15" s="12" t="s">
+      <c r="L15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="12">
-        <v>2</v>
-      </c>
-      <c r="N15" s="12" t="s">
+      <c r="M15" s="10">
+        <v>2</v>
+      </c>
+      <c r="N15" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12" t="s">
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="21"/>
+      <c r="Q15" s="10"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A16" s="8">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="9">
-        <v>2</v>
-      </c>
-      <c r="E16" s="9">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>0</v>
-      </c>
-      <c r="H16" s="9" t="s">
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J16" s="9">
-        <v>2</v>
-      </c>
-      <c r="K16" s="9">
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
         <v>11</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="7">
         <v>3</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9" t="s">
+      <c r="O16" s="7"/>
+      <c r="P16" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="20"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="17"/>
     </row>
     <row r="17" ht="39" customHeight="1" spans="1:27">
-      <c r="A17" s="11">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D17" s="12">
-        <v>2</v>
-      </c>
-      <c r="E17" s="12">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <v>1</v>
-      </c>
-      <c r="G17" s="12">
-        <v>2</v>
-      </c>
-      <c r="H17" s="12" t="s">
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2</v>
+      </c>
+      <c r="H17" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="12" t="s">
+      <c r="I17" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="10">
         <v>3</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="10">
         <v>15</v>
       </c>
-      <c r="L17" s="12" t="s">
+      <c r="L17" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="M17" s="12">
-        <v>2</v>
-      </c>
-      <c r="N17" s="12" t="s">
+      <c r="M17" s="10">
+        <v>2</v>
+      </c>
+      <c r="N17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12" t="s">
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="12"/>
-      <c r="X17" s="12"/>
-      <c r="Y17" s="12"/>
-      <c r="Z17" s="12"/>
-      <c r="AA17" s="21"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="18"/>
     </row>
     <row r="18" ht="39" customHeight="1" spans="1:27">
-      <c r="A18" s="8">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D18" s="9">
-        <v>2</v>
-      </c>
-      <c r="E18" s="9">
-        <v>0</v>
-      </c>
-      <c r="F18" s="14">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
-        <v>0</v>
-      </c>
-      <c r="H18" s="9" t="s">
+      <c r="D18" s="7">
+        <v>2</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="10">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="7">
         <v>4</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="7">
         <v>16</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="7">
         <v>3</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="O18" s="9"/>
-      <c r="P18" s="18" t="s">
+      <c r="O18" s="7"/>
+      <c r="P18" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="R18" s="9" t="s">
+      <c r="R18" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="20"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="17"/>
     </row>
     <row r="19" ht="16.5" spans="1:27">
-      <c r="A19" s="11">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="12">
-        <v>2</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14">
-        <v>1</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="D19" s="10">
+        <v>2</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10">
+        <v>1</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="12" t="s">
+      <c r="I19" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="J19" s="12">
-        <v>1</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="12" t="s">
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
+      <c r="K19" s="10">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="M19" s="12">
+      <c r="M19" s="10">
         <v>5</v>
       </c>
-      <c r="N19" s="12" t="s">
+      <c r="N19" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12" t="s">
+      <c r="O19" s="10"/>
+      <c r="P19" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="12"/>
-      <c r="X19" s="12"/>
-      <c r="Y19" s="12"/>
-      <c r="Z19" s="12"/>
-      <c r="AA19" s="21"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="18"/>
     </row>
     <row r="20" ht="39" customHeight="1" spans="1:27">
-      <c r="A20" s="8">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="9">
-        <v>2</v>
-      </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9">
-        <v>1</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="D20" s="7">
+        <v>2</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10">
+        <v>1</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1</v>
+      </c>
+      <c r="H20" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I20" s="9" t="s">
+      <c r="I20" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J20" s="9">
-        <v>2</v>
-      </c>
-      <c r="K20" s="9">
+      <c r="J20" s="7">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7">
         <v>18</v>
       </c>
-      <c r="L20" s="9" t="s">
+      <c r="L20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="7">
         <v>3</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9" t="s">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="20"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="17"/>
     </row>
     <row r="21" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A21" s="11">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="12">
-        <v>2</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12">
-        <v>0</v>
-      </c>
-      <c r="H21" s="12" t="s">
+      <c r="D21" s="10">
+        <v>2</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10">
+        <v>1</v>
+      </c>
+      <c r="G21" s="10">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="12" t="s">
+      <c r="I21" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="J21" s="12">
+      <c r="J21" s="10">
         <v>3</v>
       </c>
-      <c r="K21" s="12">
+      <c r="K21" s="10">
         <v>19</v>
       </c>
-      <c r="L21" s="12" t="s">
+      <c r="L21" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="M21" s="12">
-        <v>2</v>
-      </c>
-      <c r="N21" s="12" t="s">
+      <c r="M21" s="10">
+        <v>2</v>
+      </c>
+      <c r="N21" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12" t="s">
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="12"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="12"/>
-      <c r="Y21" s="12"/>
-      <c r="Z21" s="12"/>
-      <c r="AA21" s="21"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="18"/>
     </row>
     <row r="22" ht="33" spans="1:27">
-      <c r="A22" s="8">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="9">
-        <v>2</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <v>1</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0</v>
-      </c>
-      <c r="H22" s="9" t="s">
+      <c r="D22" s="7">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="7">
         <v>4</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="7">
         <v>20</v>
       </c>
-      <c r="L22" s="9" t="s">
+      <c r="L22" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="7">
         <v>3</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9" t="s">
+      <c r="O22" s="7"/>
+      <c r="P22" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="20"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="17"/>
     </row>
     <row r="23" ht="39" customHeight="1" spans="1:27">
-      <c r="A23" s="11">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="12">
-        <v>2</v>
-      </c>
-      <c r="E23" s="12">
-        <v>1</v>
-      </c>
-      <c r="F23" s="14">
-        <v>1</v>
-      </c>
-      <c r="G23" s="12">
-        <v>2</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="D23" s="10">
+        <v>2</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>2</v>
+      </c>
+      <c r="H23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J23" s="12">
-        <v>2</v>
-      </c>
-      <c r="K23" s="12">
+      <c r="J23" s="10">
+        <v>2</v>
+      </c>
+      <c r="K23" s="10">
         <v>18</v>
       </c>
-      <c r="L23" s="12" t="s">
+      <c r="L23" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="M23" s="12">
+      <c r="M23" s="10">
         <v>3</v>
       </c>
-      <c r="N23" s="12" t="s">
+      <c r="N23" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12" t="s">
+      <c r="O23" s="10"/>
+      <c r="P23" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="21"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="18"/>
     </row>
     <row r="24" ht="49.5" spans="1:27">
-      <c r="A24" s="8">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D24" s="9">
-        <v>2</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0</v>
-      </c>
-      <c r="F24" s="14">
-        <v>1</v>
-      </c>
-      <c r="G24" s="9">
-        <v>0</v>
-      </c>
-      <c r="H24" s="9" t="s">
+      <c r="D24" s="7">
+        <v>2</v>
+      </c>
+      <c r="E24" s="7">
+        <v>0</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="7">
         <v>3</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="7">
         <v>22</v>
       </c>
-      <c r="L24" s="9" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="M24" s="9">
-        <v>2</v>
-      </c>
-      <c r="N24" s="9" t="s">
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9" t="s">
+      <c r="O24" s="7"/>
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="20"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="17"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A25" s="11">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="12">
-        <v>2</v>
-      </c>
-      <c r="E25" s="12">
-        <v>0</v>
-      </c>
-      <c r="F25" s="14">
-        <v>1</v>
-      </c>
-      <c r="G25" s="12">
-        <v>0</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="D25" s="10">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0</v>
+      </c>
+      <c r="F25" s="10">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I25" s="12" t="s">
+      <c r="I25" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="J25" s="12">
+      <c r="J25" s="10">
         <v>4</v>
       </c>
-      <c r="K25" s="12">
+      <c r="K25" s="10">
         <v>23</v>
       </c>
-      <c r="L25" s="12" t="s">
+      <c r="L25" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="12">
+      <c r="M25" s="10">
         <v>3</v>
       </c>
-      <c r="N25" s="12" t="s">
+      <c r="N25" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12" t="s">
+      <c r="O25" s="10"/>
+      <c r="P25" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="21"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="18"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A26" s="8">
+      <c r="A26" s="6">
         <v>25</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="D26" s="9">
-        <v>2</v>
-      </c>
-      <c r="E26" s="9">
-        <v>0</v>
-      </c>
-      <c r="F26" s="14">
-        <v>1</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0</v>
-      </c>
-      <c r="H26" s="9" t="s">
+      <c r="D26" s="7">
+        <v>2</v>
+      </c>
+      <c r="E26" s="7">
+        <v>0</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="9" t="s">
+      <c r="I26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <v>99</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9" t="s">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="7">
         <v>5</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9" t="s">
+      <c r="O26" s="7"/>
+      <c r="P26" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="20"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="17"/>
     </row>
     <row r="27" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A27" s="11">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D27" s="12">
-        <v>2</v>
-      </c>
-      <c r="E27" s="12">
-        <v>0</v>
-      </c>
-      <c r="F27" s="14">
-        <v>1</v>
-      </c>
-      <c r="G27" s="12">
-        <v>0</v>
-      </c>
-      <c r="H27" s="12" t="s">
+      <c r="D27" s="10">
+        <v>2</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1</v>
+      </c>
+      <c r="G27" s="10">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="12" t="s">
+      <c r="I27" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J27" s="12">
+      <c r="J27" s="10">
         <v>99</v>
       </c>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12" t="s">
+      <c r="K27" s="10"/>
+      <c r="L27" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="12">
+      <c r="M27" s="10">
         <v>5</v>
       </c>
-      <c r="N27" s="12" t="s">
+      <c r="N27" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12" t="s">
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="12"/>
-      <c r="AA27" s="21"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="18"/>
     </row>
     <row r="28" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A28" s="8">
+      <c r="A28" s="6">
         <v>27</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="D28" s="9">
-        <v>2</v>
-      </c>
-      <c r="E28" s="9">
-        <v>0</v>
-      </c>
-      <c r="F28" s="14">
-        <v>1</v>
-      </c>
-      <c r="G28" s="9">
-        <v>0</v>
-      </c>
-      <c r="H28" s="9" t="s">
+      <c r="D28" s="7">
+        <v>2</v>
+      </c>
+      <c r="E28" s="7">
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <v>1</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>99</v>
       </c>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9" t="s">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="7">
         <v>5</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9" t="s">
+      <c r="O28" s="7"/>
+      <c r="P28" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="20"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="17"/>
     </row>
     <row r="29" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A29" s="11">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="12">
-        <v>2</v>
-      </c>
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="14">
-        <v>1</v>
-      </c>
-      <c r="G29" s="12">
-        <v>0</v>
-      </c>
-      <c r="H29" s="12" t="s">
+      <c r="D29" s="10">
+        <v>2</v>
+      </c>
+      <c r="E29" s="10">
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <v>1</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0</v>
+      </c>
+      <c r="H29" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I29" s="12" t="s">
+      <c r="I29" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J29" s="12">
+      <c r="J29" s="10">
         <v>99</v>
       </c>
-      <c r="K29" s="12"/>
-      <c r="L29" s="12" t="s">
+      <c r="K29" s="10"/>
+      <c r="L29" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="12">
+      <c r="M29" s="10">
         <v>5</v>
       </c>
-      <c r="N29" s="12" t="s">
+      <c r="N29" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O29" s="12"/>
-      <c r="P29" s="12" t="s">
+      <c r="O29" s="10"/>
+      <c r="P29" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="12"/>
-      <c r="S29" s="12"/>
-      <c r="T29" s="12"/>
-      <c r="U29" s="12"/>
-      <c r="V29" s="12"/>
-      <c r="W29" s="12"/>
-      <c r="X29" s="12"/>
-      <c r="Y29" s="12"/>
-      <c r="Z29" s="12"/>
-      <c r="AA29" s="21"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="18"/>
     </row>
     <row r="30" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A30" s="8">
+      <c r="A30" s="6">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D30" s="9">
+      <c r="D30" s="7">
         <v>3</v>
       </c>
-      <c r="E30" s="9">
-        <v>1</v>
-      </c>
-      <c r="F30" s="14">
-        <v>1</v>
-      </c>
-      <c r="G30" s="9">
-        <v>0</v>
-      </c>
-      <c r="H30" s="9" t="s">
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="10">
+        <v>1</v>
+      </c>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
+      <c r="H30" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="I30" s="9" t="s">
+      <c r="I30" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="J30" s="9">
-        <v>1</v>
-      </c>
-      <c r="K30" s="9">
-        <v>0</v>
-      </c>
-      <c r="L30" s="9" t="s">
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="7">
+        <v>0</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="7">
         <v>5</v>
       </c>
-      <c r="N30" s="9" t="s">
+      <c r="N30" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9" t="s">
+      <c r="O30" s="7"/>
+      <c r="P30" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="R30" s="9" t="s">
+      <c r="R30" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="20"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="17"/>
     </row>
     <row r="31" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A31" s="11">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="10">
         <v>3</v>
       </c>
-      <c r="E31" s="12">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14">
-        <v>1</v>
-      </c>
-      <c r="G31" s="12">
-        <v>0</v>
-      </c>
-      <c r="H31" s="12" t="s">
+      <c r="E31" s="10">
+        <v>1</v>
+      </c>
+      <c r="F31" s="10">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I31" s="12" t="s">
+      <c r="I31" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="J31" s="12">
-        <v>2</v>
-      </c>
-      <c r="K31" s="12">
+      <c r="J31" s="10">
+        <v>2</v>
+      </c>
+      <c r="K31" s="10">
         <v>29</v>
       </c>
-      <c r="L31" s="12" t="s">
+      <c r="L31" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="M31" s="12">
-        <v>2</v>
-      </c>
-      <c r="N31" s="12" t="s">
+      <c r="M31" s="10">
+        <v>2</v>
+      </c>
+      <c r="N31" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="O31" s="12"/>
-      <c r="P31" s="12" t="s">
+      <c r="O31" s="10"/>
+      <c r="P31" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="12"/>
-      <c r="S31" s="12"/>
-      <c r="T31" s="12"/>
-      <c r="U31" s="12"/>
-      <c r="V31" s="12"/>
-      <c r="W31" s="12"/>
-      <c r="X31" s="12"/>
-      <c r="Y31" s="12"/>
-      <c r="Z31" s="12"/>
-      <c r="AA31" s="21"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="18"/>
     </row>
     <row r="32" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A32" s="8">
+      <c r="A32" s="6">
         <v>31</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="7">
         <v>3</v>
       </c>
-      <c r="E32" s="9">
-        <v>0</v>
-      </c>
-      <c r="F32" s="14">
-        <v>1</v>
-      </c>
-      <c r="G32" s="9">
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
         <v>4</v>
       </c>
-      <c r="H32" s="9" t="s">
+      <c r="H32" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I32" s="9" t="s">
+      <c r="I32" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="7">
         <v>3</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="7">
         <v>30</v>
       </c>
-      <c r="L32" s="9" t="s">
+      <c r="L32" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="9">
-        <v>2</v>
-      </c>
-      <c r="N32" s="9" t="s">
+      <c r="M32" s="7">
+        <v>2</v>
+      </c>
+      <c r="N32" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9" t="s">
+      <c r="O32" s="7"/>
+      <c r="P32" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="20"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="17"/>
     </row>
     <row r="33" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A33" s="11">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="10">
         <v>3</v>
       </c>
-      <c r="E33" s="12">
-        <v>1</v>
-      </c>
-      <c r="F33" s="14">
-        <v>1</v>
-      </c>
-      <c r="G33" s="12">
-        <v>2</v>
-      </c>
-      <c r="H33" s="12" t="s">
+      <c r="E33" s="10">
+        <v>1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2</v>
+      </c>
+      <c r="H33" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="12" t="s">
+      <c r="I33" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="J33" s="12">
-        <v>2</v>
-      </c>
-      <c r="K33" s="12">
+      <c r="J33" s="10">
+        <v>2</v>
+      </c>
+      <c r="K33" s="10">
         <v>29</v>
       </c>
-      <c r="L33" s="12" t="s">
+      <c r="L33" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="M33" s="12">
-        <v>2</v>
-      </c>
-      <c r="N33" s="12" t="s">
+      <c r="M33" s="10">
+        <v>2</v>
+      </c>
+      <c r="N33" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="O33" s="12"/>
-      <c r="P33" s="12" t="s">
+      <c r="O33" s="10"/>
+      <c r="P33" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="12"/>
-      <c r="S33" s="12"/>
-      <c r="T33" s="12"/>
-      <c r="U33" s="12"/>
-      <c r="V33" s="12"/>
-      <c r="W33" s="12"/>
-      <c r="X33" s="12"/>
-      <c r="Y33" s="12"/>
-      <c r="Z33" s="12"/>
-      <c r="AA33" s="21"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="18"/>
     </row>
     <row r="34" customFormat="1" ht="72" customHeight="1" spans="1:27">
-      <c r="A34" s="8">
+      <c r="A34" s="6">
         <v>33</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D34" s="9">
+      <c r="D34" s="7">
         <v>3</v>
       </c>
-      <c r="E34" s="9">
-        <v>0</v>
-      </c>
-      <c r="F34" s="14">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0</v>
-      </c>
-      <c r="H34" s="9" t="s">
+      <c r="E34" s="7">
+        <v>0</v>
+      </c>
+      <c r="F34" s="10">
+        <v>1</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="9" t="s">
+      <c r="I34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <v>3</v>
       </c>
-      <c r="K34" s="9">
+      <c r="K34" s="7">
         <v>32</v>
       </c>
-      <c r="L34" s="9" t="s">
+      <c r="L34" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M34" s="9">
+      <c r="M34" s="7">
         <v>3</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9" t="s">
+      <c r="O34" s="7"/>
+      <c r="P34" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="R34" s="9" t="s">
+      <c r="R34" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="20"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="17"/>
     </row>
     <row r="35" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A35" s="11">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="10">
         <v>3</v>
       </c>
-      <c r="E35" s="12">
-        <v>1</v>
-      </c>
-      <c r="F35" s="14">
-        <v>1</v>
-      </c>
-      <c r="G35" s="12">
-        <v>0</v>
-      </c>
-      <c r="H35" s="12" t="s">
+      <c r="E35" s="10">
+        <v>1</v>
+      </c>
+      <c r="F35" s="10">
+        <v>1</v>
+      </c>
+      <c r="G35" s="10">
+        <v>0</v>
+      </c>
+      <c r="H35" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I35" s="12" t="s">
+      <c r="I35" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="J35" s="12">
-        <v>1</v>
-      </c>
-      <c r="K35" s="12">
-        <v>0</v>
-      </c>
-      <c r="L35" s="12" t="s">
+      <c r="J35" s="10">
+        <v>1</v>
+      </c>
+      <c r="K35" s="10">
+        <v>0</v>
+      </c>
+      <c r="L35" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="M35" s="12">
+      <c r="M35" s="10">
         <v>5</v>
       </c>
-      <c r="N35" s="12" t="s">
+      <c r="N35" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="O35" s="12"/>
-      <c r="P35" s="12" t="s">
+      <c r="O35" s="10"/>
+      <c r="P35" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="Q35" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="R35" s="12" t="s">
+      <c r="R35" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="S35" s="12"/>
-      <c r="T35" s="12"/>
-      <c r="U35" s="12"/>
-      <c r="V35" s="12"/>
-      <c r="W35" s="12"/>
-      <c r="X35" s="12"/>
-      <c r="Y35" s="12"/>
-      <c r="Z35" s="12"/>
-      <c r="AA35" s="21"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="18"/>
     </row>
     <row r="36" customFormat="1" ht="55.5" customHeight="1" spans="1:27">
-      <c r="A36" s="8">
+      <c r="A36" s="6">
         <v>35</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="D36" s="9">
+      <c r="D36" s="7">
         <v>3</v>
       </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
-      <c r="F36" s="14">
-        <v>1</v>
-      </c>
-      <c r="G36" s="9">
-        <v>1</v>
-      </c>
-      <c r="H36" s="9" t="s">
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="7">
+        <v>1</v>
+      </c>
+      <c r="H36" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="I36" s="9" t="s">
+      <c r="I36" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="J36" s="9">
-        <v>2</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="J36" s="7">
+        <v>2</v>
+      </c>
+      <c r="K36" s="7">
         <v>34</v>
       </c>
-      <c r="L36" s="9" t="s">
+      <c r="L36" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="M36" s="9">
-        <v>2</v>
-      </c>
-      <c r="N36" s="9" t="s">
+      <c r="M36" s="7">
+        <v>2</v>
+      </c>
+      <c r="N36" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9" t="s">
+      <c r="O36" s="7"/>
+      <c r="P36" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="20"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="17"/>
     </row>
     <row r="37" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A37" s="11">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="10">
         <v>3</v>
       </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="14">
-        <v>1</v>
-      </c>
-      <c r="G37" s="12">
-        <v>0</v>
-      </c>
-      <c r="H37" s="12" t="s">
+      <c r="E37" s="10">
+        <v>0</v>
+      </c>
+      <c r="F37" s="10">
+        <v>1</v>
+      </c>
+      <c r="G37" s="10">
+        <v>0</v>
+      </c>
+      <c r="H37" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I37" s="12" t="s">
+      <c r="I37" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="J37" s="12">
+      <c r="J37" s="10">
         <v>3</v>
       </c>
-      <c r="K37" s="12">
+      <c r="K37" s="10">
         <v>35</v>
       </c>
-      <c r="L37" s="12" t="s">
+      <c r="L37" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M37" s="12">
-        <v>2</v>
-      </c>
-      <c r="N37" s="12" t="s">
+      <c r="M37" s="10">
+        <v>2</v>
+      </c>
+      <c r="N37" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12" t="s">
+      <c r="O37" s="10"/>
+      <c r="P37" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="12"/>
-      <c r="AA37" s="21"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="18"/>
     </row>
     <row r="38" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A38" s="8">
+      <c r="A38" s="6">
         <v>37</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C38" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D38" s="7">
         <v>3</v>
       </c>
-      <c r="E38" s="9">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14">
-        <v>1</v>
-      </c>
-      <c r="G38" s="9">
-        <v>0</v>
-      </c>
-      <c r="H38" s="9" t="s">
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I38" s="9" t="s">
+      <c r="I38" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="J38" s="9">
-        <v>2</v>
-      </c>
-      <c r="K38" s="9">
+      <c r="J38" s="7">
+        <v>2</v>
+      </c>
+      <c r="K38" s="7">
         <v>34</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="L38" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M38" s="9">
+      <c r="M38" s="7">
         <v>3</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9" t="s">
+      <c r="O38" s="7"/>
+      <c r="P38" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="20"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="17"/>
     </row>
     <row r="39" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A39" s="11">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C39" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="10">
         <v>3</v>
       </c>
-      <c r="E39" s="12">
-        <v>0</v>
-      </c>
-      <c r="F39" s="14">
-        <v>1</v>
-      </c>
-      <c r="G39" s="12">
-        <v>2</v>
-      </c>
-      <c r="H39" s="12" t="s">
+      <c r="E39" s="10">
+        <v>0</v>
+      </c>
+      <c r="F39" s="10">
+        <v>1</v>
+      </c>
+      <c r="G39" s="10">
+        <v>2</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I39" s="12" t="s">
+      <c r="I39" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="10">
         <v>3</v>
       </c>
-      <c r="K39" s="12">
+      <c r="K39" s="10">
         <v>37</v>
       </c>
-      <c r="L39" s="12" t="s">
+      <c r="L39" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M39" s="12">
-        <v>2</v>
-      </c>
-      <c r="N39" s="12" t="s">
+      <c r="M39" s="10">
+        <v>2</v>
+      </c>
+      <c r="N39" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="O39" s="12"/>
-      <c r="P39" s="12" t="s">
+      <c r="O39" s="10"/>
+      <c r="P39" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="12"/>
-      <c r="S39" s="12"/>
-      <c r="T39" s="12"/>
-      <c r="U39" s="12"/>
-      <c r="V39" s="12"/>
-      <c r="W39" s="12"/>
-      <c r="X39" s="12"/>
-      <c r="Y39" s="12"/>
-      <c r="Z39" s="12"/>
-      <c r="AA39" s="21"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="18"/>
     </row>
     <row r="40" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A40" s="8">
+      <c r="A40" s="6">
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="7">
         <v>3</v>
       </c>
-      <c r="E40" s="9">
-        <v>0</v>
-      </c>
-      <c r="F40" s="14">
-        <v>1</v>
-      </c>
-      <c r="G40" s="9">
-        <v>0</v>
-      </c>
-      <c r="H40" s="9" t="s">
+      <c r="E40" s="7">
+        <v>0</v>
+      </c>
+      <c r="F40" s="10">
+        <v>1</v>
+      </c>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
+      <c r="H40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="9" t="s">
+      <c r="I40" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="7">
         <v>99</v>
       </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9" t="s">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="7">
         <v>3</v>
       </c>
-      <c r="N40" s="9" t="s">
+      <c r="N40" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="9"/>
-      <c r="V40" s="9"/>
-      <c r="W40" s="9"/>
-      <c r="X40" s="9"/>
-      <c r="Y40" s="9"/>
-      <c r="Z40" s="9"/>
-      <c r="AA40" s="20"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A41" s="11">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="10" t="s">
         <v>242</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="10">
         <v>3</v>
       </c>
-      <c r="E41" s="12">
-        <v>0</v>
-      </c>
-      <c r="F41" s="14">
-        <v>1</v>
-      </c>
-      <c r="G41" s="12">
-        <v>0</v>
-      </c>
-      <c r="H41" s="12" t="s">
+      <c r="E41" s="10">
+        <v>0</v>
+      </c>
+      <c r="F41" s="10">
+        <v>1</v>
+      </c>
+      <c r="G41" s="10">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I41" s="12" t="s">
+      <c r="I41" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J41" s="12">
+      <c r="J41" s="10">
         <v>99</v>
       </c>
-      <c r="K41" s="12"/>
-      <c r="L41" s="12" t="s">
+      <c r="K41" s="10"/>
+      <c r="L41" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="M41" s="12">
+      <c r="M41" s="10">
         <v>5</v>
       </c>
-      <c r="N41" s="12" t="s">
+      <c r="N41" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O41" s="12"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-      <c r="R41" s="12"/>
-      <c r="S41" s="12"/>
-      <c r="T41" s="12"/>
-      <c r="U41" s="12"/>
-      <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="12"/>
-      <c r="Y41" s="12"/>
-      <c r="Z41" s="12"/>
-      <c r="AA41" s="21"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="18"/>
     </row>
     <row r="42" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A42" s="8">
+      <c r="A42" s="6">
         <v>41</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="7">
         <v>3</v>
       </c>
-      <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="14">
-        <v>1</v>
-      </c>
-      <c r="G42" s="9">
-        <v>0</v>
-      </c>
-      <c r="H42" s="9" t="s">
+      <c r="E42" s="7">
+        <v>0</v>
+      </c>
+      <c r="F42" s="10">
+        <v>1</v>
+      </c>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
+      <c r="H42" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I42" s="9" t="s">
+      <c r="I42" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="7">
         <v>99</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="9" t="s">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M42" s="9">
+      <c r="M42" s="7">
         <v>3</v>
       </c>
-      <c r="N42" s="9" t="s">
+      <c r="N42" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O42" s="9"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="9"/>
-      <c r="V42" s="9"/>
-      <c r="W42" s="9"/>
-      <c r="X42" s="9"/>
-      <c r="Y42" s="9"/>
-      <c r="Z42" s="9"/>
-      <c r="AA42" s="20"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="17"/>
     </row>
     <row r="43" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A43" s="11">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="10">
         <v>3</v>
       </c>
-      <c r="E43" s="12">
-        <v>0</v>
-      </c>
-      <c r="F43" s="14">
-        <v>1</v>
-      </c>
-      <c r="G43" s="12">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12" t="s">
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
+      <c r="F43" s="10">
+        <v>1</v>
+      </c>
+      <c r="G43" s="10">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="12" t="s">
+      <c r="I43" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J43" s="12">
+      <c r="J43" s="10">
         <v>99</v>
       </c>
-      <c r="K43" s="12"/>
-      <c r="L43" s="12" t="s">
+      <c r="K43" s="10"/>
+      <c r="L43" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="12">
+      <c r="M43" s="10">
         <v>5</v>
       </c>
-      <c r="N43" s="12" t="s">
+      <c r="N43" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O43" s="12"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
-      <c r="R43" s="12"/>
-      <c r="S43" s="12"/>
-      <c r="T43" s="12"/>
-      <c r="U43" s="12"/>
-      <c r="V43" s="12"/>
-      <c r="W43" s="12"/>
-      <c r="X43" s="12"/>
-      <c r="Y43" s="12"/>
-      <c r="Z43" s="12"/>
-      <c r="AA43" s="21"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="18"/>
     </row>
     <row r="44" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A44" s="8">
+      <c r="A44" s="6">
         <v>43</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="7">
         <v>3</v>
       </c>
-      <c r="E44" s="9">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14">
-        <v>1</v>
-      </c>
-      <c r="G44" s="9">
-        <v>0</v>
-      </c>
-      <c r="H44" s="9" t="s">
+      <c r="E44" s="7">
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <v>1</v>
+      </c>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I44" s="9" t="s">
+      <c r="I44" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="7">
         <v>99</v>
       </c>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9" t="s">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M44" s="9">
-        <v>2</v>
-      </c>
-      <c r="N44" s="9" t="s">
+      <c r="M44" s="7">
+        <v>2</v>
+      </c>
+      <c r="N44" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="U44" s="9"/>
-      <c r="V44" s="9"/>
-      <c r="W44" s="9"/>
-      <c r="X44" s="9"/>
-      <c r="Y44" s="9"/>
-      <c r="Z44" s="9"/>
-      <c r="AA44" s="20"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="17"/>
     </row>
     <row r="45" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A45" s="11">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C45" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="10">
         <v>3</v>
       </c>
-      <c r="E45" s="12">
-        <v>0</v>
-      </c>
-      <c r="F45" s="14">
-        <v>1</v>
-      </c>
-      <c r="G45" s="12">
-        <v>0</v>
-      </c>
-      <c r="H45" s="12" t="s">
+      <c r="E45" s="10">
+        <v>0</v>
+      </c>
+      <c r="F45" s="10">
+        <v>1</v>
+      </c>
+      <c r="G45" s="10">
+        <v>0</v>
+      </c>
+      <c r="H45" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J45" s="12">
+      <c r="J45" s="10">
         <v>99</v>
       </c>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12" t="s">
+      <c r="K45" s="10"/>
+      <c r="L45" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M45" s="12">
-        <v>2</v>
-      </c>
-      <c r="N45" s="12" t="s">
+      <c r="M45" s="10">
+        <v>2</v>
+      </c>
+      <c r="N45" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="12"/>
-      <c r="AA45" s="21"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
+      <c r="W45" s="10"/>
+      <c r="X45" s="10"/>
+      <c r="Y45" s="10"/>
+      <c r="Z45" s="10"/>
+      <c r="AA45" s="18"/>
     </row>
     <row r="46" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A46" s="8">
+      <c r="A46" s="6">
         <v>45</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D46" s="7">
         <v>4</v>
       </c>
-      <c r="E46" s="9">
-        <v>1</v>
-      </c>
-      <c r="F46" s="14">
-        <v>1</v>
-      </c>
-      <c r="G46" s="9">
-        <v>0</v>
-      </c>
-      <c r="H46" s="9" t="s">
+      <c r="E46" s="7">
+        <v>1</v>
+      </c>
+      <c r="F46" s="10">
+        <v>1</v>
+      </c>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
+      <c r="H46" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I46" s="9" t="s">
+      <c r="I46" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J46" s="9">
-        <v>1</v>
-      </c>
-      <c r="K46" s="9">
-        <v>0</v>
-      </c>
-      <c r="L46" s="9" t="s">
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="7">
+        <v>0</v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="M46" s="9">
+      <c r="M46" s="7">
         <v>3</v>
       </c>
-      <c r="N46" s="9" t="s">
+      <c r="N46" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="O46" s="9"/>
-      <c r="P46" s="9" t="s">
+      <c r="O46" s="7"/>
+      <c r="P46" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="9"/>
-      <c r="V46" s="9"/>
-      <c r="W46" s="9"/>
-      <c r="X46" s="9"/>
-      <c r="Y46" s="9"/>
-      <c r="Z46" s="9"/>
-      <c r="AA46" s="20"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="17"/>
     </row>
     <row r="47" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A47" s="11">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="10">
         <v>4</v>
       </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-      <c r="F47" s="14">
-        <v>1</v>
-      </c>
-      <c r="G47" s="12">
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
+      <c r="F47" s="10">
+        <v>1</v>
+      </c>
+      <c r="G47" s="10">
         <v>6</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I47" s="12" t="s">
+      <c r="I47" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="J47" s="12">
-        <v>2</v>
-      </c>
-      <c r="K47" s="12">
+      <c r="J47" s="10">
+        <v>2</v>
+      </c>
+      <c r="K47" s="10">
         <v>45</v>
       </c>
-      <c r="L47" s="12" t="s">
+      <c r="L47" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="M47" s="12">
-        <v>2</v>
-      </c>
-      <c r="N47" s="12" t="s">
+      <c r="M47" s="10">
+        <v>2</v>
+      </c>
+      <c r="N47" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12" t="s">
+      <c r="O47" s="10"/>
+      <c r="P47" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="12"/>
-      <c r="AA47" s="21"/>
+      <c r="R47" s="10"/>
+      <c r="S47" s="10"/>
+      <c r="T47" s="10"/>
+      <c r="U47" s="10"/>
+      <c r="V47" s="10"/>
+      <c r="W47" s="10"/>
+      <c r="X47" s="10"/>
+      <c r="Y47" s="10"/>
+      <c r="Z47" s="10"/>
+      <c r="AA47" s="18"/>
     </row>
     <row r="48" customFormat="1" ht="33" spans="1:27">
-      <c r="A48" s="8">
+      <c r="A48" s="6">
         <v>47</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="D48" s="9">
+      <c r="D48" s="7">
         <v>4</v>
       </c>
-      <c r="E48" s="9">
-        <v>0</v>
-      </c>
-      <c r="F48" s="14">
-        <v>1</v>
-      </c>
-      <c r="G48" s="9">
+      <c r="E48" s="7">
+        <v>0</v>
+      </c>
+      <c r="F48" s="10">
+        <v>1</v>
+      </c>
+      <c r="G48" s="7">
         <v>6</v>
       </c>
-      <c r="H48" s="9" t="s">
+      <c r="H48" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I48" s="9" t="s">
+      <c r="I48" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="7">
         <v>3</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="7">
         <v>46</v>
       </c>
-      <c r="L48" s="9" t="s">
+      <c r="L48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M48" s="9">
-        <v>2</v>
-      </c>
-      <c r="N48" s="9" t="s">
+      <c r="M48" s="7">
+        <v>2</v>
+      </c>
+      <c r="N48" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="O48" s="9"/>
-      <c r="P48" s="9" t="s">
+      <c r="O48" s="7"/>
+      <c r="P48" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="U48" s="9"/>
-      <c r="V48" s="9"/>
-      <c r="W48" s="9"/>
-      <c r="X48" s="9"/>
-      <c r="Y48" s="9"/>
-      <c r="Z48" s="9"/>
-      <c r="AA48" s="20"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="17"/>
     </row>
     <row r="49" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A49" s="11">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D49" s="10">
         <v>4</v>
       </c>
-      <c r="E49" s="12">
-        <v>1</v>
-      </c>
-      <c r="F49" s="14">
-        <v>1</v>
-      </c>
-      <c r="G49" s="12">
-        <v>0</v>
-      </c>
-      <c r="H49" s="12" t="s">
+      <c r="E49" s="10">
+        <v>1</v>
+      </c>
+      <c r="F49" s="10">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10">
+        <v>0</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="I49" s="12" t="s">
+      <c r="I49" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="J49" s="12">
-        <v>1</v>
-      </c>
-      <c r="K49" s="12">
-        <v>0</v>
-      </c>
-      <c r="L49" s="12" t="s">
+      <c r="J49" s="10">
+        <v>1</v>
+      </c>
+      <c r="K49" s="10">
+        <v>0</v>
+      </c>
+      <c r="L49" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="M49" s="12">
+      <c r="M49" s="10">
         <v>3</v>
       </c>
-      <c r="N49" s="12" t="s">
+      <c r="N49" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="O49" s="12"/>
-      <c r="P49" s="12" t="s">
+      <c r="O49" s="10"/>
+      <c r="P49" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="Q49" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="R49" s="12" t="s">
+      <c r="R49" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="S49" s="12"/>
-      <c r="T49" s="12"/>
-      <c r="U49" s="12"/>
-      <c r="V49" s="12"/>
-      <c r="W49" s="12"/>
-      <c r="X49" s="12"/>
-      <c r="Y49" s="12"/>
-      <c r="Z49" s="12"/>
-      <c r="AA49" s="21"/>
+      <c r="S49" s="10"/>
+      <c r="T49" s="10"/>
+      <c r="U49" s="10"/>
+      <c r="V49" s="10"/>
+      <c r="W49" s="10"/>
+      <c r="X49" s="10"/>
+      <c r="Y49" s="10"/>
+      <c r="Z49" s="10"/>
+      <c r="AA49" s="18"/>
     </row>
     <row r="50" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A50" s="8">
+      <c r="A50" s="6">
         <v>49</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D50" s="9">
+      <c r="D50" s="7">
         <v>4</v>
       </c>
-      <c r="E50" s="9">
-        <v>0</v>
-      </c>
-      <c r="F50" s="14">
-        <v>1</v>
-      </c>
-      <c r="G50" s="9">
-        <v>0</v>
-      </c>
-      <c r="H50" s="9" t="s">
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="10">
+        <v>1</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I50" s="9" t="s">
+      <c r="I50" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="J50" s="9">
-        <v>2</v>
-      </c>
-      <c r="K50" s="9">
+      <c r="J50" s="7">
+        <v>2</v>
+      </c>
+      <c r="K50" s="7">
         <v>48</v>
       </c>
-      <c r="L50" s="9" t="s">
+      <c r="L50" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="M50" s="9">
-        <v>2</v>
-      </c>
-      <c r="N50" s="9" t="s">
+      <c r="M50" s="7">
+        <v>2</v>
+      </c>
+      <c r="N50" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="O50" s="9"/>
-      <c r="P50" s="9" t="s">
+      <c r="O50" s="7"/>
+      <c r="P50" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="U50" s="9"/>
-      <c r="V50" s="9"/>
-      <c r="W50" s="9"/>
-      <c r="X50" s="9"/>
-      <c r="Y50" s="9"/>
-      <c r="Z50" s="9"/>
-      <c r="AA50" s="20"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="17"/>
     </row>
     <row r="51" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A51" s="11">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C51" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="10">
         <v>4</v>
       </c>
-      <c r="E51" s="12">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14">
-        <v>1</v>
-      </c>
-      <c r="G51" s="12">
-        <v>0</v>
-      </c>
-      <c r="H51" s="12" t="s">
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
+      <c r="F51" s="10">
+        <v>1</v>
+      </c>
+      <c r="G51" s="10">
+        <v>0</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="J51" s="12">
+      <c r="J51" s="10">
         <v>3</v>
       </c>
-      <c r="K51" s="12">
+      <c r="K51" s="10">
         <v>49</v>
       </c>
-      <c r="L51" s="12" t="s">
+      <c r="L51" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M51" s="12">
-        <v>1</v>
-      </c>
-      <c r="N51" s="12" t="s">
+      <c r="M51" s="10">
+        <v>1</v>
+      </c>
+      <c r="N51" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="O51" s="12"/>
-      <c r="P51" s="12"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="12"/>
-      <c r="S51" s="12"/>
-      <c r="T51" s="12"/>
-      <c r="U51" s="12"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
-      <c r="X51" s="12"/>
-      <c r="Y51" s="12"/>
-      <c r="Z51" s="12"/>
-      <c r="AA51" s="21"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+      <c r="R51" s="10"/>
+      <c r="S51" s="10"/>
+      <c r="T51" s="10"/>
+      <c r="U51" s="10"/>
+      <c r="V51" s="10"/>
+      <c r="W51" s="10"/>
+      <c r="X51" s="10"/>
+      <c r="Y51" s="10"/>
+      <c r="Z51" s="10"/>
+      <c r="AA51" s="18"/>
     </row>
     <row r="52" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A52" s="8">
+      <c r="A52" s="6">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="D52" s="9">
+      <c r="D52" s="7">
         <v>4</v>
       </c>
-      <c r="E52" s="9">
-        <v>0</v>
-      </c>
-      <c r="F52" s="14">
-        <v>1</v>
-      </c>
-      <c r="G52" s="9">
-        <v>0</v>
-      </c>
-      <c r="H52" s="9" t="s">
+      <c r="E52" s="7">
+        <v>0</v>
+      </c>
+      <c r="F52" s="10">
+        <v>1</v>
+      </c>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
+      <c r="H52" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I52" s="9" t="s">
+      <c r="I52" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <v>99</v>
       </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="9" t="s">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="7">
         <v>3</v>
       </c>
-      <c r="N52" s="9" t="s">
+      <c r="N52" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9"/>
-      <c r="AA52" s="20"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="17"/>
     </row>
     <row r="53" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A53" s="11">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="10">
         <v>4</v>
       </c>
-      <c r="E53" s="12">
-        <v>0</v>
-      </c>
-      <c r="F53" s="14">
-        <v>1</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0</v>
-      </c>
-      <c r="H53" s="12" t="s">
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10">
+        <v>0</v>
+      </c>
+      <c r="H53" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I53" s="12" t="s">
+      <c r="I53" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="J53" s="12">
+      <c r="J53" s="10">
         <v>99</v>
       </c>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12" t="s">
+      <c r="K53" s="10"/>
+      <c r="L53" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M53" s="12">
+      <c r="M53" s="10">
         <v>5</v>
       </c>
-      <c r="N53" s="12" t="s">
+      <c r="N53" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="12"/>
-      <c r="AA53" s="21"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+      <c r="R53" s="10"/>
+      <c r="S53" s="10"/>
+      <c r="T53" s="10"/>
+      <c r="U53" s="10"/>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10"/>
+      <c r="AA53" s="18"/>
     </row>
     <row r="54" customFormat="1" ht="22.5" customHeight="1" spans="1:27">
-      <c r="A54" s="8">
+      <c r="A54" s="6">
         <v>53</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="7">
         <v>4</v>
       </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14">
-        <v>1</v>
-      </c>
-      <c r="G54" s="9">
-        <v>0</v>
-      </c>
-      <c r="H54" s="9" t="s">
+      <c r="E54" s="7">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>1</v>
+      </c>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
+      <c r="H54" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="9" t="s">
+      <c r="I54" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="7">
         <v>99</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="9" t="s">
+      <c r="K54" s="7"/>
+      <c r="L54" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="7">
         <v>3</v>
       </c>
-      <c r="N54" s="9" t="s">
+      <c r="N54" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="O54" s="9"/>
-      <c r="P54" s="9"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9"/>
-      <c r="AA54" s="20"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="17"/>
     </row>
     <row r="55" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A55" s="11">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C55" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="10">
         <v>5</v>
       </c>
-      <c r="E55" s="12">
-        <v>1</v>
-      </c>
-      <c r="F55" s="14">
-        <v>1</v>
-      </c>
-      <c r="G55" s="12">
-        <v>0</v>
-      </c>
-      <c r="H55" s="12" t="s">
+      <c r="E55" s="10">
+        <v>1</v>
+      </c>
+      <c r="F55" s="10">
+        <v>1</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0</v>
+      </c>
+      <c r="H55" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="I55" s="12" t="s">
+      <c r="I55" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="J55" s="12">
-        <v>1</v>
-      </c>
-      <c r="K55" s="12">
-        <v>0</v>
-      </c>
-      <c r="L55" s="12" t="s">
+      <c r="J55" s="10">
+        <v>1</v>
+      </c>
+      <c r="K55" s="10">
+        <v>0</v>
+      </c>
+      <c r="L55" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="M55" s="12">
-        <v>1</v>
-      </c>
-      <c r="N55" s="12" t="s">
+      <c r="M55" s="10">
+        <v>1</v>
+      </c>
+      <c r="N55" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12" t="s">
+      <c r="O55" s="10"/>
+      <c r="P55" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="Q55" s="12" t="s">
+      <c r="Q55" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="12"/>
-      <c r="AA55" s="21"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="18"/>
     </row>
     <row r="56" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A56" s="8">
+      <c r="A56" s="6">
         <v>55</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="D56" s="9">
+      <c r="D56" s="7">
         <v>5</v>
       </c>
-      <c r="E56" s="9">
-        <v>0</v>
-      </c>
-      <c r="F56" s="14">
-        <v>1</v>
-      </c>
-      <c r="G56" s="9">
-        <v>2</v>
-      </c>
-      <c r="H56" s="9" t="s">
+      <c r="E56" s="7">
+        <v>0</v>
+      </c>
+      <c r="F56" s="10">
+        <v>1</v>
+      </c>
+      <c r="G56" s="7">
+        <v>2</v>
+      </c>
+      <c r="H56" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I56" s="12" t="s">
+      <c r="I56" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="J56" s="9">
-        <v>2</v>
-      </c>
-      <c r="K56" s="9">
+      <c r="J56" s="7">
+        <v>2</v>
+      </c>
+      <c r="K56" s="7">
         <v>54</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="M56" s="9">
-        <v>1</v>
-      </c>
-      <c r="N56" s="9" t="s">
+      <c r="M56" s="7">
+        <v>1</v>
+      </c>
+      <c r="N56" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="O56" s="9"/>
-      <c r="P56" s="9" t="s">
+      <c r="O56" s="7"/>
+      <c r="P56" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="Q56" s="9"/>
-      <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="T56" s="9"/>
-      <c r="U56" s="9"/>
-      <c r="V56" s="9"/>
-      <c r="W56" s="9"/>
-      <c r="X56" s="9"/>
-      <c r="Y56" s="9"/>
-      <c r="Z56" s="9"/>
-      <c r="AA56" s="20"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="17"/>
     </row>
     <row r="57" customFormat="1" ht="39" customHeight="1" spans="1:27">
-      <c r="A57" s="11">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="10">
         <v>5</v>
       </c>
-      <c r="E57" s="12">
-        <v>0</v>
-      </c>
-      <c r="F57" s="14">
-        <v>1</v>
-      </c>
-      <c r="G57" s="12">
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="10">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10">
         <v>4</v>
       </c>
-      <c r="H57" s="12" t="s">
+      <c r="H57" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I57" s="12" t="s">
+      <c r="I57" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="J57" s="12">
-        <v>2</v>
-      </c>
-      <c r="K57" s="12">
+      <c r="J57" s="10">
+        <v>2</v>
+      </c>
+      <c r="K57" s="10">
         <v>54</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="L57" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="M57" s="12">
-        <v>1</v>
-      </c>
-      <c r="N57" s="12" t="s">
+      <c r="M57" s="10">
+        <v>1</v>
+      </c>
+      <c r="N57" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="O57" s="12"/>
-      <c r="P57" s="12" t="s">
+      <c r="O57" s="10"/>
+      <c r="P57" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="Q57" s="12" t="s">
+      <c r="Q57" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="R57" s="12"/>
-      <c r="S57" s="12"/>
-      <c r="T57" s="12"/>
-      <c r="U57" s="12"/>
-      <c r="V57" s="12"/>
-      <c r="W57" s="12"/>
-      <c r="X57" s="12"/>
-      <c r="Y57" s="12"/>
-      <c r="Z57" s="12"/>
-      <c r="AA57" s="21"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="18"/>
     </row>
     <row r="58" customFormat="1" ht="50.25" spans="1:27">
-      <c r="A58" s="15">
+      <c r="A58" s="12">
         <v>57</v>
       </c>
-      <c r="B58" s="16" t="s">
+      <c r="B58" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="C58" s="17" t="s">
+      <c r="C58" s="14" t="s">
         <v>308</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="13">
         <v>5</v>
       </c>
-      <c r="E58" s="16">
-        <v>0</v>
-      </c>
-      <c r="F58" s="14">
-        <v>1</v>
-      </c>
-      <c r="G58" s="16">
-        <v>1</v>
-      </c>
-      <c r="H58" s="16" t="s">
+      <c r="E58" s="13">
+        <v>0</v>
+      </c>
+      <c r="F58" s="10">
+        <v>1</v>
+      </c>
+      <c r="G58" s="13">
+        <v>1</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I58" s="12" t="s">
+      <c r="I58" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="J58" s="16">
-        <v>2</v>
-      </c>
-      <c r="K58" s="16">
+      <c r="J58" s="13">
+        <v>2</v>
+      </c>
+      <c r="K58" s="13">
         <v>54</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="L58" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="M58" s="16">
-        <v>1</v>
-      </c>
-      <c r="N58" s="16" t="s">
+      <c r="M58" s="13">
+        <v>1</v>
+      </c>
+      <c r="N58" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="O58" s="16"/>
-      <c r="P58" s="16" t="s">
+      <c r="O58" s="13"/>
+      <c r="P58" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="Q58" s="16" t="s">
+      <c r="Q58" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="R58" s="16"/>
-      <c r="S58" s="16"/>
-      <c r="T58" s="16"/>
-      <c r="U58" s="16"/>
-      <c r="V58" s="16"/>
-      <c r="W58" s="16"/>
-      <c r="X58" s="16"/>
-      <c r="Y58" s="16"/>
-      <c r="Z58" s="16"/>
-      <c r="AA58" s="22"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+      <c r="X58" s="13"/>
+      <c r="Y58" s="13"/>
+      <c r="Z58" s="13"/>
+      <c r="AA58" s="19"/>
     </row>
     <row r="59" ht="14.25"/>
   </sheetData>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="332">
   <si>
     <t>下标</t>
   </si>
@@ -722,6 +722,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>1级解锁:箭雨技能赋予火元素效果，伤害变为火元素伤害。
 2级解锁:该技能造成</t>
     </r>
@@ -758,6 +764,12 @@
   </si>
   <si>
     <t>level 1 2</t>
+  </si>
+  <si>
+    <t>burn_dmg 50</t>
+  </si>
+  <si>
+    <t>burn_duration 5</t>
   </si>
   <si>
     <t>焚身</t>
@@ -2283,31 +2295,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{05126B25-15CF-4B5F-882D-35F8C00BB890}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{17FC7178-F640-440B-81C0-956C6D60EC35}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{DF653C29-C262-4CEA-A3A8-0AF18A0BF39E}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{8359BFFA-954A-4AF3-AEDD-7C747AC55229}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{873C66FA-7018-4EAC-86B0-05367C8CE37D}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{7BC0D284-8AF8-43AE-BC44-163EF1BD529E}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{0D3624E6-3938-44C4-96AD-34402FD70A86}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E3B64723-DCF4-4C4B-983D-2BF232C18920}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{91EC4596-CF73-4400-A9A9-A1978BB020EB}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FFD60C8F-E8F7-4C5C-8ED4-EF7499EB5424}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2614,18 +2626,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA58"/>
+  <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C30" sqref="C30"/>
+      <selection pane="topRight" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.675" customWidth="1"/>
-    <col min="2" max="2" width="29.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
     <col min="3" max="3" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.0083333333333" customWidth="1"/>
     <col min="5" max="5" width="12.175" customWidth="1"/>
@@ -2641,7 +2653,7 @@
     <col min="15" max="15" width="15.175" style="2" customWidth="1"/>
     <col min="16" max="16" width="28.3416666666667" style="2" customWidth="1"/>
     <col min="17" max="17" width="24.3416666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13.0083333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13" style="2" customWidth="1"/>
     <col min="19" max="21" width="4.24166666666667" style="2" customWidth="1"/>
     <col min="22" max="22" width="6.675" style="2" customWidth="1"/>
     <col min="23" max="23" width="15.3416666666667" style="2" customWidth="1"/>
@@ -3863,7 +3875,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>137</v>
@@ -4843,8 +4855,12 @@
       <c r="P36" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
+      <c r="Q36" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>233</v>
+      </c>
       <c r="S36" s="6"/>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
@@ -4860,10 +4876,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D37" s="9">
         <v>3</v>
@@ -4900,7 +4916,7 @@
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -4919,10 +4935,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -4940,7 +4956,7 @@
         <v>195</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
@@ -4949,20 +4965,20 @@
         <v>34</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M38" s="6">
         <v>3</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -4980,10 +4996,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D39" s="9">
         <v>3</v>
@@ -5001,7 +5017,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="J39" s="9">
         <v>3</v>
@@ -5016,11 +5032,11 @@
         <v>2</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -5039,10 +5055,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
@@ -5073,7 +5089,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -5094,10 +5110,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D41" s="9">
         <v>3</v>
@@ -5122,13 +5138,13 @@
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M41" s="9">
         <v>5</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -5140,7 +5156,7 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5151,10 +5167,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -5185,7 +5201,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5206,10 +5222,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D43" s="9">
         <v>3</v>
@@ -5240,7 +5256,7 @@
         <v>5</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -5261,10 +5277,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -5295,7 +5311,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -5316,10 +5332,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
@@ -5350,7 +5366,7 @@
         <v>2</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -5371,10 +5387,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
@@ -5392,7 +5408,7 @@
         <v>195</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -5401,20 +5417,20 @@
         <v>0</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M46" s="6">
         <v>3</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -5432,10 +5448,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D47" s="9">
         <v>4</v>
@@ -5453,7 +5469,7 @@
         <v>36</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J47" s="9">
         <v>2</v>
@@ -5462,20 +5478,20 @@
         <v>45</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M47" s="9">
         <v>2</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
@@ -5493,10 +5509,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D48" s="6">
         <v>4</v>
@@ -5514,7 +5530,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="J48" s="6">
         <v>3</v>
@@ -5529,11 +5545,11 @@
         <v>2</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -5552,10 +5568,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D49" s="9">
         <v>4</v>
@@ -5573,7 +5589,7 @@
         <v>227</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
@@ -5582,23 +5598,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M49" s="9">
         <v>3</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -5615,10 +5631,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -5636,7 +5652,7 @@
         <v>36</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J50" s="6">
         <v>2</v>
@@ -5645,17 +5661,17 @@
         <v>48</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M50" s="6">
         <v>2</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
@@ -5674,10 +5690,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D51" s="9">
         <v>4</v>
@@ -5695,7 +5711,7 @@
         <v>36</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="J51" s="9">
         <v>3</v>
@@ -5710,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -5731,10 +5747,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -5765,7 +5781,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -5777,10 +5793,10 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="15"/>
@@ -5790,10 +5806,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D53" s="9">
         <v>4</v>
@@ -5824,7 +5840,7 @@
         <v>5</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -5836,7 +5852,7 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -5847,10 +5863,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D54" s="6">
         <v>4</v>
@@ -5881,7 +5897,7 @@
         <v>3</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -5902,10 +5918,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D55" s="9">
         <v>5</v>
@@ -5923,7 +5939,7 @@
         <v>195</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J55" s="9">
         <v>1</v>
@@ -5932,20 +5948,20 @@
         <v>0</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M55" s="9">
         <v>1</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="9" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
@@ -5963,10 +5979,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D56" s="6">
         <v>5</v>
@@ -5984,7 +6000,7 @@
         <v>36</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J56" s="6">
         <v>2</v>
@@ -5999,11 +6015,11 @@
         <v>1</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -6022,10 +6038,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D57" s="9">
         <v>5</v>
@@ -6043,7 +6059,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J57" s="9">
         <v>2</v>
@@ -6058,14 +6074,14 @@
         <v>1</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
@@ -6083,10 +6099,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -6104,7 +6120,7 @@
         <v>36</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J58" s="12">
         <v>2</v>
@@ -6119,14 +6135,14 @@
         <v>1</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="O58" s="12"/>
       <c r="P58" s="12" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
@@ -6139,6 +6155,7 @@
       <c r="Z58" s="12"/>
       <c r="AA58" s="17"/>
     </row>
+    <row r="59" ht="14.25"/>
   </sheetData>
   <autoFilter ref="A1:AA58">
     <extLst/>

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="333">
   <si>
     <t>下标</t>
   </si>
@@ -682,7 +682,7 @@
 爆炸范围：自身直径%radius%码。</t>
   </si>
   <si>
-    <t>abaddon_borrowed_time</t>
+    <t>hero/drow/暴雪</t>
   </si>
   <si>
     <t>record_pct 100</t>
@@ -776,6 +776,9 @@
   </si>
   <si>
     <t>箭雨对被灼烧的敌人造成伤害提高%extra_dmg_pct%%%</t>
+  </si>
+  <si>
+    <t>hero/drow/焚身</t>
   </si>
   <si>
     <t>extra_dmg_pct 50 100</t>
@@ -2295,31 +2298,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{17FC7178-F640-440B-81C0-956C6D60EC35}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{2270F1D3-C63B-46D0-88A3-1A6228DA5DEE}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{8359BFFA-954A-4AF3-AEDD-7C747AC55229}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D59104A5-8C65-43D7-AE6B-1C3B48686B26}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{7BC0D284-8AF8-43AE-BC44-163EF1BD529E}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{4FAC642E-0E48-43ED-B8DE-2BA0728BFA60}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{E3B64723-DCF4-4C4B-983D-2BF232C18920}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A5FC22F0-A340-404A-9654-BCE039C9E0D9}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{FFD60C8F-E8F7-4C5C-8ED4-EF7499EB5424}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{09627130-E7AB-46E3-9D3E-BB02CC031BA6}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2628,10 +2631,10 @@
   <sheetPr/>
   <dimension ref="A1:AA59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H20" sqref="H20"/>
+      <selection pane="topRight" activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4912,11 +4915,11 @@
         <v>2</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="O37" s="9"/>
       <c r="P37" s="9" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
@@ -4935,10 +4938,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D38" s="6">
         <v>3</v>
@@ -4956,7 +4959,7 @@
         <v>195</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J38" s="6">
         <v>2</v>
@@ -4965,20 +4968,20 @@
         <v>34</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M38" s="6">
         <v>3</v>
       </c>
       <c r="N38" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="O38" s="6"/>
       <c r="P38" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q38" s="6" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="R38" s="6"/>
       <c r="S38" s="6"/>
@@ -4996,10 +4999,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D39" s="9">
         <v>3</v>
@@ -5017,7 +5020,7 @@
         <v>36</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J39" s="9">
         <v>3</v>
@@ -5032,11 +5035,11 @@
         <v>2</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="O39" s="9"/>
       <c r="P39" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
@@ -5055,10 +5058,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D40" s="6">
         <v>3</v>
@@ -5089,7 +5092,7 @@
         <v>3</v>
       </c>
       <c r="N40" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -5110,10 +5113,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D41" s="9">
         <v>3</v>
@@ -5138,13 +5141,13 @@
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M41" s="9">
         <v>5</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
@@ -5156,7 +5159,7 @@
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
@@ -5167,10 +5170,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -5201,7 +5204,7 @@
         <v>3</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O42" s="6"/>
       <c r="P42" s="6"/>
@@ -5222,10 +5225,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D43" s="9">
         <v>3</v>
@@ -5256,7 +5259,7 @@
         <v>5</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O43" s="9"/>
       <c r="P43" s="9"/>
@@ -5277,10 +5280,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -5311,7 +5314,7 @@
         <v>2</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O44" s="6"/>
       <c r="P44" s="6"/>
@@ -5332,10 +5335,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
@@ -5366,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O45" s="9"/>
       <c r="P45" s="9"/>
@@ -5387,10 +5390,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
@@ -5408,7 +5411,7 @@
         <v>195</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -5417,20 +5420,20 @@
         <v>0</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M46" s="6">
         <v>3</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -5448,10 +5451,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D47" s="9">
         <v>4</v>
@@ -5469,7 +5472,7 @@
         <v>36</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J47" s="9">
         <v>2</v>
@@ -5478,20 +5481,20 @@
         <v>45</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M47" s="9">
         <v>2</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
@@ -5509,10 +5512,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D48" s="6">
         <v>4</v>
@@ -5530,7 +5533,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J48" s="6">
         <v>3</v>
@@ -5545,11 +5548,11 @@
         <v>2</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -5568,10 +5571,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D49" s="9">
         <v>4</v>
@@ -5589,7 +5592,7 @@
         <v>227</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
@@ -5598,23 +5601,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M49" s="9">
         <v>3</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -5631,10 +5634,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -5652,7 +5655,7 @@
         <v>36</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J50" s="6">
         <v>2</v>
@@ -5661,17 +5664,17 @@
         <v>48</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M50" s="6">
         <v>2</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
@@ -5690,10 +5693,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D51" s="9">
         <v>4</v>
@@ -5711,7 +5714,7 @@
         <v>36</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J51" s="9">
         <v>3</v>
@@ -5726,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -5747,10 +5750,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -5781,7 +5784,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -5793,10 +5796,10 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Z52" s="6"/>
       <c r="AA52" s="15"/>
@@ -5806,10 +5809,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D53" s="9">
         <v>4</v>
@@ -5840,7 +5843,7 @@
         <v>5</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -5852,7 +5855,7 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
@@ -5863,10 +5866,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D54" s="6">
         <v>4</v>
@@ -5897,7 +5900,7 @@
         <v>3</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="O54" s="6"/>
       <c r="P54" s="6"/>
@@ -5918,10 +5921,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D55" s="9">
         <v>5</v>
@@ -5939,7 +5942,7 @@
         <v>195</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J55" s="9">
         <v>1</v>
@@ -5948,20 +5951,20 @@
         <v>0</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M55" s="9">
         <v>1</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="9" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
@@ -5979,10 +5982,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D56" s="6">
         <v>5</v>
@@ -6000,7 +6003,7 @@
         <v>36</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J56" s="6">
         <v>2</v>
@@ -6015,11 +6018,11 @@
         <v>1</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -6038,10 +6041,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D57" s="9">
         <v>5</v>
@@ -6059,7 +6062,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J57" s="9">
         <v>2</v>
@@ -6074,14 +6077,14 @@
         <v>1</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
@@ -6099,10 +6102,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D58" s="12">
         <v>5</v>
@@ -6120,7 +6123,7 @@
         <v>36</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="J58" s="12">
         <v>2</v>
@@ -6135,14 +6138,14 @@
         <v>1</v>
       </c>
       <c r="N58" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O58" s="12"/>
       <c r="P58" s="12" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q58" s="12" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="R58" s="12"/>
       <c r="S58" s="12"/>
@@ -6157,7 +6160,7 @@
     </row>
     <row r="59" ht="14.25"/>
   </sheetData>
-  <autoFilter ref="A1:AA58">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AA58" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="E$1:E$1048576">

--- a/excels/config/game/hero/talent_tree/drow_ranger.xlsx
+++ b/excels/config/game/hero/talent_tree/drow_ranger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="344">
   <si>
     <t>下标</t>
   </si>
@@ -826,6 +826,12 @@
     <t>hero/generic/全能</t>
   </si>
   <si>
+    <t>final_dmg 5 10 15</t>
+  </si>
+  <si>
+    <t>final_reduction 5 10 15</t>
+  </si>
+  <si>
     <t>灵活</t>
   </si>
   <si>
@@ -852,6 +858,9 @@
     <t>hero/generic/侥幸</t>
   </si>
   <si>
+    <t>dogde_heal_loss 10 15 20</t>
+  </si>
+  <si>
     <t>凌弱</t>
   </si>
   <si>
@@ -861,6 +870,9 @@
     <t>hero/generic/凌弱</t>
   </si>
   <si>
+    <t>bonus_crit 5 10 15 20 25</t>
+  </si>
+  <si>
     <t>潜能激发</t>
   </si>
   <si>
@@ -870,6 +882,12 @@
     <t>hero/generic/潜能激发</t>
   </si>
   <si>
+    <t>mana_low 20 30</t>
+  </si>
+  <si>
+    <t>res_mana 5</t>
+  </si>
+  <si>
     <t>治愈</t>
   </si>
   <si>
@@ -877,6 +895,12 @@
   </si>
   <si>
     <t>hero/generic/治愈</t>
+  </si>
+  <si>
+    <t>interval 5</t>
+  </si>
+  <si>
+    <t>heal_maxhp_pct 4 8</t>
   </si>
   <si>
     <t>能量恢复</t>
@@ -1018,6 +1042,15 @@
   </si>
   <si>
     <t>hero/generic/追猎</t>
+  </si>
+  <si>
+    <t>add_as_pct 10 20 30</t>
+  </si>
+  <si>
+    <t>add_mv_pct 20</t>
+  </si>
+  <si>
+    <t>duration 2</t>
   </si>
   <si>
     <t>复仇</t>
@@ -1261,7 +1294,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1271,6 +1304,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,7 +1794,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1779,16 +1818,16 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1797,89 +1836,89 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1912,6 +1951,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2298,31 +2343,31 @@
     </dxf>
   </dxfs>
   <tableStyles count="5" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{2270F1D3-C63B-46D0-88A3-1A6228DA5DEE}">
+    <tableStyle name="绿色中色系标题行镶边行表格样式" count="5" xr9:uid="{3EA3E160-FA82-48B5-A13C-0A0DB24B0A69}">
       <tableStyleElement type="wholeTable" dxfId="4"/>
       <tableStyleElement type="headerRow" dxfId="3"/>
       <tableStyleElement type="secondRowStripe" dxfId="2"/>
       <tableStyleElement type="firstColumnStripe" dxfId="1"/>
       <tableStyleElement type="secondColumnStripe" dxfId="0"/>
     </tableStyle>
-    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{D59104A5-8C65-43D7-AE6B-1C3B48686B26}">
+    <tableStyle name="蓝色镶边行表格样式" count="5" xr9:uid="{FB42E751-AB0E-4F4A-80DC-85760424774F}">
       <tableStyleElement type="wholeTable" dxfId="9"/>
       <tableStyleElement type="headerRow" dxfId="8"/>
       <tableStyleElement type="totalRow" dxfId="7"/>
       <tableStyleElement type="firstRowStripe" dxfId="6"/>
       <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{4FAC642E-0E48-43ED-B8DE-2BA0728BFA60}">
+    <tableStyle name="红色线条灰白相间表格样式" count="4" xr9:uid="{DE10384B-D36C-4F99-94FC-7D8B5E446418}">
       <tableStyleElement type="wholeTable" dxfId="13"/>
       <tableStyleElement type="headerRow" dxfId="12"/>
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="secondRowStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{A5FC22F0-A340-404A-9654-BCE039C9E0D9}">
+    <tableStyle name="黑色浅色系标题行表格样式" count="2" xr9:uid="{94572065-4C32-478D-9734-9B908546529E}">
       <tableStyleElement type="wholeTable" dxfId="15"/>
       <tableStyleElement type="headerRow" dxfId="14"/>
     </tableStyle>
-    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{09627130-E7AB-46E3-9D3E-BB02CC031BA6}">
+    <tableStyle name="黑色中色系标题行镶边行表格样式" count="3" xr9:uid="{35C41A2F-50FE-4F41-8D57-32BB2F7F076C}">
       <tableStyleElement type="wholeTable" dxfId="18"/>
       <tableStyleElement type="headerRow" dxfId="17"/>
       <tableStyleElement type="secondRowStripe" dxfId="16"/>
@@ -2628,13 +2673,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:AA59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <pane xSplit="3" topLeftCell="O1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="N10" sqref="N10"/>
+      <selection pane="topRight" activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2656,8 +2701,9 @@
     <col min="15" max="15" width="15.175" style="2" customWidth="1"/>
     <col min="16" max="16" width="28.3416666666667" style="2" customWidth="1"/>
     <col min="17" max="17" width="24.3416666666667" style="2" customWidth="1"/>
-    <col min="18" max="18" width="13" style="2" customWidth="1"/>
-    <col min="19" max="21" width="4.24166666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="16.625" style="2" customWidth="1"/>
+    <col min="19" max="19" width="27.875" style="2" customWidth="1"/>
+    <col min="20" max="21" width="4.24166666666667" style="2" customWidth="1"/>
     <col min="22" max="22" width="6.675" style="2" customWidth="1"/>
     <col min="23" max="23" width="15.3416666666667" style="2" customWidth="1"/>
     <col min="24" max="24" width="27.8416666666667" style="2" customWidth="1"/>
@@ -2745,11 +2791,11 @@
       <c r="Z1" s="4">
         <v>3</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AA1" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+    <row r="2" s="1" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -2828,11 +2874,11 @@
       <c r="Z2" s="6">
         <v>3</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" ht="51.5" customHeight="1" spans="1:27">
+    <row r="3" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A3" s="8">
         <v>1</v>
       </c>
@@ -2891,9 +2937,9 @@
       <c r="X3" s="10"/>
       <c r="Y3" s="9"/>
       <c r="Z3" s="9"/>
-      <c r="AA3" s="16"/>
+      <c r="AA3" s="18"/>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="1:27">
+    <row r="4" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2952,9 +2998,9 @@
       <c r="X4" s="7"/>
       <c r="Y4" s="6"/>
       <c r="Z4" s="6"/>
-      <c r="AA4" s="15"/>
+      <c r="AA4" s="17"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:27">
+    <row r="5" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A5" s="8">
         <v>3</v>
       </c>
@@ -3013,9 +3059,9 @@
       <c r="X5" s="10"/>
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
-      <c r="AA5" s="16"/>
+      <c r="AA5" s="18"/>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:27">
+    <row r="6" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -3074,9 +3120,9 @@
       <c r="X6" s="7"/>
       <c r="Y6" s="6"/>
       <c r="Z6" s="6"/>
-      <c r="AA6" s="15"/>
+      <c r="AA6" s="17"/>
     </row>
-    <row r="7" ht="51.5" customHeight="1" spans="1:27">
+    <row r="7" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A7" s="8">
         <v>5</v>
       </c>
@@ -3133,9 +3179,9 @@
       <c r="X7" s="10"/>
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
-      <c r="AA7" s="16"/>
+      <c r="AA7" s="18"/>
     </row>
-    <row r="8" ht="35" customHeight="1" spans="1:27">
+    <row r="8" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A8" s="5">
         <v>6</v>
       </c>
@@ -3192,9 +3238,9 @@
       <c r="X8" s="7"/>
       <c r="Y8" s="6"/>
       <c r="Z8" s="6"/>
-      <c r="AA8" s="15"/>
+      <c r="AA8" s="17"/>
     </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:27">
+    <row r="9" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3251,9 +3297,9 @@
       <c r="X9" s="10"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
-      <c r="AA9" s="16"/>
+      <c r="AA9" s="18"/>
     </row>
-    <row r="10" ht="35" customHeight="1" spans="1:27">
+    <row r="10" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -3310,9 +3356,9 @@
       <c r="X10" s="7"/>
       <c r="Y10" s="6"/>
       <c r="Z10" s="6"/>
-      <c r="AA10" s="15"/>
+      <c r="AA10" s="17"/>
     </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:27">
+    <row r="11" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3369,9 +3415,9 @@
       <c r="X11" s="10"/>
       <c r="Y11" s="9"/>
       <c r="Z11" s="9"/>
-      <c r="AA11" s="16"/>
+      <c r="AA11" s="18"/>
     </row>
-    <row r="12" ht="35" customHeight="1" spans="1:27">
+    <row r="12" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -3430,9 +3476,9 @@
       <c r="X12" s="7"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="6"/>
-      <c r="AA12" s="15"/>
+      <c r="AA12" s="17"/>
     </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:27">
+    <row r="13" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A13" s="8">
         <v>12</v>
       </c>
@@ -3489,9 +3535,9 @@
       <c r="X13" s="10"/>
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
-      <c r="AA13" s="16"/>
+      <c r="AA13" s="18"/>
     </row>
-    <row r="14" ht="35" customHeight="1" spans="1:27">
+    <row r="14" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -3552,9 +3598,9 @@
       <c r="X14" s="7"/>
       <c r="Y14" s="6"/>
       <c r="Z14" s="6"/>
-      <c r="AA14" s="15"/>
+      <c r="AA14" s="17"/>
     </row>
-    <row r="15" ht="35" customHeight="1" spans="1:27">
+    <row r="15" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A15" s="8">
         <v>14</v>
       </c>
@@ -3611,9 +3657,9 @@
       <c r="X15" s="10"/>
       <c r="Y15" s="9"/>
       <c r="Z15" s="9"/>
-      <c r="AA15" s="16"/>
+      <c r="AA15" s="18"/>
     </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:27">
+    <row r="16" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -3670,9 +3716,9 @@
       <c r="X16" s="7"/>
       <c r="Y16" s="6"/>
       <c r="Z16" s="6"/>
-      <c r="AA16" s="15"/>
+      <c r="AA16" s="17"/>
     </row>
-    <row r="17" ht="35" customHeight="1" spans="1:27">
+    <row r="17" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A17" s="8">
         <v>16</v>
       </c>
@@ -3729,9 +3775,9 @@
       <c r="X17" s="10"/>
       <c r="Y17" s="9"/>
       <c r="Z17" s="9"/>
-      <c r="AA17" s="16"/>
+      <c r="AA17" s="18"/>
     </row>
-    <row r="18" ht="51.5" customHeight="1" spans="1:27">
+    <row r="18" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A18" s="5">
         <v>17</v>
       </c>
@@ -3792,9 +3838,9 @@
       <c r="X18" s="7"/>
       <c r="Y18" s="6"/>
       <c r="Z18" s="6"/>
-      <c r="AA18" s="15"/>
+      <c r="AA18" s="17"/>
     </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:27">
+    <row r="19" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A19" s="8">
         <v>18</v>
       </c>
@@ -3853,9 +3899,9 @@
       <c r="X19" s="10"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="9"/>
-      <c r="AA19" s="16"/>
+      <c r="AA19" s="18"/>
     </row>
-    <row r="20" ht="35" customHeight="1" spans="1:27">
+    <row r="20" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A20" s="5">
         <v>19</v>
       </c>
@@ -3912,9 +3958,9 @@
       <c r="X20" s="7"/>
       <c r="Y20" s="6"/>
       <c r="Z20" s="6"/>
-      <c r="AA20" s="15"/>
+      <c r="AA20" s="17"/>
     </row>
-    <row r="21" ht="18.5" customHeight="1" spans="1:27">
+    <row r="21" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A21" s="8">
         <v>20</v>
       </c>
@@ -3971,9 +4017,9 @@
       <c r="X21" s="10"/>
       <c r="Y21" s="9"/>
       <c r="Z21" s="9"/>
-      <c r="AA21" s="16"/>
+      <c r="AA21" s="18"/>
     </row>
-    <row r="22" ht="35" customHeight="1" spans="1:27">
+    <row r="22" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A22" s="5">
         <v>21</v>
       </c>
@@ -4032,9 +4078,9 @@
       <c r="X22" s="7"/>
       <c r="Y22" s="6"/>
       <c r="Z22" s="6"/>
-      <c r="AA22" s="15"/>
+      <c r="AA22" s="17"/>
     </row>
-    <row r="23" ht="35" customHeight="1" spans="1:27">
+    <row r="23" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A23" s="8">
         <v>22</v>
       </c>
@@ -4091,9 +4137,9 @@
       <c r="X23" s="10"/>
       <c r="Y23" s="9"/>
       <c r="Z23" s="9"/>
-      <c r="AA23" s="16"/>
+      <c r="AA23" s="18"/>
     </row>
-    <row r="24" ht="51.5" customHeight="1" spans="1:27">
+    <row r="24" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A24" s="5">
         <v>23</v>
       </c>
@@ -4152,9 +4198,9 @@
       <c r="X24" s="7"/>
       <c r="Y24" s="6"/>
       <c r="Z24" s="6"/>
-      <c r="AA24" s="15"/>
+      <c r="AA24" s="17"/>
     </row>
-    <row r="25" ht="35" customHeight="1" spans="1:27">
+    <row r="25" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A25" s="8">
         <v>24</v>
       </c>
@@ -4211,7 +4257,7 @@
       <c r="X25" s="10"/>
       <c r="Y25" s="9"/>
       <c r="Z25" s="9"/>
-      <c r="AA25" s="16"/>
+      <c r="AA25" s="18"/>
     </row>
     <row r="26" ht="51.5" customHeight="1" spans="1:27">
       <c r="A26" s="5">
@@ -4268,13 +4314,13 @@
       </c>
       <c r="Y26" s="6"/>
       <c r="Z26" s="6"/>
-      <c r="AA26" s="15"/>
+      <c r="AA26" s="17"/>
     </row>
     <row r="27" ht="35" customHeight="1" spans="1:27">
       <c r="A27" s="8">
         <v>26</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="11" t="s">
         <v>171</v>
       </c>
       <c r="C27" s="10" t="s">
@@ -4327,7 +4373,7 @@
       <c r="X27" s="10"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="9"/>
-      <c r="AA27" s="16"/>
+      <c r="AA27" s="18"/>
     </row>
     <row r="28" ht="51.5" customHeight="1" spans="1:27">
       <c r="A28" s="5">
@@ -4384,7 +4430,7 @@
       </c>
       <c r="Y28" s="6"/>
       <c r="Z28" s="6"/>
-      <c r="AA28" s="15"/>
+      <c r="AA28" s="17"/>
     </row>
     <row r="29" ht="51.5" customHeight="1" spans="1:27">
       <c r="A29" s="8">
@@ -4441,9 +4487,9 @@
       </c>
       <c r="Y29" s="9"/>
       <c r="Z29" s="9"/>
-      <c r="AA29" s="16"/>
+      <c r="AA29" s="18"/>
     </row>
-    <row r="30" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="30" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A30" s="5">
         <v>29</v>
       </c>
@@ -4504,9 +4550,9 @@
       <c r="X30" s="7"/>
       <c r="Y30" s="6"/>
       <c r="Z30" s="6"/>
-      <c r="AA30" s="15"/>
+      <c r="AA30" s="17"/>
     </row>
-    <row r="31" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+    <row r="31" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A31" s="8">
         <v>30</v>
       </c>
@@ -4563,9 +4609,9 @@
       <c r="X31" s="10"/>
       <c r="Y31" s="9"/>
       <c r="Z31" s="9"/>
-      <c r="AA31" s="16"/>
+      <c r="AA31" s="18"/>
     </row>
-    <row r="32" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="32" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A32" s="5">
         <v>31</v>
       </c>
@@ -4624,9 +4670,9 @@
       <c r="X32" s="7"/>
       <c r="Y32" s="6"/>
       <c r="Z32" s="6"/>
-      <c r="AA32" s="15"/>
+      <c r="AA32" s="17"/>
     </row>
-    <row r="33" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="33" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A33" s="8">
         <v>32</v>
       </c>
@@ -4683,9 +4729,9 @@
       <c r="X33" s="10"/>
       <c r="Y33" s="9"/>
       <c r="Z33" s="9"/>
-      <c r="AA33" s="16"/>
+      <c r="AA33" s="18"/>
     </row>
-    <row r="34" customFormat="1" ht="84.5" customHeight="1" spans="1:27">
+    <row r="34" customFormat="1" ht="84.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A34" s="5">
         <v>33</v>
       </c>
@@ -4746,9 +4792,9 @@
       <c r="X34" s="7"/>
       <c r="Y34" s="6"/>
       <c r="Z34" s="6"/>
-      <c r="AA34" s="15"/>
+      <c r="AA34" s="17"/>
     </row>
-    <row r="35" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="35" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A35" s="8">
         <v>34</v>
       </c>
@@ -4809,9 +4855,9 @@
       <c r="X35" s="10"/>
       <c r="Y35" s="9"/>
       <c r="Z35" s="9"/>
-      <c r="AA35" s="16"/>
+      <c r="AA35" s="18"/>
     </row>
-    <row r="36" customFormat="1" ht="68" customHeight="1" spans="1:27">
+    <row r="36" customFormat="1" ht="68" hidden="1" customHeight="1" spans="1:27">
       <c r="A36" s="5">
         <v>35</v>
       </c>
@@ -4872,9 +4918,9 @@
       <c r="X36" s="7"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
-      <c r="AA36" s="15"/>
+      <c r="AA36" s="17"/>
     </row>
-    <row r="37" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="37" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A37" s="8">
         <v>36</v>
       </c>
@@ -4931,9 +4977,9 @@
       <c r="X37" s="10"/>
       <c r="Y37" s="9"/>
       <c r="Z37" s="9"/>
-      <c r="AA37" s="16"/>
+      <c r="AA37" s="18"/>
     </row>
-    <row r="38" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="38" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A38" s="5">
         <v>37</v>
       </c>
@@ -4992,9 +5038,9 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
-      <c r="AA38" s="15"/>
+      <c r="AA38" s="17"/>
     </row>
-    <row r="39" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="39" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A39" s="8">
         <v>38</v>
       </c>
@@ -5051,13 +5097,13 @@
       <c r="X39" s="10"/>
       <c r="Y39" s="9"/>
       <c r="Z39" s="9"/>
-      <c r="AA39" s="16"/>
+      <c r="AA39" s="18"/>
     </row>
     <row r="40" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>249</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5095,10 +5141,15 @@
         <v>251</v>
       </c>
       <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
+      <c r="P40" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q40" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="R40" s="6" t="s">
+        <v>253</v>
+      </c>
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
@@ -5106,17 +5157,17 @@
       <c r="X40" s="7"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="6"/>
-      <c r="AA40" s="15"/>
+      <c r="AA40" s="17"/>
     </row>
     <row r="41" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A41" s="8">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D41" s="9">
         <v>3</v>
@@ -5141,39 +5192,38 @@
       </c>
       <c r="K41" s="9"/>
       <c r="L41" s="9" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M41" s="9">
         <v>5</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O41" s="9"/>
       <c r="P41" s="9"/>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
       <c r="V41" s="9"/>
       <c r="W41" s="9"/>
       <c r="X41" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y41" s="9"/>
       <c r="Z41" s="9"/>
-      <c r="AA41" s="16"/>
+      <c r="AA41" s="18"/>
     </row>
     <row r="42" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
       <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D42" s="6">
         <v>3</v>
@@ -5204,13 +5254,14 @@
         <v>3</v>
       </c>
       <c r="N42" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
+      <c r="P42" s="6" t="s">
+        <v>262</v>
+      </c>
       <c r="Q42" s="6"/>
       <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
@@ -5218,17 +5269,17 @@
       <c r="X42" s="7"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="6"/>
-      <c r="AA42" s="15"/>
+      <c r="AA42" s="17"/>
     </row>
     <row r="43" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A43" s="8">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D43" s="9">
         <v>3</v>
@@ -5259,13 +5310,14 @@
         <v>5</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
+      <c r="P43" s="9" t="s">
+        <v>266</v>
+      </c>
       <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
       <c r="V43" s="9"/>
@@ -5273,17 +5325,17 @@
       <c r="X43" s="10"/>
       <c r="Y43" s="9"/>
       <c r="Z43" s="9"/>
-      <c r="AA43" s="16"/>
+      <c r="AA43" s="18"/>
     </row>
     <row r="44" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>263</v>
+      <c r="B44" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D44" s="6">
         <v>3</v>
@@ -5314,13 +5366,16 @@
         <v>2</v>
       </c>
       <c r="N44" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
+      <c r="P44" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q44" s="6" t="s">
+        <v>271</v>
+      </c>
       <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
@@ -5328,17 +5383,17 @@
       <c r="X44" s="7"/>
       <c r="Y44" s="6"/>
       <c r="Z44" s="6"/>
-      <c r="AA44" s="15"/>
+      <c r="AA44" s="17"/>
     </row>
     <row r="45" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
       <c r="A45" s="8">
         <v>44</v>
       </c>
-      <c r="B45" s="9" t="s">
-        <v>266</v>
+      <c r="B45" s="11" t="s">
+        <v>272</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D45" s="9">
         <v>3</v>
@@ -5369,11 +5424,15 @@
         <v>2</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
+      <c r="P45" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q45" s="9" t="s">
+        <v>276</v>
+      </c>
       <c r="R45" s="9"/>
       <c r="S45" s="9"/>
       <c r="T45" s="9"/>
@@ -5383,17 +5442,17 @@
       <c r="X45" s="10"/>
       <c r="Y45" s="9"/>
       <c r="Z45" s="9"/>
-      <c r="AA45" s="16"/>
+      <c r="AA45" s="18"/>
     </row>
-    <row r="46" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="46" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="D46" s="6">
         <v>4</v>
@@ -5411,7 +5470,7 @@
         <v>195</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -5420,20 +5479,20 @@
         <v>0</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M46" s="6">
         <v>3</v>
       </c>
       <c r="N46" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="O46" s="6"/>
       <c r="P46" s="6" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="Q46" s="6" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="R46" s="6"/>
       <c r="S46" s="6"/>
@@ -5444,17 +5503,17 @@
       <c r="X46" s="7"/>
       <c r="Y46" s="6"/>
       <c r="Z46" s="6"/>
-      <c r="AA46" s="15"/>
+      <c r="AA46" s="17"/>
     </row>
-    <row r="47" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="47" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A47" s="8">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="D47" s="9">
         <v>4</v>
@@ -5472,7 +5531,7 @@
         <v>36</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="J47" s="9">
         <v>2</v>
@@ -5481,20 +5540,20 @@
         <v>45</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="M47" s="9">
         <v>2</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="O47" s="9"/>
       <c r="P47" s="9" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="Q47" s="9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="R47" s="9"/>
       <c r="S47" s="9"/>
@@ -5505,17 +5564,17 @@
       <c r="X47" s="10"/>
       <c r="Y47" s="9"/>
       <c r="Z47" s="9"/>
-      <c r="AA47" s="16"/>
+      <c r="AA47" s="18"/>
     </row>
-    <row r="48" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="48" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="D48" s="6">
         <v>4</v>
@@ -5533,7 +5592,7 @@
         <v>36</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="J48" s="6">
         <v>3</v>
@@ -5548,11 +5607,11 @@
         <v>2</v>
       </c>
       <c r="N48" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="O48" s="6"/>
       <c r="P48" s="6" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="Q48" s="6"/>
       <c r="R48" s="6"/>
@@ -5564,17 +5623,17 @@
       <c r="X48" s="7"/>
       <c r="Y48" s="6"/>
       <c r="Z48" s="6"/>
-      <c r="AA48" s="15"/>
+      <c r="AA48" s="17"/>
     </row>
-    <row r="49" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="49" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A49" s="8">
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="D49" s="9">
         <v>4</v>
@@ -5592,7 +5651,7 @@
         <v>227</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J49" s="9">
         <v>1</v>
@@ -5601,23 +5660,23 @@
         <v>0</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M49" s="9">
         <v>3</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="O49" s="9"/>
       <c r="P49" s="9" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q49" s="9" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="R49" s="9" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="S49" s="9"/>
       <c r="T49" s="9"/>
@@ -5627,17 +5686,17 @@
       <c r="X49" s="10"/>
       <c r="Y49" s="9"/>
       <c r="Z49" s="9"/>
-      <c r="AA49" s="16"/>
+      <c r="AA49" s="18"/>
     </row>
-    <row r="50" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+    <row r="50" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="D50" s="6">
         <v>4</v>
@@ -5655,7 +5714,7 @@
         <v>36</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J50" s="6">
         <v>2</v>
@@ -5664,17 +5723,17 @@
         <v>48</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="M50" s="6">
         <v>2</v>
       </c>
       <c r="N50" s="7" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="O50" s="6"/>
       <c r="P50" s="6" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="Q50" s="6"/>
       <c r="R50" s="6"/>
@@ -5686,17 +5745,17 @@
       <c r="X50" s="7"/>
       <c r="Y50" s="6"/>
       <c r="Z50" s="6"/>
-      <c r="AA50" s="15"/>
+      <c r="AA50" s="17"/>
     </row>
-    <row r="51" customFormat="1" ht="18.5" customHeight="1" spans="1:27">
+    <row r="51" customFormat="1" ht="18.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A51" s="8">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="D51" s="9">
         <v>4</v>
@@ -5714,7 +5773,7 @@
         <v>36</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J51" s="9">
         <v>3</v>
@@ -5729,7 +5788,7 @@
         <v>1</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="O51" s="9"/>
       <c r="P51" s="9"/>
@@ -5743,17 +5802,17 @@
       <c r="X51" s="10"/>
       <c r="Y51" s="9"/>
       <c r="Z51" s="9"/>
-      <c r="AA51" s="16"/>
+      <c r="AA51" s="18"/>
     </row>
     <row r="52" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="D52" s="6">
         <v>4</v>
@@ -5784,7 +5843,7 @@
         <v>3</v>
       </c>
       <c r="N52" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="O52" s="6"/>
       <c r="P52" s="6"/>
@@ -5796,23 +5855,23 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
       <c r="X52" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Y52" s="6" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="Z52" s="6"/>
-      <c r="AA52" s="15"/>
+      <c r="AA52" s="17"/>
     </row>
     <row r="53" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
       <c r="A53" s="8">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="D53" s="9">
         <v>4</v>
@@ -5843,7 +5902,7 @@
         <v>5</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="O53" s="9"/>
       <c r="P53" s="9"/>
@@ -5855,21 +5914,21 @@
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="10" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="Y53" s="9"/>
       <c r="Z53" s="9"/>
-      <c r="AA53" s="16"/>
+      <c r="AA53" s="18"/>
     </row>
     <row r="54" customFormat="1" ht="35" customHeight="1" spans="1:27">
       <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="D54" s="6">
         <v>4</v>
@@ -5900,12 +5959,18 @@
         <v>3</v>
       </c>
       <c r="N54" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
+      <c r="P54" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q54" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="R54" s="6" t="s">
+        <v>324</v>
+      </c>
       <c r="S54" s="6"/>
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
@@ -5914,17 +5979,17 @@
       <c r="X54" s="7"/>
       <c r="Y54" s="6"/>
       <c r="Z54" s="6"/>
-      <c r="AA54" s="15"/>
+      <c r="AA54" s="17"/>
     </row>
-    <row r="55" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="55" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A55" s="8">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="D55" s="9">
         <v>5</v>
@@ -5942,7 +6007,7 @@
         <v>195</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="J55" s="9">
         <v>1</v>
@@ -5951,20 +6016,20 @@
         <v>0</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>317</v>
+        <v>328</v>
       </c>
       <c r="M55" s="9">
         <v>1</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="O55" s="9"/>
       <c r="P55" s="9" t="s">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="Q55" s="9" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="R55" s="9"/>
       <c r="S55" s="9"/>
@@ -5975,17 +6040,17 @@
       <c r="X55" s="10"/>
       <c r="Y55" s="9"/>
       <c r="Z55" s="9"/>
-      <c r="AA55" s="16"/>
+      <c r="AA55" s="18"/>
     </row>
-    <row r="56" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
+    <row r="56" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:27">
       <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>320</v>
+        <v>331</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>321</v>
+        <v>332</v>
       </c>
       <c r="D56" s="6">
         <v>5</v>
@@ -6003,7 +6068,7 @@
         <v>36</v>
       </c>
       <c r="I56" s="9" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="J56" s="6">
         <v>2</v>
@@ -6018,11 +6083,11 @@
         <v>1</v>
       </c>
       <c r="N56" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="O56" s="6"/>
       <c r="P56" s="6" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
@@ -6034,17 +6099,17 @@
       <c r="X56" s="7"/>
       <c r="Y56" s="6"/>
       <c r="Z56" s="6"/>
-      <c r="AA56" s="15"/>
+      <c r="AA56" s="17"/>
     </row>
-    <row r="57" customFormat="1" ht="35" customHeight="1" spans="1:27">
+    <row r="57" customFormat="1" ht="35" hidden="1" customHeight="1" spans="1:27">
       <c r="A57" s="8">
         <v>56</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="D57" s="9">
         <v>5</v>
@@ -6062,7 +6127,7 @@
         <v>36</v>
       </c>
       <c r="I57" s="9" t="s">
-        <v>316</v>
+        <v>327</v>
       </c>
       <c r="J57" s="9">
         <v>2</v>
@@ -6077,14 +6142,14 @@
         <v>1</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="O57" s="9"/>
       <c r="P57" s="9" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="Q57" s="9" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
@@ -6095,72 +6160,76 @@
       <c r="X57" s="10"/>
       <c r="Y57" s="9"/>
       <c r="Z57" s="9"/>
-      <c r="AA57" s="16"/>
+      <c r="AA57" s="18"/>
     </row>
-    <row r="58" customFormat="1" ht="51.5" customHeight="1" spans="1:27">
-      <c r="A58" s="11">
+    <row r="58" customFormat="1" ht="51.5" hidden="1" customHeight="1" spans="1:27">
+      <c r="A58" s="13">
         <v>57</v>
       </c>
-      <c r="B58" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="12">
+      <c r="B58" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D58" s="14">
         <v>5</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="14">
         <v>0</v>
       </c>
       <c r="F58" s="9">
         <v>1</v>
       </c>
-      <c r="G58" s="12">
-        <v>1</v>
-      </c>
-      <c r="H58" s="12" t="s">
+      <c r="G58" s="14">
+        <v>1</v>
+      </c>
+      <c r="H58" s="14" t="s">
         <v>36</v>
       </c>
       <c r="I58" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="J58" s="12">
-        <v>2</v>
-      </c>
-      <c r="K58" s="12">
+        <v>327</v>
+      </c>
+      <c r="J58" s="14">
+        <v>2</v>
+      </c>
+      <c r="K58" s="14">
         <v>54</v>
       </c>
-      <c r="L58" s="12" t="s">
+      <c r="L58" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M58" s="12">
-        <v>1</v>
-      </c>
-      <c r="N58" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="O58" s="12"/>
-      <c r="P58" s="12" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q58" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="R58" s="12"/>
-      <c r="S58" s="12"/>
-      <c r="T58" s="12"/>
-      <c r="U58" s="12"/>
-      <c r="V58" s="12"/>
-      <c r="W58" s="12"/>
-      <c r="X58" s="13"/>
-      <c r="Y58" s="12"/>
-      <c r="Z58" s="12"/>
-      <c r="AA58" s="17"/>
+      <c r="M58" s="14">
+        <v>1</v>
+      </c>
+      <c r="N58" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="O58" s="14"/>
+      <c r="P58" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q58" s="14" t="s">
+        <v>343</v>
+      </c>
+      <c r="R58" s="14"/>
+      <c r="S58" s="14"/>
+      <c r="T58" s="14"/>
+      <c r="U58" s="14"/>
+      <c r="V58" s="14"/>
+      <c r="W58" s="14"/>
+      <c r="X58" s="15"/>
+      <c r="Y58" s="14"/>
+      <c r="Z58" s="14"/>
+      <c r="AA58" s="19"/>
     </row>
-    <row r="59" ht="14.25"/>
   </sheetData>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AA58" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="9">
+      <filters>
+        <filter val="99"/>
+      </filters>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="E$1:E$1048576">
